--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -19,12 +19,11 @@
     <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>Moves</t>
   </si>
@@ -406,6 +405,9 @@
   <si>
     <t>Full Plate</t>
   </si>
+  <si>
+    <t>Composure</t>
+  </si>
 </sst>
 </file>
 
@@ -680,14 +682,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,15 +710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,10 +1817,10 @@
         <f t="shared" ref="C2:C9" si="0">IF(B2&gt;10,ROUNDDOWN((B2-10)/2,0),ROUNDUP((B2-10)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="44">
         <f>IF(($C2+$C3)&gt;0,$C2+$C3+10,10)</f>
         <v>11</v>
       </c>
@@ -1834,8 +1836,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1848,10 +1850,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <f>IF(($C4+$C5)&gt;0,$C4+$C5+10,10)</f>
         <v>13</v>
       </c>
@@ -1867,12 +1869,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="44">
         <f>IF(($C5+$C6)&gt;0,$C5+$C6+10,10)</f>
         <v>14</v>
       </c>
@@ -1888,15 +1890,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="44">
         <f>IF(($C6+$C7)&gt;0,$C6+$C7+10,10)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1909,12 +1911,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44">
-        <v>4</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="44">
         <f>IF(($C7+$C8)&gt;0,$C7+$C8+10,10)</f>
         <v>16</v>
       </c>
@@ -1930,15 +1932,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="44">
         <f>IF(($C8+$C9)&gt;0,$C8+$C9+10,10)</f>
         <v>17</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1951,16 +1953,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1968,6 +1965,11 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10042,14 +10044,14 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="47">
         <f>2*C2+ROUND(2.5*E2,0)+ROUND(0.75*E3,0)+3*F2+2*F3+((G2-2)+(G3-2))+D2+D3</f>
         <v>10</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="47">
         <v>0</v>
       </c>
       <c r="D2" s="19">
@@ -10092,20 +10094,20 @@
         <f t="shared" ref="N2:N41" si="6">IF($E2=0, ROUNDUP(100/($H2/2),0), ROUNDUP((100-ROUNDUP(30/$E2,0)*$H2/2)/$H2,0)+ROUNDUP(30/$E2,0))</f>
         <v>200</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="23">
         <v>1</v>
       </c>
@@ -10146,19 +10148,19 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="50">
         <f>2*C4+ROUND(2.5*E4,0)+ROUND(0.75*E5,0)+3*F4+2*F5+((G4-2)+(G5-2))+D4+D5</f>
         <v>22</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
       <c r="D4" s="28">
@@ -10201,20 +10203,20 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="30">
         <v>2</v>
       </c>
@@ -10255,19 +10257,19 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="47">
         <f>2*C6+ROUND(2.5*E6,0)+ROUND(0.75*E7,0)+3*F6+2*F7+((G6-2)+(G7-2))+D6+D7</f>
         <v>28</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="47">
         <v>2</v>
       </c>
       <c r="D6" s="19">
@@ -10310,20 +10312,20 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="23">
         <v>3</v>
       </c>
@@ -10364,19 +10366,19 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="50">
         <f>2*C8+ROUND(2.5*E8,0)+ROUND(0.75*E9,0)+3*F8+2*F9+((G8-2)+(G9-2))+D8+D9</f>
         <v>28</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="51">
         <v>1</v>
       </c>
       <c r="D8" s="28">
@@ -10419,20 +10421,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="49" t="s">
+      <c r="Q8" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="30">
         <v>2</v>
       </c>
@@ -10473,19 +10475,19 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="47">
         <f>2*C10+ROUND(2.5*E10,0)+ROUND(0.75*E11,0)+3*F10+2*F11+((G10-2)+(G11-2))+D10+D11</f>
         <v>28</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
       <c r="D10" s="19">
@@ -10528,20 +10530,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="23">
         <v>2</v>
       </c>
@@ -10582,19 +10584,19 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="50">
         <f>2*C12+ROUND(2.5*E12,0)+ROUND(0.75*E13,0)+3*F12+2*F13+((G12-2)+(G13-2))+D12+D13</f>
         <v>33</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="51">
         <v>2</v>
       </c>
       <c r="D12" s="28">
@@ -10637,20 +10639,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O12" s="49" t="s">
+      <c r="O12" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="49" t="s">
+      <c r="P12" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="49" t="s">
+      <c r="Q12" s="52" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="30">
         <v>4</v>
       </c>
@@ -10691,19 +10693,19 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="50">
         <f>2*C14+ROUND(2.5*E14,0)+ROUND(0.75*E15,0)+3*F14+2*F15+((G14-2)+(G15-2))+D14+D15</f>
         <v>41</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="51">
         <v>3</v>
       </c>
       <c r="D14" s="28">
@@ -10746,14 +10748,14 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="30">
         <v>5</v>
       </c>
@@ -10794,19 +10796,19 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="47">
         <f>2*C16+ROUND(2.5*E16,0)+ROUND(0.75*E17,0)+3*F16+2*F17+((G16-2)+(G17-2))+D16+D17</f>
         <v>33</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>1</v>
       </c>
       <c r="D16" s="19">
@@ -10849,20 +10851,20 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="O16" s="52" t="s">
+      <c r="O16" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="48" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="23">
         <v>2</v>
       </c>
@@ -10903,19 +10905,19 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="47">
         <f>2*C18+ROUND(2.5*E18,0)+ROUND(0.75*E19,0)+3*F18+2*F19+((G18-2)+(G19-2))+D18+D19</f>
         <v>41</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>2</v>
       </c>
       <c r="D18" s="19">
@@ -10958,14 +10960,14 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -11006,19 +11008,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="50">
         <f>2*C20+ROUND(2.5*E20,0)+ROUND(0.75*E21,0)+3*F20+2*F21+((G20-2)+(G21-2))+D20+D21</f>
         <v>33</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="51">
         <v>1</v>
       </c>
       <c r="D20" s="28">
@@ -11061,20 +11063,20 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="52" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="30">
         <v>2</v>
       </c>
@@ -11115,19 +11117,19 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="50">
         <f>2*C22+ROUND(2.5*E22,0)+ROUND(0.75*E23,0)+3*F22+2*F23+((G22-2)+(G23-2))+D22+D23</f>
         <v>42</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="51">
         <v>2</v>
       </c>
       <c r="D22" s="28">
@@ -11170,14 +11172,14 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="30">
         <v>4</v>
       </c>
@@ -11218,19 +11220,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="47">
         <f>2*C24+ROUND(2.5*E24,0)+ROUND(0.75*E25,0)+3*F24+2*F25+((G24-2)+(G25-2))+D24+D25</f>
         <v>42</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>2</v>
       </c>
       <c r="D24" s="19">
@@ -11273,20 +11275,20 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P24" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="48" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="23">
         <v>5</v>
       </c>
@@ -11327,19 +11329,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="50">
         <f>2*C26+ROUND(2.5*E26,0)+ROUND(0.75*E27,0)+3*F26+2*F27+((G26-2)+(G27-2))+D26+D27</f>
         <v>44</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="51">
         <v>1</v>
       </c>
       <c r="D26" s="28">
@@ -11382,20 +11384,20 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="52" t="s">
         <v>81</v>
       </c>
       <c r="P26" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="49" t="s">
+      <c r="Q26" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="30">
         <v>2</v>
       </c>
@@ -11436,19 +11438,19 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O27" s="49"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="53"/>
-      <c r="Q27" s="49"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="47">
         <f>2*C28+ROUND(2.5*E28,0)+ROUND(0.75*E29,0)+3*F28+2*F29+((G28-2)+(G29-2))+D28+D29</f>
         <v>43</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="47">
         <v>1</v>
       </c>
       <c r="D28" s="19">
@@ -11491,20 +11493,20 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="O28" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="P28" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="23">
         <v>4</v>
       </c>
@@ -11545,19 +11547,19 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="50">
         <f>2*C30+ROUND(2.5*E30,0)+ROUND(0.75*E31,0)+3*F30+2*F31+((G30-2)+(G31-2))+D30+D31</f>
         <v>24</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="51">
         <v>1</v>
       </c>
       <c r="D30" s="28">
@@ -11600,20 +11602,20 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="49" t="s">
+      <c r="P30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="30">
         <v>2</v>
       </c>
@@ -11654,19 +11656,19 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="50">
         <f>2*C32+ROUND(2.5*E32,0)+ROUND(0.75*E33,0)+3*F32+2*F33+((G32-2)+(G33-2))+D32+D33</f>
         <v>34</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="51">
         <v>3</v>
       </c>
       <c r="D32" s="28">
@@ -11709,14 +11711,14 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="30">
         <v>4</v>
       </c>
@@ -11757,19 +11759,19 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="47">
         <f>2*C34+ROUND(2.5*E34,0)+ROUND(0.75*E35,0)+3*F34+2*F35+((G34-2)+(G35-2))+D34+D35</f>
         <v>29</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="47">
         <v>1</v>
       </c>
       <c r="D34" s="19">
@@ -11812,20 +11814,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="O34" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="P34" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="23">
         <v>3</v>
       </c>
@@ -11866,19 +11868,19 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="47">
         <f>2*C36+ROUND(2.5*E36,0)+ROUND(0.75*E37,0)+3*F36+2*F37+((G36-2)+(G37-2))+D36+D37</f>
         <v>41</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>3</v>
       </c>
       <c r="D36" s="19">
@@ -11921,14 +11923,14 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="23">
         <v>5</v>
       </c>
@@ -11969,19 +11971,19 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="50">
         <f>2*C38+ROUND(2.5*E38,0)+ROUND(0.75*E39,0)+3*F38+2*F39+((G38-2)+(G39-2))+D38+D39</f>
         <v>19</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="51">
         <v>1</v>
       </c>
       <c r="D38" s="28">
@@ -12024,20 +12026,20 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O38" s="49" t="s">
+      <c r="O38" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="P38" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q38" s="49" t="s">
+      <c r="Q38" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="30">
         <v>2</v>
       </c>
@@ -12078,19 +12080,19 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="50">
         <f>2*C40+ROUND(2.5*E40,0)+ROUND(0.75*E41,0)+3*F40+2*F41+((G40-2)+(G41-2))+D40+D41</f>
         <v>29</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="51">
         <v>3</v>
       </c>
       <c r="D40" s="28">
@@ -12133,14 +12135,14 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="30">
         <v>4</v>
       </c>
@@ -12181,9 +12183,9 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
@@ -12370,30 +12372,69 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="Q38:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="Q30:Q33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -12409,69 +12450,30 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="P38:P41"/>
-    <mergeCell ref="Q38:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MeleeGame\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D727B0B-D58C-45EC-89BF-35CBA387E328}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -328,9 +334,6 @@
     <t>Staff (twohand)</t>
   </si>
   <si>
-    <t>Small Shield (Buckler, etc…)</t>
-  </si>
-  <si>
     <t>Offhand Only, Knockback 5ft on Hit</t>
   </si>
   <si>
@@ -408,11 +411,14 @@
   <si>
     <t>Composure</t>
   </si>
+  <si>
+    <t>Small Shield (Small Buckler, etc…)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -682,23 +688,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +707,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +799,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -840,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,9 +882,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,6 +934,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1083,7 +1126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1209,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1765,10 +1808,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -1817,10 +1860,10 @@
         <f t="shared" ref="C2:C9" si="0">IF(B2&gt;10,ROUNDDOWN((B2-10)/2,0),ROUNDUP((B2-10)/2,0))</f>
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="43">
         <f>IF(($C2+$C3)&gt;0,$C2+$C3+10,10)</f>
         <v>11</v>
       </c>
@@ -1836,8 +1879,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1850,10 +1893,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f>IF(($C4+$C5)&gt;0,$C4+$C5+10,10)</f>
         <v>13</v>
       </c>
@@ -1869,12 +1912,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="43">
         <f>IF(($C5+$C6)&gt;0,$C5+$C6+10,10)</f>
         <v>14</v>
       </c>
@@ -1890,15 +1933,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f>IF(($C6+$C7)&gt;0,$C6+$C7+10,10)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -1911,12 +1954,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="43">
         <f>IF(($C7+$C8)&gt;0,$C7+$C8+10,10)</f>
         <v>16</v>
       </c>
@@ -1932,15 +1975,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f>IF(($C8+$C9)&gt;0,$C8+$C9+10,10)</f>
         <v>17</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1953,11 +1996,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1965,11 +2013,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1981,7 +2024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3867,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5753,7 +5796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8083,7 +8126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -9968,16 +10011,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="13"/>
@@ -10044,14 +10087,14 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="51">
         <f>2*C2+ROUND(2.5*E2,0)+ROUND(0.75*E3,0)+3*F2+2*F3+((G2-2)+(G3-2))+D2+D3</f>
         <v>10</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="51">
         <v>0</v>
       </c>
       <c r="D2" s="19">
@@ -10094,20 +10137,20 @@
         <f t="shared" ref="N2:N41" si="6">IF($E2=0, ROUNDUP(100/($H2/2),0), ROUNDUP((100-ROUNDUP(30/$E2,0)*$H2/2)/$H2,0)+ROUNDUP(30/$E2,0))</f>
         <v>200</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="23">
         <v>1</v>
       </c>
@@ -10148,19 +10191,19 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="47">
         <f>2*C4+ROUND(2.5*E4,0)+ROUND(0.75*E5,0)+3*F4+2*F5+((G4-2)+(G5-2))+D4+D5</f>
         <v>22</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="48">
         <v>1</v>
       </c>
       <c r="D4" s="28">
@@ -10203,20 +10246,20 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="30">
         <v>2</v>
       </c>
@@ -10257,19 +10300,19 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="51">
         <f>2*C6+ROUND(2.5*E6,0)+ROUND(0.75*E7,0)+3*F6+2*F7+((G6-2)+(G7-2))+D6+D7</f>
         <v>28</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="51">
         <v>2</v>
       </c>
       <c r="D6" s="19">
@@ -10312,20 +10355,20 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="23">
         <v>3</v>
       </c>
@@ -10366,19 +10409,19 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="47">
         <f>2*C8+ROUND(2.5*E8,0)+ROUND(0.75*E9,0)+3*F8+2*F9+((G8-2)+(G9-2))+D8+D9</f>
         <v>28</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="48">
         <v>1</v>
       </c>
       <c r="D8" s="28">
@@ -10421,20 +10464,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="30">
         <v>2</v>
       </c>
@@ -10475,19 +10518,19 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="51">
         <f>2*C10+ROUND(2.5*E10,0)+ROUND(0.75*E11,0)+3*F10+2*F11+((G10-2)+(G11-2))+D10+D11</f>
         <v>28</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="51">
         <v>1</v>
       </c>
       <c r="D10" s="19">
@@ -10530,20 +10573,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="23">
         <v>2</v>
       </c>
@@ -10584,19 +10627,19 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="47">
         <f>2*C12+ROUND(2.5*E12,0)+ROUND(0.75*E13,0)+3*F12+2*F13+((G12-2)+(G13-2))+D12+D13</f>
         <v>33</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="48">
         <v>2</v>
       </c>
       <c r="D12" s="28">
@@ -10639,20 +10682,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O12" s="52" t="s">
+      <c r="O12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="30">
         <v>4</v>
       </c>
@@ -10693,19 +10736,19 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="47">
         <f>2*C14+ROUND(2.5*E14,0)+ROUND(0.75*E15,0)+3*F14+2*F15+((G14-2)+(G15-2))+D14+D15</f>
         <v>41</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="48">
         <v>3</v>
       </c>
       <c r="D14" s="28">
@@ -10748,14 +10791,14 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="30">
         <v>5</v>
       </c>
@@ -10796,19 +10839,19 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="51">
         <f>2*C16+ROUND(2.5*E16,0)+ROUND(0.75*E17,0)+3*F16+2*F17+((G16-2)+(G17-2))+D16+D17</f>
         <v>33</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="51">
         <v>1</v>
       </c>
       <c r="D16" s="19">
@@ -10851,20 +10894,20 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="O16" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="48" t="s">
+      <c r="P16" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="48" t="s">
+      <c r="Q16" s="52" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="23">
         <v>2</v>
       </c>
@@ -10905,19 +10948,19 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="51">
         <f>2*C18+ROUND(2.5*E18,0)+ROUND(0.75*E19,0)+3*F18+2*F19+((G18-2)+(G19-2))+D18+D19</f>
         <v>41</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="51">
         <v>2</v>
       </c>
       <c r="D18" s="19">
@@ -10960,14 +11003,14 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="23">
         <v>3</v>
       </c>
@@ -11008,19 +11051,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="47">
         <f>2*C20+ROUND(2.5*E20,0)+ROUND(0.75*E21,0)+3*F20+2*F21+((G20-2)+(G21-2))+D20+D21</f>
         <v>33</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="48">
         <v>1</v>
       </c>
       <c r="D20" s="28">
@@ -11063,20 +11106,20 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O20" s="52" t="s">
+      <c r="O20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q20" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="30">
         <v>2</v>
       </c>
@@ -11117,19 +11160,19 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <f>2*C22+ROUND(2.5*E22,0)+ROUND(0.75*E23,0)+3*F22+2*F23+((G22-2)+(G23-2))+D22+D23</f>
         <v>42</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="48">
         <v>2</v>
       </c>
       <c r="D22" s="28">
@@ -11172,14 +11215,14 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="30">
         <v>4</v>
       </c>
@@ -11220,19 +11263,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="51">
         <f>2*C24+ROUND(2.5*E24,0)+ROUND(0.75*E25,0)+3*F24+2*F25+((G24-2)+(G25-2))+D24+D25</f>
         <v>42</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="51">
         <v>2</v>
       </c>
       <c r="D24" s="19">
@@ -11275,20 +11318,20 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="O24" s="48" t="s">
+      <c r="O24" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="48" t="s">
+      <c r="P24" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="Q24" s="48" t="s">
+      <c r="Q24" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="23">
         <v>5</v>
       </c>
@@ -11329,19 +11372,19 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="47">
         <f>2*C26+ROUND(2.5*E26,0)+ROUND(0.75*E27,0)+3*F26+2*F27+((G26-2)+(G27-2))+D26+D27</f>
         <v>44</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="48">
         <v>1</v>
       </c>
       <c r="D26" s="28">
@@ -11384,20 +11427,20 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="O26" s="49" t="s">
         <v>81</v>
       </c>
       <c r="P26" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="30">
         <v>2</v>
       </c>
@@ -11438,19 +11481,19 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O27" s="52"/>
+      <c r="O27" s="49"/>
       <c r="P27" s="53"/>
-      <c r="Q27" s="52"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="51">
         <f>2*C28+ROUND(2.5*E28,0)+ROUND(0.75*E29,0)+3*F28+2*F29+((G28-2)+(G29-2))+D28+D29</f>
         <v>43</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="51">
         <v>1</v>
       </c>
       <c r="D28" s="19">
@@ -11493,20 +11536,20 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="O28" s="48" t="s">
+      <c r="O28" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="48" t="s">
+      <c r="P28" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="Q28" s="48" t="s">
+      <c r="Q28" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="23">
         <v>4</v>
       </c>
@@ -11547,19 +11590,19 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="47">
         <f>2*C30+ROUND(2.5*E30,0)+ROUND(0.75*E31,0)+3*F30+2*F31+((G30-2)+(G31-2))+D30+D31</f>
         <v>24</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="48">
         <v>1</v>
       </c>
       <c r="D30" s="28">
@@ -11602,20 +11645,20 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="O30" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="P30" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="30">
         <v>2</v>
       </c>
@@ -11656,19 +11699,19 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="47">
         <f>2*C32+ROUND(2.5*E32,0)+ROUND(0.75*E33,0)+3*F32+2*F33+((G32-2)+(G33-2))+D32+D33</f>
         <v>34</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="48">
         <v>3</v>
       </c>
       <c r="D32" s="28">
@@ -11711,14 +11754,14 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="30">
         <v>4</v>
       </c>
@@ -11759,19 +11802,19 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="51">
         <f>2*C34+ROUND(2.5*E34,0)+ROUND(0.75*E35,0)+3*F34+2*F35+((G34-2)+(G35-2))+D34+D35</f>
         <v>29</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="51">
         <v>1</v>
       </c>
       <c r="D34" s="19">
@@ -11814,20 +11857,20 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O34" s="48" t="s">
+      <c r="O34" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="48" t="s">
+      <c r="P34" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="Q34" s="48" t="s">
+      <c r="Q34" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="23">
         <v>3</v>
       </c>
@@ -11868,19 +11911,19 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="51">
         <f>2*C36+ROUND(2.5*E36,0)+ROUND(0.75*E37,0)+3*F36+2*F37+((G36-2)+(G37-2))+D36+D37</f>
         <v>41</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="51">
         <v>3</v>
       </c>
       <c r="D36" s="19">
@@ -11923,14 +11966,14 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="23">
         <v>5</v>
       </c>
@@ -11971,19 +12014,19 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="47">
         <f>2*C38+ROUND(2.5*E38,0)+ROUND(0.75*E39,0)+3*F38+2*F39+((G38-2)+(G39-2))+D38+D39</f>
         <v>19</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="48">
         <v>1</v>
       </c>
       <c r="D38" s="28">
@@ -12026,20 +12069,20 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P38" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="30">
         <v>2</v>
       </c>
@@ -12080,19 +12123,19 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="47">
         <f>2*C40+ROUND(2.5*E40,0)+ROUND(0.75*E41,0)+3*F40+2*F41+((G40-2)+(G41-2))+D40+D41</f>
         <v>29</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="48">
         <v>3</v>
       </c>
       <c r="D40" s="28">
@@ -12135,14 +12178,14 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="30">
         <v>4</v>
       </c>
@@ -12183,13 +12226,13 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B44" s="18">
         <f>2*C44+ROUND(2.5*E44,0)+F44+((G44-2)+D44)</f>
@@ -12242,7 +12285,7 @@
         <v>66</v>
       </c>
       <c r="P44" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q44" s="35" t="s">
         <v>64</v>
@@ -12250,7 +12293,7 @@
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="26">
         <f>2*C45+ROUND(2.5*E45,0)+F45+((G45-2)+D45)</f>
@@ -12303,7 +12346,7 @@
         <v>66</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q45" s="38" t="s">
         <v>64</v>
@@ -12311,7 +12354,7 @@
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="18">
         <f>2*C46+ROUND(2.5*E46,0)+F46+((G46-2)+D46)</f>
@@ -12364,7 +12407,7 @@
         <v>71</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q46" s="22" t="s">
         <v>64</v>
@@ -12372,24 +12415,75 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="O38:O41"/>
-    <mergeCell ref="P38:P41"/>
-    <mergeCell ref="Q38:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -12405,75 +12499,24 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="Q38:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12485,11 +12528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12506,30 +12549,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>105</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="41">
         <v>10</v>
@@ -12538,21 +12581,21 @@
         <v>0</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="F2" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="42">
         <v>15</v>
@@ -12561,21 +12604,21 @@
         <v>0</v>
       </c>
       <c r="D3" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>109</v>
-      </c>
       <c r="F3" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="41">
         <v>20</v>
@@ -12584,21 +12627,21 @@
         <v>0</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="42">
         <v>30</v>
@@ -12613,15 +12656,15 @@
         <v>66</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="41">
         <v>15</v>
@@ -12636,13 +12679,13 @@
         <v>66</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="42">
         <v>30</v>
@@ -12657,15 +12700,15 @@
         <v>66</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="41">
         <v>20</v>
@@ -12680,15 +12723,15 @@
         <v>66</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="42">
         <v>30</v>
@@ -12700,18 +12743,18 @@
         <v>12</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="41">
         <v>40</v>
@@ -12723,18 +12766,18 @@
         <v>12</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="42">
         <v>50</v>
@@ -12746,18 +12789,18 @@
         <v>12</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="41">
         <v>60</v>
@@ -12769,13 +12812,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -12789,7 +12832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>Moves</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Unarmed</t>
-  </si>
-  <si>
-    <t>Tiny</t>
   </si>
   <si>
     <t>light</t>
@@ -415,7 +412,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +441,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -695,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -846,6 +855,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9356,7 +9373,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9479,13 +9496,13 @@
         <v>80</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="63" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9538,7 +9555,7 @@
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4">
         <f>2*C4+ROUND(2.5*E4,0)+ROUND(0.75*E5,0)+3*F4+2*F5+((G4-2)+(G5-2))+D4+D5</f>
@@ -9588,13 +9605,13 @@
         <v>58</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="60" t="s">
         <v>47</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9647,7 +9664,7 @@
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <f>2*C6+ROUND(2.5*E6,0)+ROUND(0.75*E7,0)+3*F6+2*F7+((G6-2)+(G7-2))+D6+D7</f>
@@ -9697,13 +9714,13 @@
         <v>45</v>
       </c>
       <c r="O6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="63" t="s">
         <v>50</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="63" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9756,7 +9773,7 @@
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
         <f>2*C8+ROUND(2.5*E8,0)+ROUND(0.75*E9,0)+3*F8+2*F9+((G8-2)+(G9-2))+D8+D9</f>
@@ -9806,13 +9823,13 @@
         <v>38</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9865,7 +9882,7 @@
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7">
         <f>2*C10+ROUND(2.5*E10,0)+ROUND(0.75*E11,0)+3*F10+2*F11+((G10-2)+(G11-2))+D10+D11</f>
@@ -9915,13 +9932,13 @@
         <v>37</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9974,7 +9991,7 @@
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4">
         <f>2*C12+ROUND(2.5*E12,0)+ROUND(0.75*E13,0)+3*F12+2*F13+((G12-2)+(G13-2))+D12+D13</f>
@@ -10024,13 +10041,13 @@
         <v>45</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="60" t="s">
         <v>58</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10083,7 +10100,7 @@
     </row>
     <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4">
         <f>2*C14+ROUND(2.5*E14,0)+ROUND(0.75*E15,0)+3*F14+2*F15+((G14-2)+(G15-2))+D14+D15</f>
@@ -10186,7 +10203,7 @@
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="7">
         <f>2*C16+ROUND(2.5*E16,0)+ROUND(0.75*E17,0)+3*F16+2*F17+((G16-2)+(G17-2))+D16+D17</f>
@@ -10236,13 +10253,13 @@
         <v>38</v>
       </c>
       <c r="O16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="Q16" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10295,7 +10312,7 @@
     </row>
     <row r="18" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7">
         <f>2*C18+ROUND(2.5*E18,0)+ROUND(0.75*E19,0)+3*F18+2*F19+((G18-2)+(G19-2))+D18+D19</f>
@@ -10398,7 +10415,7 @@
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4">
         <f>2*C20+ROUND(2.5*E20,0)+ROUND(0.75*E21,0)+3*F20+2*F21+((G20-2)+(G21-2))+D20+D21</f>
@@ -10448,13 +10465,13 @@
         <v>37</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="Q20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10507,11 +10524,11 @@
     </row>
     <row r="22" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4">
         <f>2*C22+ROUND(2.5*E22,0)+ROUND(0.75*E23,0)+3*F22+2*F23+((G22-2)+(G23-2))+D22+D23</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -10568,7 +10585,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="32">
         <v>3</v>
@@ -10602,7 +10619,7 @@
       </c>
       <c r="N23" s="32">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -10610,7 +10627,7 @@
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7">
         <f>2*C24+ROUND(2.5*E24,0)+ROUND(0.75*E25,0)+3*F24+2*F25+((G24-2)+(G25-2))+D24+D25</f>
@@ -10660,13 +10677,13 @@
         <v>37</v>
       </c>
       <c r="O24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" s="63" t="s">
         <v>69</v>
-      </c>
-      <c r="Q24" s="63" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10719,7 +10736,7 @@
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="4">
         <f>2*C26+ROUND(2.5*E26,0)+ROUND(0.75*E27,0)+3*F26+2*F27+((G26-2)+(G27-2))+D26+D27</f>
@@ -10769,13 +10786,13 @@
         <v>26</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10828,7 +10845,7 @@
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7">
         <f>2*C28+ROUND(2.5*E28,0)+ROUND(0.75*E29,0)+3*F28+2*F29+((G28-2)+(G29-2))+D28+D29</f>
@@ -10878,13 +10895,13 @@
         <v>31</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q28" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10937,7 +10954,7 @@
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4">
         <f>2*C30+ROUND(2.5*E30,0)+ROUND(0.75*E31,0)+3*F30+2*F31+((G30-2)+(G31-2))+D30+D31</f>
@@ -10987,13 +11004,13 @@
         <v>45</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="60" t="s">
         <v>75</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11046,7 +11063,7 @@
     </row>
     <row r="32" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4">
         <f>2*C32+ROUND(2.5*E32,0)+ROUND(0.75*E33,0)+3*F32+2*F33+((G32-2)+(G33-2))+D32+D33</f>
@@ -11149,7 +11166,7 @@
     </row>
     <row r="34" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7">
         <f>2*C34+ROUND(2.5*E34,0)+ROUND(0.75*E35,0)+3*F34+2*F35+((G34-2)+(G35-2))+D34+D35</f>
@@ -11194,18 +11211,18 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="66">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" s="6" t="s">
+      <c r="O34" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="63" t="s">
         <v>79</v>
-      </c>
-      <c r="Q34" s="63" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11248,19 +11265,19 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="69">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="6"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68"/>
       <c r="Q35" s="64"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="4">
         <f>2*C36+ROUND(2.5*E36,0)+ROUND(0.75*E37,0)+3*F36+2*F37+((G36-2)+(G37-2))+D36+D37</f>
@@ -11310,13 +11327,13 @@
         <v>58</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -11373,7 +11390,7 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4">
         <f>2*C38+ROUND(2.5*E38,0)+ROUND(0.75*E39,0)+3*F38+2*F39+((G38-2)+(G39-2))+D38+D39</f>
@@ -11478,7 +11495,7 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="19">
         <f>2*C42+ROUND(2.5*E42,0)+F42+((G42-2)+D42)</f>
@@ -11528,18 +11545,18 @@
         <v>67</v>
       </c>
       <c r="O42" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="27">
         <f>2*C43+ROUND(2.5*E43,0)+F43+((G43-2)+D43)</f>
@@ -11589,18 +11606,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="19">
         <f>2*C44+ROUND(2.5*E44,0)+F44+((G44-2)+D44)</f>
@@ -11650,13 +11667,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q44" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -11793,33 +11810,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="47">
         <v>10</v>
@@ -11828,24 +11845,24 @@
         <v>0</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>98</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="52">
         <v>7</v>
@@ -11854,24 +11871,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="F3" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="55">
         <v>12</v>
@@ -11880,24 +11897,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="52">
         <v>15</v>
@@ -11906,24 +11923,24 @@
         <v>0</v>
       </c>
       <c r="D5" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>98</v>
-      </c>
       <c r="F5" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="55">
         <v>20</v>
@@ -11935,19 +11952,19 @@
         <v>14</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="52">
         <v>12</v>
@@ -11959,19 +11976,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="55">
         <v>18</v>
@@ -11983,21 +12000,21 @@
         <v>14</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="52">
         <v>15</v>
@@ -12009,21 +12026,21 @@
         <v>14</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="55">
         <v>15</v>
@@ -12035,21 +12052,21 @@
         <v>12</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="55">
         <v>1</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="52">
         <v>25</v>
@@ -12061,21 +12078,21 @@
         <v>12</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="52">
         <v>1</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="55">
         <v>25</v>
@@ -12087,21 +12104,21 @@
         <v>12</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="55">
         <v>1</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="57">
         <v>35</v>
@@ -12113,16 +12130,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="57">
         <v>1</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="125">
   <si>
     <t>Moves</t>
   </si>
@@ -393,9 +393,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Reach, Versitile</t>
-  </si>
-  <si>
     <t>Damage Bonus</t>
   </si>
   <si>
@@ -419,6 +416,12 @@
   </si>
   <si>
     <t>Dodge Roll reduction</t>
+  </si>
+  <si>
+    <t>Optional Reach (Two Hand), Versitile</t>
+  </si>
+  <si>
+    <t>Versitile, Thrown, Optional Reach (Two Hand)</t>
   </si>
 </sst>
 </file>
@@ -891,10 +894,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12696,90 +12699,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="O30:O33"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
@@ -12797,6 +12716,90 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="Q30:Q33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12812,7 +12815,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12837,19 +12840,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>117</v>
-      </c>
       <c r="G1" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>30</v>
@@ -12858,7 +12861,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>32</v>
@@ -12952,7 +12955,7 @@
         <v>47</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12968,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="23">
         <f t="shared" si="0"/>
@@ -13008,7 +13011,7 @@
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="60">
         <v>5</v>
@@ -13077,7 +13080,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f t="shared" si="0"/>
@@ -13189,11 +13192,11 @@
         <v>10</v>
       </c>
       <c r="E7" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="23">
         <v>4</v>
@@ -13206,15 +13209,15 @@
       </c>
       <c r="J7" s="24">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" si="6"/>
@@ -13222,7 +13225,7 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
@@ -13241,7 +13244,7 @@
         <v>97</v>
       </c>
       <c r="D8" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -13298,14 +13301,14 @@
         <v>109</v>
       </c>
       <c r="D9" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="16">
         <v>3</v>
@@ -13318,15 +13321,15 @@
       </c>
       <c r="J9" s="17">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -13334,7 +13337,7 @@
       </c>
       <c r="N9" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -13413,11 +13416,11 @@
         <v>10</v>
       </c>
       <c r="E11" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="23">
         <v>5</v>
@@ -13430,15 +13433,15 @@
       </c>
       <c r="J11" s="24">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" s="24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="6"/>
@@ -13446,7 +13449,7 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -13525,11 +13528,11 @@
         <v>10</v>
       </c>
       <c r="E13" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="16">
         <v>4</v>
@@ -13542,23 +13545,23 @@
       </c>
       <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -13577,7 +13580,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -13634,14 +13637,14 @@
         <v>109</v>
       </c>
       <c r="D15" s="23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="23">
         <v>3</v>
@@ -13654,15 +13657,15 @@
       </c>
       <c r="J15" s="24">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K15" s="24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="6"/>
@@ -13670,7 +13673,7 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -13689,7 +13692,7 @@
         <v>97</v>
       </c>
       <c r="D16" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E16" s="21">
         <v>3</v>
@@ -13740,14 +13743,14 @@
         <v>109</v>
       </c>
       <c r="D17" s="23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="23">
         <v>5</v>
@@ -13760,15 +13763,15 @@
       </c>
       <c r="J17" s="24">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="24">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="24">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="6"/>
@@ -13855,11 +13858,11 @@
         <v>10</v>
       </c>
       <c r="E19" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -13872,15 +13875,15 @@
       </c>
       <c r="J19" s="17">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
@@ -13888,7 +13891,7 @@
       </c>
       <c r="N19" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
@@ -13961,11 +13964,11 @@
         <v>10</v>
       </c>
       <c r="E21" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="16">
         <v>7</v>
@@ -13978,15 +13981,15 @@
       </c>
       <c r="J21" s="17">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
@@ -14073,11 +14076,11 @@
         <v>10</v>
       </c>
       <c r="E23" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="23">
         <v>4</v>
@@ -14090,23 +14093,23 @@
       </c>
       <c r="J23" s="24">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -14171,7 +14174,7 @@
     </row>
     <row r="25" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
-      <c r="B25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="55" t="s">
         <v>109</v>
       </c>
@@ -14179,11 +14182,11 @@
         <v>10</v>
       </c>
       <c r="E25" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="23">
         <v>6</v>
@@ -14196,15 +14199,15 @@
       </c>
       <c r="J25" s="24">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" s="24">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="6"/>
@@ -14212,7 +14215,7 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -14224,14 +14227,14 @@
       <c r="A26" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="67">
         <v>15</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="12">
         <v>3</v>
@@ -14288,14 +14291,14 @@
         <v>109</v>
       </c>
       <c r="D27" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="16">
         <v>6</v>
@@ -14308,15 +14311,15 @@
       </c>
       <c r="J27" s="17">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27" s="17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L27" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
@@ -14403,11 +14406,11 @@
         <v>10</v>
       </c>
       <c r="E29" s="23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="23">
         <v>8</v>
@@ -14420,15 +14423,15 @@
       </c>
       <c r="J29" s="24">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="24">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" s="24">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="6"/>
@@ -14515,11 +14518,11 @@
         <v>10</v>
       </c>
       <c r="E31" s="16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="16">
         <v>7</v>
@@ -14532,23 +14535,23 @@
       </c>
       <c r="J31" s="17">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L31" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
@@ -14611,7 +14614,7 @@
         <v>56</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="S32" s="65" t="s">
         <v>75</v>
@@ -14627,11 +14630,11 @@
         <v>10</v>
       </c>
       <c r="E33" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" s="23">
         <v>4</v>
@@ -14644,15 +14647,15 @@
       </c>
       <c r="J33" s="24">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33" s="24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="6"/>
@@ -14660,7 +14663,7 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -14733,11 +14736,11 @@
         <v>2</v>
       </c>
       <c r="E35" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="23">
         <v>6</v>
@@ -14750,15 +14753,15 @@
       </c>
       <c r="J35" s="24">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="6"/>
@@ -14845,11 +14848,11 @@
         <v>10</v>
       </c>
       <c r="E37" s="16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="16">
         <v>8</v>
@@ -14862,23 +14865,23 @@
       </c>
       <c r="J37" s="17">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L37" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -14941,7 +14944,7 @@
         <v>49</v>
       </c>
       <c r="R38" s="65" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="S38" s="65" t="s">
         <v>81</v>
@@ -14961,7 +14964,7 @@
       </c>
       <c r="F39" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="23">
         <v>3</v>
@@ -14974,23 +14977,23 @@
       </c>
       <c r="J39" s="24">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K39" s="24">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L39" s="24">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M39" s="24">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" s="24">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -15067,7 +15070,7 @@
       </c>
       <c r="F41" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="23">
         <v>5</v>
@@ -15080,23 +15083,23 @@
       </c>
       <c r="J41" s="24">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K41" s="24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L41" s="24">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M41" s="24">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" s="24">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
@@ -15237,13 +15240,13 @@
         <v>86</v>
       </c>
       <c r="B46" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C46" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46" s="11">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -15298,79 +15301,6 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="R14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="R18:R21"/>
-    <mergeCell ref="S18:S21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="S22:S25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="S32:S35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="S38:S41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A36:A37"/>
@@ -15383,6 +15313,79 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="Q38:Q41"/>
     <mergeCell ref="R38:R41"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="S32:S35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="S22:S25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="R18:R21"/>
+    <mergeCell ref="S18:S21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15765,8 +15768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15789,7 +15792,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
         <v>90</v>
@@ -15798,7 +15801,7 @@
         <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
         <v>93</v>
@@ -16092,7 +16095,7 @@
         <v>112</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>20</v>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="138">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -435,6 +435,9 @@
 (Increase Wound Threshold)</t>
   </si>
   <si>
+    <t xml:space="preserve">Armor Points</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clothing Placement</t>
   </si>
   <si>
@@ -442,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Chain Shirt</t>
   </si>
   <si>
     <t xml:space="preserve">Brigantine</t>
@@ -453,13 +459,13 @@
     <t xml:space="preserve">Chain Mail Hauberk</t>
   </si>
   <si>
-    <t xml:space="preserve">Combined Items</t>
+    <t xml:space="preserve">Over or Main</t>
   </si>
   <si>
-    <t xml:space="preserve">Padding + Hide</t>
+    <t xml:space="preserve">Full Plate Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Padding + Leather</t>
+    <t xml:space="preserve">Total Points</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1213,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3801,23 +3807,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3831,23 +3836,19 @@
         <v>126</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="G1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AMI1" s="44"/>
+      <c r="AMJ1" s="44"/>
     </row>
     <row r="2" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
@@ -3857,26 +3858,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="44" t="n">
-        <v>0</v>
+      <c r="F2" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3888,23 +3885,17 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,28 +3908,22 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
+      <c r="F4" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -3946,49 +3931,37 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>96</v>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>129</v>
+      <c r="G6" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,25 +3972,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,25 +3992,19 @@
         <v>104</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>131</v>
+      <c r="G8" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,95 +4012,70 @@
         <v>107</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>25</v>
+        <v>103</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4156,93 +4092,1313 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="F1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="A2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A2,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B2,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C2,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A2,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B2,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C2,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A3,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B3,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C3,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A3,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B3,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C3,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A4,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B4,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C4,'Armor 3.0'!$B:$B)</f>
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E4" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A4,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B4,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C4,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>96</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A5,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B5,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C5,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A5,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B5,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C5,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A6,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B6,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C6,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A6,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B6,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C6,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A7,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B7,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C7,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A7,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B7,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C7,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A8,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B8,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C8,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A8,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B8,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C8,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A9,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B9,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C9,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A9,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B9,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C9,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A10,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B10,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C10,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A10,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B10,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C10,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A11,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B11,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C11,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A11,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B11,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C11,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A12,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B12,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C12,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A12,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B12,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C12,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A13,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B13,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C13,'Armor 3.0'!$B:$B)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A13,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B13,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C13,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A14,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B14,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C14,'Armor 3.0'!$B:$B)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A14,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B14,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C14,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A15,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B15,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C15,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A15,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B15,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C15,'Armor 3.0'!$C:$C)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A16,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B16,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C16,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A16,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B16,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C16,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A17,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B17,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C17,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A17,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B17,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C17,'Armor 3.0'!$C:$C)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A18,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B18,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C18,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A18,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B18,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C18,'Armor 3.0'!$C:$C)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A19,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B19,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C19,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A19,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B19,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C19,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A20,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B20,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C20,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A20,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B20,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C20,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A21,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B21,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C21,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A21,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B21,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C21,'Armor 3.0'!$C:$C)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A22,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B22,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C22,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A22,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B22,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C22,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A23,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B23,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C23,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A23,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B23,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C23,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A24,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B24,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C24,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A24,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B24,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C24,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A25,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B25,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C25,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A25,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B25,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C25,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A26,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B26,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C26,'Armor 3.0'!$B:$B)</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A26,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B26,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C26,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A27,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B27,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C27,'Armor 3.0'!$B:$B)</f>
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A27,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B27,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C27,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A28,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B28,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C28,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A28,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B28,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C28,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A29,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B29,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C29,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A29,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B29,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C29,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A30,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B30,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C30,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A30,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B30,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C30,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A31,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B31,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C31,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A31,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B31,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C31,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A32,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B32,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C32,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A32,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B32,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C32,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A33,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B33,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C33,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A33,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B33,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C33,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A34,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B34,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C34,'Armor 3.0'!$B:$B)</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A34,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B34,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C34,'Armor 3.0'!$C:$C)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A35,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B35,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C35,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A35,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B35,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C35,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A36,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B36,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C36,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A36,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B36,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C36,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A37,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B37,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C37,'Armor 3.0'!$B:$B)</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A37,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B37,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C37,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A38,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B38,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C38,'Armor 3.0'!$B:$B)</f>
+        <v>9</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A38,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B38,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C38,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A39,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B39,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C39,'Armor 3.0'!$B:$B)</f>
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A39,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B39,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C39,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A40,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B40,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C40,'Armor 3.0'!$B:$B)</f>
+        <v>11</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A40,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B40,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C40,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A41,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B41,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C41,'Armor 3.0'!$B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A41,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B41,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C41,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A42,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B42,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C42,'Armor 3.0'!$B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A42,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B42,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C42,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A43,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B43,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C43,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A43,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B43,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C43,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A44,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B44,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C44,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A44,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B44,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C44,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A45,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B45,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C45,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A45,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B45,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C45,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A46,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B46,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C46,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A46,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B46,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C46,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A47,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B47,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C47,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A47,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B47,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C47,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A48,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B48,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C48,'Armor 3.0'!$B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A48,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B48,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C48,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A49,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B49,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C49,'Armor 3.0'!$B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A49,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B49,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C49,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A50,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B50,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C50,'Armor 3.0'!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A50,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B50,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C50,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A51,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B51,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C51,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A51,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B51,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C51,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A52,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B52,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C52,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A52,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B52,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C52,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A53,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B53,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C53,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A53,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B53,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C53,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A54,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B54,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C54,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A54,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B54,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C54,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A55,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B55,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C55,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A55,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B55,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C55,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A56,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B56,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C56,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A56,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B56,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C56,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A57,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B57,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C57,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A57,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B57,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C57,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A58,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B58,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C58,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A58,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B58,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C58,'Armor 3.0'!$C:$C)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A59,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B59,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C59,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A59,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B59,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C59,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A60,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B60,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C60,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A60,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B60,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C60,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A61,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B61,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C61,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A61,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B61,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C61,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A62,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B62,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C62,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A62,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B62,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C62,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A63,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B63,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C63,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A63,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B63,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C63,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A64,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B64,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C64,'Armor 3.0'!$B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A64,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B64,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C64,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A65,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B65,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C65,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A65,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B65,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C65,'Armor 3.0'!$C:$C)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A66,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B66,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C66,'Armor 3.0'!$B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A66,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B66,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C66,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +5419,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -4673,7 +5829,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -5232,7 +6388,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -7122,7 +8278,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -9012,7 +10168,7 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -11346,7 +12502,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -13235,7 +14391,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -15660,7 +16816,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -16032,7 +17188,7 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -18622,7 +19778,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="140">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -438,6 +438,10 @@
     <t xml:space="preserve">Armor Points</t>
   </si>
   <si>
+    <t xml:space="preserve">Stealth 
+(While Moving)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clothing Placement</t>
   </si>
   <si>
@@ -466,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth While Moving</t>
   </si>
 </sst>
 </file>
@@ -721,7 +728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,6 +977,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1089,17 +1100,17 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -1219,7 +1230,7 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1227,7 +1238,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
@@ -3809,17 +3820,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
@@ -3838,14 +3850,14 @@
       <c r="D1" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>93</v>
+      <c r="E1" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AMI1" s="44"/>
       <c r="AMJ1" s="44"/>
@@ -3870,7 +3882,7 @@
         <v>98</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -3895,7 +3907,7 @@
         <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,12 +3930,12 @@
         <v>98</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -3941,12 +3953,12 @@
         <v>101</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -3961,7 +3973,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,7 +3996,7 @@
         <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,7 +4016,7 @@
         <v>101</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,12 +4039,12 @@
         <v>101</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
@@ -4050,12 +4062,12 @@
         <v>98</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5</v>
@@ -4073,7 +4085,7 @@
         <v>101</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4092,35 +4104,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>125</v>
@@ -4129,7 +4141,7 @@
         <v>126</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>90</v>
@@ -4138,7 +4150,7 @@
         <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,15 +4171,21 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A2,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B2,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C2,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="0"/>
+      <c r="F2" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A2,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B2,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C2,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="62" t="n">
+        <f aca="false">IF(F2&lt;3, "-",IF(F2&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>103</v>
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A2,'Armor 3.0'!$E:$E,"Disadvantage"))&lt;3, 0,IF(F2&gt;5,25,10))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A2,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B2,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C2,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,17 +4206,21 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A3,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B3,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C3,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A3,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B3,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C3,'Armor 3.0'!$D:$D)</f>
         <v>4</v>
       </c>
+      <c r="G3" s="62" t="n">
+        <f aca="false">IF(F3&lt;3, "-",IF(F3&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>96</v>
+        <f aca="false">IF(F3&lt;3, 0,IF(F3&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A3,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B3,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C3,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,7 +4231,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A4,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B4,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C4,'Armor 3.0'!$B:$B)</f>
@@ -4219,8 +4241,21 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A4,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B4,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C4,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>96</v>
+      <c r="F4" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A4,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B4,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C4,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="62" t="n">
+        <f aca="false">IF(F4&lt;3, "-",IF(F4&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">IF(F4&lt;3, 0,IF(F4&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A4,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B4,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C4,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,6 +4276,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A5,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B5,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C5,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A5,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B5,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C5,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="62" t="n">
+        <f aca="false">IF(F5&lt;3, "-",IF(F5&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">IF(F5&lt;3, 0,IF(F5&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A5,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B5,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C5,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4260,6 +4311,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A6,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B6,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C6,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A6,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B6,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C6,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="62" t="n">
+        <f aca="false">IF(F6&lt;3, "-",IF(F6&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">IF(F6&lt;3, 0,IF(F6&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A6,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B6,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C6,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4269,7 +4336,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A7,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B7,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C7,'Armor 3.0'!$B:$B)</f>
@@ -4279,6 +4346,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A7,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B7,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C7,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A7,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B7,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C7,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="62" t="n">
+        <f aca="false">IF(F7&lt;3, "-",IF(F7&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">IF(F7&lt;3, 0,IF(F7&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A7,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B7,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C7,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -4288,7 +4371,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A8,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B8,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C8,'Armor 3.0'!$B:$B)</f>
@@ -4298,13 +4381,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A8,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B8,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C8,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A8,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B8,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C8,'Armor 3.0'!$D:$D)</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="62" t="n">
+        <f aca="false">IF(F8&lt;3, "-",IF(F8&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">IF(F8&lt;3, 0,IF(F8&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A8,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B8,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C8,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>102</v>
@@ -4317,13 +4416,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A9,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B9,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C9,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A9,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B9,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C9,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="62" t="n">
+        <f aca="false">IF(F9&lt;3, "-",IF(F9&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">IF(F9&lt;3, 0,IF(F9&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A9,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B9,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C9,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>99</v>
@@ -4336,16 +4451,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A10,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B10,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C10,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A10,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B10,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C10,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="62" t="n">
+        <f aca="false">IF(F10&lt;3, "-",IF(F10&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">IF(F10&lt;3, 0,IF(F10&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A10,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B10,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C10,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A11,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B11,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C11,'Armor 3.0'!$B:$B)</f>
@@ -4355,13 +4486,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A11,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B11,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C11,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A11,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B11,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C11,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="62" t="n">
+        <f aca="false">IF(F11&lt;3, "-",IF(F11&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">IF(F11&lt;3, 0,IF(F11&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A11,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B11,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C11,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>106</v>
@@ -4374,13 +4521,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A12,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B12,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C12,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A12,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B12,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C12,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G12" s="62" t="n">
+        <f aca="false">IF(F12&lt;3, "-",IF(F12&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">IF(F12&lt;3, 0,IF(F12&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A12,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B12,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C12,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>107</v>
@@ -4393,16 +4556,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A13,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B13,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C13,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A13,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B13,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C13,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G13" s="62" t="n">
+        <f aca="false">IF(F13&lt;3, "-",IF(F13&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">IF(F13&lt;3, 0,IF(F13&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A13,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B13,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C13,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A14,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B14,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C14,'Armor 3.0'!$B:$B)</f>
@@ -4412,6 +4591,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A14,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B14,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C14,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A14,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B14,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C14,'Armor 3.0'!$D:$D)</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="62" t="n">
+        <f aca="false">IF(F14&lt;3, "-",IF(F14&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">IF(F14&lt;3, 0,IF(F14&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I14" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A14,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B14,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C14,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
@@ -4431,6 +4626,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A15,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B15,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C15,'Armor 3.0'!$C:$C)</f>
         <v>6</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A15,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B15,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C15,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="62" t="n">
+        <f aca="false">IF(F15&lt;3, "-",IF(F15&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">IF(F15&lt;3, 0,IF(F15&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A15,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B15,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C15,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
@@ -4450,6 +4661,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A16,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B16,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C16,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A16,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B16,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C16,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G16" s="62" t="n">
+        <f aca="false">IF(F16&lt;3, "-",IF(F16&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">IF(F16&lt;3, 0,IF(F16&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A16,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B16,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C16,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
@@ -4459,7 +4686,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A17,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B17,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C17,'Armor 3.0'!$B:$B)</f>
@@ -4469,6 +4696,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A17,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B17,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C17,'Armor 3.0'!$C:$C)</f>
         <v>6</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A17,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B17,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C17,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="62" t="n">
+        <f aca="false">IF(F17&lt;3, "-",IF(F17&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">IF(F17&lt;3, 0,IF(F17&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A17,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B17,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C17,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
@@ -4488,6 +4731,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A18,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B18,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C18,'Armor 3.0'!$C:$C)</f>
         <v>6</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A18,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B18,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C18,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G18" s="62" t="n">
+        <f aca="false">IF(F18&lt;3, "-",IF(F18&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">IF(F18&lt;3, 0,IF(F18&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A18,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B18,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C18,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
@@ -4507,6 +4766,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A19,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B19,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C19,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A19,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B19,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C19,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="62" t="n">
+        <f aca="false">IF(F19&lt;3, "-",IF(F19&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">IF(F19&lt;3, 0,IF(F19&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I19" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A19,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B19,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C19,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="s">
@@ -4516,7 +4791,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A20,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B20,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C20,'Armor 3.0'!$B:$B)</f>
@@ -4526,6 +4801,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A20,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B20,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C20,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A20,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B20,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C20,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G20" s="62" t="n">
+        <f aca="false">IF(F20&lt;3, "-",IF(F20&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">IF(F20&lt;3, 0,IF(F20&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I20" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A20,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B20,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C20,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
@@ -4535,7 +4826,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A21,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B21,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C21,'Armor 3.0'!$B:$B)</f>
@@ -4545,13 +4836,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A21,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B21,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C21,'Armor 3.0'!$C:$C)</f>
         <v>6</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A21,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B21,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C21,'Armor 3.0'!$D:$D)</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="62" t="n">
+        <f aca="false">IF(F21&lt;3, "-",IF(F21&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">IF(F21&lt;3, 0,IF(F21&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I21" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A21,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B21,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C21,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>102</v>
@@ -4564,13 +4871,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A22,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B22,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C22,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A22,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B22,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C22,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="62" t="n">
+        <f aca="false">IF(F22&lt;3, "-",IF(F22&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">IF(F22&lt;3, 0,IF(F22&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I22" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A22,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B22,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C22,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>99</v>
@@ -4583,16 +4906,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A23,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B23,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C23,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A23,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B23,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C23,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="62" t="n">
+        <f aca="false">IF(F23&lt;3, "-",IF(F23&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">IF(F23&lt;3, 0,IF(F23&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I23" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A23,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B23,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C23,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A24,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B24,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C24,'Armor 3.0'!$B:$B)</f>
@@ -4602,13 +4941,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A24,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B24,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C24,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A24,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B24,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C24,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G24" s="62" t="n">
+        <f aca="false">IF(F24&lt;3, "-",IF(F24&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">IF(F24&lt;3, 0,IF(F24&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A24,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B24,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C24,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>106</v>
@@ -4621,13 +4976,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A25,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B25,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C25,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A25,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B25,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C25,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G25" s="62" t="n">
+        <f aca="false">IF(F25&lt;3, "-",IF(F25&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">IF(F25&lt;3, 0,IF(F25&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I25" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A25,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B25,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C25,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>107</v>
@@ -4640,16 +5011,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A26,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B26,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C26,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A26,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B26,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C26,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G26" s="62" t="n">
+        <f aca="false">IF(F26&lt;3, "-",IF(F26&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">IF(F26&lt;3, 0,IF(F26&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I26" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A26,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B26,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C26,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A27,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B27,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C27,'Armor 3.0'!$B:$B)</f>
@@ -4659,10 +5046,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A27,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B27,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C27,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A27,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B27,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C27,'Armor 3.0'!$D:$D)</f>
+        <v>11</v>
+      </c>
+      <c r="G27" s="62" t="n">
+        <f aca="false">IF(F27&lt;3, "-",IF(F27&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">IF(F27&lt;3, 0,IF(F27&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I27" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A27,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B27,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C27,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>104</v>
@@ -4678,10 +5081,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A28,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B28,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C28,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A28,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B28,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C28,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G28" s="62" t="n">
+        <f aca="false">IF(F28&lt;3, "-",IF(F28&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">IF(F28&lt;3, 0,IF(F28&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I28" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A28,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B28,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C28,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>104</v>
@@ -4697,16 +5116,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A29,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B29,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C29,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A29,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B29,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C29,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="62" t="n">
+        <f aca="false">IF(F29&lt;3, "-",IF(F29&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">IF(F29&lt;3, 0,IF(F29&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I29" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A29,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B29,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C29,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A30,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B30,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C30,'Armor 3.0'!$B:$B)</f>
@@ -4716,10 +5151,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A30,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B30,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C30,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A30,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B30,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C30,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="62" t="n">
+        <f aca="false">IF(F30&lt;3, "-",IF(F30&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">IF(F30&lt;3, 0,IF(F30&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I30" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A30,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B30,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C30,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>104</v>
@@ -4735,10 +5186,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A31,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B31,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C31,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A31,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B31,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C31,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G31" s="62" t="n">
+        <f aca="false">IF(F31&lt;3, "-",IF(F31&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">IF(F31&lt;3, 0,IF(F31&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I31" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A31,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B31,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C31,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>104</v>
@@ -4754,16 +5221,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A32,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B32,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C32,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A32,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B32,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C32,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G32" s="62" t="n">
+        <f aca="false">IF(F32&lt;3, "-",IF(F32&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">IF(F32&lt;3, 0,IF(F32&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I32" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A32,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B32,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C32,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A33,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B33,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C33,'Armor 3.0'!$B:$B)</f>
@@ -4773,16 +5256,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A33,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B33,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C33,'Armor 3.0'!$C:$C)</f>
         <v>4</v>
       </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A33,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B33,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C33,'Armor 3.0'!$D:$D)</f>
+        <v>9</v>
+      </c>
+      <c r="G33" s="62" t="n">
+        <f aca="false">IF(F33&lt;3, "-",IF(F33&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">IF(F33&lt;3, 0,IF(F33&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I33" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A33,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B33,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C33,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A34,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B34,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C34,'Armor 3.0'!$B:$B)</f>
@@ -4792,13 +5291,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A34,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B34,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C34,'Armor 3.0'!$C:$C)</f>
         <v>5</v>
       </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A34,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B34,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C34,'Armor 3.0'!$D:$D)</f>
+        <v>11</v>
+      </c>
+      <c r="G34" s="62" t="n">
+        <f aca="false">IF(F34&lt;3, "-",IF(F34&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">IF(F34&lt;3, 0,IF(F34&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I34" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A34,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B34,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C34,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>102</v>
@@ -4811,13 +5326,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A35,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B35,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C35,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A35,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B35,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C35,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G35" s="62" t="n">
+        <f aca="false">IF(F35&lt;3, "-",IF(F35&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">IF(F35&lt;3, 0,IF(F35&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I35" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A35,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B35,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C35,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>99</v>
@@ -4830,16 +5361,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A36,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B36,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C36,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A36,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B36,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C36,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G36" s="62" t="n">
+        <f aca="false">IF(F36&lt;3, "-",IF(F36&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">IF(F36&lt;3, 0,IF(F36&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I36" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A36,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B36,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C36,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A37,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B37,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C37,'Armor 3.0'!$B:$B)</f>
@@ -4849,13 +5396,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A37,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B37,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C37,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A37,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B37,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C37,'Armor 3.0'!$D:$D)</f>
+        <v>9</v>
+      </c>
+      <c r="G37" s="62" t="n">
+        <f aca="false">IF(F37&lt;3, "-",IF(F37&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">IF(F37&lt;3, 0,IF(F37&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I37" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A37,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B37,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C37,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>106</v>
@@ -4868,13 +5431,29 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A38,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B38,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C38,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A38,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B38,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C38,'Armor 3.0'!$D:$D)</f>
+        <v>9</v>
+      </c>
+      <c r="G38" s="62" t="n">
+        <f aca="false">IF(F38&lt;3, "-",IF(F38&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">IF(F38&lt;3, 0,IF(F38&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I38" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A38,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B38,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C38,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>107</v>
@@ -4887,16 +5466,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A39,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B39,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C39,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A39,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B39,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C39,'Armor 3.0'!$D:$D)</f>
+        <v>9</v>
+      </c>
+      <c r="G39" s="62" t="n">
+        <f aca="false">IF(F39&lt;3, "-",IF(F39&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">IF(F39&lt;3, 0,IF(F39&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I39" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A39,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B39,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C39,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A40,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B40,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C40,'Armor 3.0'!$B:$B)</f>
@@ -4906,6 +5501,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A40,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B40,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C40,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A40,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B40,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C40,'Armor 3.0'!$D:$D)</f>
+        <v>12</v>
+      </c>
+      <c r="G40" s="62" t="n">
+        <f aca="false">IF(F40&lt;3, "-",IF(F40&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">IF(F40&lt;3, 0,IF(F40&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I40" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A40,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B40,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C40,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
@@ -4925,6 +5536,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A41,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B41,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C41,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A41,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B41,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C41,'Armor 3.0'!$D:$D)</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="62" t="str">
+        <f aca="false">IF(F41&lt;3, "-",IF(F41&gt;5,0,15))</f>
+        <v>-</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">IF(F41&lt;3, 0,IF(F41&gt;5,25,10))</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A41,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B41,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C41,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="44" t="s">
@@ -4944,6 +5571,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A42,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B42,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C42,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A42,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B42,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C42,'Armor 3.0'!$D:$D)</f>
+        <v>2</v>
+      </c>
+      <c r="G42" s="62" t="str">
+        <f aca="false">IF(F42&lt;3, "-",IF(F42&gt;5,0,15))</f>
+        <v>-</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">IF(F42&lt;3, 0,IF(F42&gt;5,25,10))</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A42,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B42,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C42,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
@@ -4953,7 +5596,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A43,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B43,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C43,'Armor 3.0'!$B:$B)</f>
@@ -4963,6 +5606,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A43,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B43,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C43,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A43,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B43,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C43,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G43" s="62" t="n">
+        <f aca="false">IF(F43&lt;3, "-",IF(F43&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">IF(F43&lt;3, 0,IF(F43&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I43" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A43,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B43,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C43,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
@@ -4982,6 +5641,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A44,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B44,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C44,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A44,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B44,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C44,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G44" s="62" t="n">
+        <f aca="false">IF(F44&lt;3, "-",IF(F44&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">IF(F44&lt;3, 0,IF(F44&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I44" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A44,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B44,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C44,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
@@ -5001,6 +5676,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A45,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B45,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C45,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A45,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B45,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C45,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G45" s="62" t="n">
+        <f aca="false">IF(F45&lt;3, "-",IF(F45&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">IF(F45&lt;3, 0,IF(F45&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I45" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A45,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B45,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C45,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="44" t="s">
@@ -5010,7 +5701,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A46,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B46,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C46,'Armor 3.0'!$B:$B)</f>
@@ -5020,6 +5711,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A46,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B46,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C46,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A46,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B46,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C46,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G46" s="62" t="n">
+        <f aca="false">IF(F46&lt;3, "-",IF(F46&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">IF(F46&lt;3, 0,IF(F46&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I46" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A46,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B46,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C46,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
@@ -5029,7 +5736,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A47,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B47,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C47,'Armor 3.0'!$B:$B)</f>
@@ -5039,6 +5746,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A47,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B47,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C47,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A47,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B47,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C47,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G47" s="62" t="n">
+        <f aca="false">IF(F47&lt;3, "-",IF(F47&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">IF(F47&lt;3, 0,IF(F47&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I47" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A47,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B47,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C47,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
@@ -5058,6 +5781,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A48,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B48,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C48,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A48,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B48,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C48,'Armor 3.0'!$D:$D)</f>
+        <v>2</v>
+      </c>
+      <c r="G48" s="62" t="str">
+        <f aca="false">IF(F48&lt;3, "-",IF(F48&gt;5,0,15))</f>
+        <v>-</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">IF(F48&lt;3, 0,IF(F48&gt;5,25,10))</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A48,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B48,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C48,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="44" t="s">
@@ -5077,6 +5816,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A49,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B49,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C49,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A49,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B49,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C49,'Armor 3.0'!$D:$D)</f>
+        <v>2</v>
+      </c>
+      <c r="G49" s="62" t="str">
+        <f aca="false">IF(F49&lt;3, "-",IF(F49&gt;5,0,15))</f>
+        <v>-</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">IF(F49&lt;3, 0,IF(F49&gt;5,25,10))</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A49,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B49,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C49,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="44" t="s">
@@ -5086,7 +5841,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A50,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B50,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C50,'Armor 3.0'!$B:$B)</f>
@@ -5096,6 +5851,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A50,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B50,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C50,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A50,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B50,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C50,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G50" s="62" t="n">
+        <f aca="false">IF(F50&lt;3, "-",IF(F50&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">IF(F50&lt;3, 0,IF(F50&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I50" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A50,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B50,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C50,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
@@ -5115,6 +5886,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A51,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B51,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C51,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A51,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B51,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C51,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G51" s="62" t="n">
+        <f aca="false">IF(F51&lt;3, "-",IF(F51&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">IF(F51&lt;3, 0,IF(F51&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I51" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A51,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B51,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C51,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="44" t="s">
@@ -5134,6 +5921,22 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A52,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B52,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C52,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A52,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B52,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C52,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G52" s="62" t="n">
+        <f aca="false">IF(F52&lt;3, "-",IF(F52&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">IF(F52&lt;3, 0,IF(F52&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I52" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A52,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B52,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C52,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
@@ -5143,7 +5946,7 @@
         <v>96</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D53" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A53,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B53,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C53,'Armor 3.0'!$B:$B)</f>
@@ -5153,10 +5956,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A53,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B53,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C53,'Armor 3.0'!$C:$C)</f>
         <v>3</v>
       </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A53,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B53,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C53,'Armor 3.0'!$D:$D)</f>
+        <v>7</v>
+      </c>
+      <c r="G53" s="62" t="n">
+        <f aca="false">IF(F53&lt;3, "-",IF(F53&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">IF(F53&lt;3, 0,IF(F53&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I53" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A53,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B53,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C53,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>96</v>
@@ -5172,10 +5991,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A54,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B54,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C54,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A54,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B54,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C54,'Armor 3.0'!$D:$D)</f>
+        <v>3</v>
+      </c>
+      <c r="G54" s="62" t="n">
+        <f aca="false">IF(F54&lt;3, "-",IF(F54&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">IF(F54&lt;3, 0,IF(F54&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I54" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A54,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B54,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C54,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>96</v>
@@ -5191,16 +6026,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A55,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B55,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C55,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A55,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B55,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C55,'Armor 3.0'!$D:$D)</f>
+        <v>3</v>
+      </c>
+      <c r="G55" s="62" t="n">
+        <f aca="false">IF(F55&lt;3, "-",IF(F55&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">IF(F55&lt;3, 0,IF(F55&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I55" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A55,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B55,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C55,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A56,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B56,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C56,'Armor 3.0'!$B:$B)</f>
@@ -5210,10 +6061,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A56,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B56,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C56,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A56,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B56,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C56,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G56" s="62" t="n">
+        <f aca="false">IF(F56&lt;3, "-",IF(F56&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">IF(F56&lt;3, 0,IF(F56&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I56" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A56,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B56,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C56,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>96</v>
@@ -5229,10 +6096,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A57,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B57,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C57,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A57,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B57,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C57,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G57" s="62" t="n">
+        <f aca="false">IF(F57&lt;3, "-",IF(F57&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">IF(F57&lt;3, 0,IF(F57&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I57" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A57,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B57,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C57,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>96</v>
@@ -5248,16 +6131,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A58,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B58,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C58,'Armor 3.0'!$C:$C)</f>
         <v>0</v>
       </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A58,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B58,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C58,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G58" s="62" t="n">
+        <f aca="false">IF(F58&lt;3, "-",IF(F58&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">IF(F58&lt;3, 0,IF(F58&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I58" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A58,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B58,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C58,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D59" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A59,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B59,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C59,'Armor 3.0'!$B:$B)</f>
@@ -5267,16 +6166,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A59,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B59,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C59,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A59,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B59,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C59,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G59" s="62" t="n">
+        <f aca="false">IF(F59&lt;3, "-",IF(F59&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">IF(F59&lt;3, 0,IF(F59&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I59" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A59,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B59,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C59,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A60,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B60,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C60,'Armor 3.0'!$B:$B)</f>
@@ -5286,10 +6201,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A60,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B60,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C60,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A60,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B60,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C60,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G60" s="62" t="n">
+        <f aca="false">IF(F60&lt;3, "-",IF(F60&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">IF(F60&lt;3, 0,IF(F60&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I60" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A60,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B60,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C60,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>96</v>
@@ -5305,10 +6236,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A61,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B61,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C61,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A61,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B61,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C61,'Armor 3.0'!$D:$D)</f>
+        <v>3</v>
+      </c>
+      <c r="G61" s="62" t="n">
+        <f aca="false">IF(F61&lt;3, "-",IF(F61&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">IF(F61&lt;3, 0,IF(F61&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I61" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A61,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B61,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C61,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>96</v>
@@ -5324,16 +6271,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A62,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B62,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C62,'Armor 3.0'!$C:$C)</f>
         <v>1</v>
       </c>
+      <c r="F62" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A62,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B62,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C62,'Armor 3.0'!$D:$D)</f>
+        <v>3</v>
+      </c>
+      <c r="G62" s="62" t="n">
+        <f aca="false">IF(F62&lt;3, "-",IF(F62&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">IF(F62&lt;3, 0,IF(F62&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I62" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A62,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B62,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C62,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A63,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B63,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C63,'Armor 3.0'!$B:$B)</f>
@@ -5343,10 +6306,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A63,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B63,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C63,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F63" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A63,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B63,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C63,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G63" s="62" t="n">
+        <f aca="false">IF(F63&lt;3, "-",IF(F63&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">IF(F63&lt;3, 0,IF(F63&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I63" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A63,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B63,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C63,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>96</v>
@@ -5362,10 +6341,26 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A64,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B64,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C64,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
       </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A64,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B64,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C64,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G64" s="62" t="n">
+        <f aca="false">IF(F64&lt;3, "-",IF(F64&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">IF(F64&lt;3, 0,IF(F64&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I64" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A64,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B64,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C64,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>96</v>
@@ -5381,16 +6376,32 @@
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A65,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B65,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C65,'Armor 3.0'!$C:$C)</f>
         <v>0</v>
       </c>
+      <c r="F65" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A65,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B65,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C65,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G65" s="62" t="n">
+        <f aca="false">IF(F65&lt;3, "-",IF(F65&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">IF(F65&lt;3, 0,IF(F65&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I65" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A65,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B65,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C65,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A66,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B66,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C66,'Armor 3.0'!$B:$B)</f>
@@ -5399,6 +6410,162 @@
       <c r="E66" s="0" t="n">
         <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A66,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B66,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C66,'Armor 3.0'!$C:$C)</f>
         <v>2</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A66,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B66,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C66,'Armor 3.0'!$D:$D)</f>
+        <v>8</v>
+      </c>
+      <c r="G66" s="62" t="n">
+        <f aca="false">IF(F66&lt;3, "-",IF(F66&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">IF(F66&lt;3, 0,IF(F66&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I66" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A66,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B66,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C66,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A67,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B67,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C67,'Armor 3.0'!$B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A67,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B67,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C67,'Armor 3.0'!$C:$C)</f>
+        <v>4</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A67,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B67,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C67,'Armor 3.0'!$D:$D)</f>
+        <v>4</v>
+      </c>
+      <c r="G67" s="62" t="n">
+        <f aca="false">IF(F67&lt;3, "-",IF(F67&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">IF(F67&lt;3, 0,IF(F67&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I67" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A67,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B67,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C67,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A68,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B68,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C68,'Armor 3.0'!$B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A68,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B68,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C68,'Armor 3.0'!$C:$C)</f>
+        <v>2</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A68,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B68,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C68,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G68" s="62" t="n">
+        <f aca="false">IF(F68&lt;3, "-",IF(F68&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">IF(F68&lt;3, 0,IF(F68&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I68" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A68,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B68,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C68,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A69,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B69,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C69,'Armor 3.0'!$B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A69,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B69,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C69,'Armor 3.0'!$C:$C)</f>
+        <v>3</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A69,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B69,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C69,'Armor 3.0'!$D:$D)</f>
+        <v>5</v>
+      </c>
+      <c r="G69" s="62" t="n">
+        <f aca="false">IF(F69&lt;3, "-",IF(F69&gt;5,0,15))</f>
+        <v>15</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">IF(F69&lt;3, 0,IF(F69&gt;5,25,10))</f>
+        <v>10</v>
+      </c>
+      <c r="I69" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A69,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B69,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C69,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A70,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$B70,'Armor 3.0'!$B:$B)+SUMIF('Armor 3.0'!$A:$A,$C70,'Armor 3.0'!$B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A70,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$B70,'Armor 3.0'!$C:$C)+SUMIF('Armor 3.0'!$A:$A,$C70,'Armor 3.0'!$C:$C)</f>
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <f aca="false">SUMIF('Armor 3.0'!$A:$A,$A70,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$B70,'Armor 3.0'!$D:$D)+SUMIF('Armor 3.0'!$A:$A,$C70,'Armor 3.0'!$D:$D)</f>
+        <v>6</v>
+      </c>
+      <c r="G70" s="62" t="n">
+        <f aca="false">IF(F70&lt;3, "-",IF(F70&gt;5,0,15))</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">IF(F70&lt;3, 0,IF(F70&gt;5,25,10))</f>
+        <v>25</v>
+      </c>
+      <c r="I70" s="0" t="str">
+        <f aca="false">IF((COUNTIFS('Armor 3.0'!$A:$A,A70,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,B70,'Armor 3.0'!$E:$E,"Disadvantage")+COUNTIFS('Armor 3.0'!$A:$A,C70,'Armor 3.0'!$E:$E,"Disadvantage"))&gt;0,"Disadvantage", "-")</f>
+        <v>Disadvantage</v>
       </c>
     </row>
   </sheetData>
@@ -5419,7 +6586,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5829,7 +6996,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6388,7 +7555,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -6399,7 +7566,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8278,7 +9445,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -8289,7 +9456,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10168,7 +11335,7 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -12502,7 +13669,7 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -14391,7 +15558,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -16816,13 +17983,13 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -17188,7 +18355,7 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -17196,7 +18363,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
@@ -19778,15 +20945,15 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,8 +22,11 @@
     <sheet name="Armor Layering 3.0" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Weapons 4.0" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Armor 4.0" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Sheet5" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Weapons 5.0" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Armor 5.0" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Weapon 5.0 (Table)" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Sheet5" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="186">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -512,6 +515,108 @@
   <si>
     <t xml:space="preserve">Full Plate Mail Set</t>
   </si>
+  <si>
+    <t xml:space="preserve">Concentration cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide Overcoat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Mail  Hauberk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Certain Backgrounds may allow starting with this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dice Numb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dice Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Lethal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethal Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club/Improvised Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longsword (One Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longsword (Two Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarHammer (One Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarHammer (Two Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Axe (One Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Axe (Two Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hammer</t>
+  </si>
 </sst>
 </file>
 
@@ -522,12 +627,11 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -546,10 +650,60 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -557,10 +711,28 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +741,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -591,13 +805,34 @@
         <bgColor rgb="FFDCE6F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -741,7 +976,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,8 +1000,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -783,7 +1069,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,7 +1077,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -803,132 +1089,128 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -943,47 +1225,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -991,15 +1277,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,88 +1293,113 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1097,7 +1408,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1107,13 +1418,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1183,16 +1494,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="R1:S2 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -1313,14 +1624,14 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="R1:S2 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
@@ -3902,15 +4213,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="R1:S2 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -4187,7 +4498,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="1" sqref="R1:S2 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4196,7 +4507,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
@@ -6666,15 +6977,15 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="R1:S2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
@@ -8187,14 +8498,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="R1:S2 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.99"/>
@@ -8465,401 +8776,1511 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="R1:S2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="n">
+    <row r="1" s="2" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="66" t="n">
+        <f aca="false">IF(C2="Light",E2,E2+$W$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="49" t="n">
+        <f aca="false">H2+F2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="49" t="n">
+        <f aca="false">H2*(I2/2)+F2</f>
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="49" t="n">
+        <f aca="false">H2*I2+F2</f>
+        <v>5</v>
+      </c>
+      <c r="M2" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="N2" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K2,0)</f>
+        <v>40</v>
+      </c>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="70" t="n">
+        <f aca="false">IF(C3="Light",E3,E3+$W$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="71" t="n">
+        <f aca="false">H3+F3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="71" t="n">
+        <f aca="false">H3*(I3/2)+F3</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="71" t="n">
+        <f aca="false">H3*I3+F3</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="N3" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <f aca="false">IF(C4="Light",E4,E4+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="49" t="n">
+        <f aca="false">H4+F4</f>
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="K4" s="49" t="n">
+        <f aca="false">H4*(I4/2)+F4</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="49" t="n">
+        <f aca="false">H4*I4+F4</f>
+        <v>11</v>
+      </c>
+      <c r="M4" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N4" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="70" t="n">
+        <f aca="false">IF(C5="Light",E5,E5+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="71" t="n">
+        <f aca="false">H5+F5</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="71" t="n">
+        <f aca="false">H5*(I5/2)+F5</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="71" t="n">
+        <f aca="false">H5*I5+F5</f>
+        <v>11</v>
+      </c>
+      <c r="M5" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N5" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K5,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="66" t="n">
+        <f aca="false">IF(C6="Light",E6,E6+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="49" t="n">
+        <f aca="false">H6+F6</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="49" t="n">
+        <f aca="false">H6*(I6/2)+F6</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="49" t="n">
+        <f aca="false">H6*I6+F6</f>
+        <v>11</v>
+      </c>
+      <c r="M6" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N6" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K6,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="70" t="n">
+        <f aca="false">IF(C7="Light",E7,E7+$W$2)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="71" t="n">
+        <f aca="false">H7+F7</f>
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="K7" s="71" t="n">
+        <f aca="false">H7*(I7/2)+F7</f>
+        <v>7</v>
+      </c>
+      <c r="L7" s="71" t="n">
+        <f aca="false">H7*I7+F7</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="N7" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K7,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="66" t="n">
+        <f aca="false">IF(C8="Light",E8,E8+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="49" t="n">
+        <f aca="false">H8+F8</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="49" t="n">
+        <f aca="false">H8*(I8/2)+F8</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="49" t="n">
+        <f aca="false">H8*I8+F8</f>
+        <v>11</v>
+      </c>
+      <c r="M8" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K8,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N8" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K8,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="66" t="n">
+        <f aca="false">IF(C9="Light",E9,E9+$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="49" t="n">
+        <f aca="false">H9+F9</f>
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="K9" s="49" t="n">
+        <f aca="false">H9*(I9/2)+F9</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="49" t="n">
+        <f aca="false">H9*I9+F9</f>
+        <v>13</v>
+      </c>
+      <c r="M9" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="N9" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K9,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="C10" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="70" t="n">
+        <f aca="false">IF(C10="Light",E10,E10+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="71" t="n">
+        <f aca="false">H10+F10</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="71" t="n">
+        <f aca="false">H10*(I10/2)+F10</f>
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="L10" s="71" t="n">
+        <f aca="false">H10*I10+F10</f>
+        <v>11</v>
+      </c>
+      <c r="M10" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K10,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N10" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K10,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="70" t="n">
+        <f aca="false">IF(C11="Light",E11,E11+$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="71" t="n">
+        <f aca="false">H11+F11</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="71" t="n">
+        <f aca="false">H11*(I11/2)+F11</f>
+        <v>8</v>
+      </c>
+      <c r="L11" s="71" t="n">
+        <f aca="false">H11*I11+F11</f>
+        <v>13</v>
+      </c>
+      <c r="M11" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K11,0)</f>
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="N11" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K11,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="66" t="n">
+        <f aca="false">IF(C12="Light",E12,E12+$W$2)</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="49" t="n">
+        <f aca="false">H12+F12</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="49" t="n">
+        <f aca="false">H12*(I12/2)+F12</f>
+        <v>7</v>
+      </c>
+      <c r="L12" s="49" t="n">
+        <f aca="false">H12*I12+F12</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K12,0)</f>
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="N12" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K12,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="66" t="n">
+        <f aca="false">IF(C13="Light",E13,E13+$W$2)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="49" t="n">
+        <f aca="false">H13+F13</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="49" t="n">
+        <f aca="false">H13*(I13/2)+F13</f>
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="L13" s="49" t="n">
+        <f aca="false">H13*I13+F13</f>
+        <v>14</v>
+      </c>
+      <c r="M13" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K13,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N13" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K13,0)</f>
+        <v>12</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="69" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="70" t="n">
+        <f aca="false">IF(C14="Light",E14,E14+$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="71" t="n">
+        <f aca="false">H14+F14</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="71" t="n">
+        <f aca="false">H14*(I14/2)+F14</f>
+        <v>8</v>
+      </c>
+      <c r="L14" s="71" t="n">
+        <f aca="false">H14*I14+F14</f>
+        <v>13</v>
+      </c>
+      <c r="M14" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K14,0)</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K14,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="66" t="n">
+        <f aca="false">IF(C15="Light",E15,E15+$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="H15" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="49" t="n">
+        <f aca="false">H15+F15</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="49" t="n">
+        <f aca="false">H15*(I15/2)+F15</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="49" t="n">
+        <f aca="false">H15*I15+F15</f>
+        <v>13</v>
+      </c>
+      <c r="M15" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K15,0)</f>
+        <v>7</v>
+      </c>
+      <c r="N15" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K15,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="70" t="n">
+        <f aca="false">IF(C16="Light",E16,E16+$W$2)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="71" t="n">
+        <f aca="false">H16+F16</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="71" t="n">
+        <f aca="false">H16*(I16/2)+F16</f>
+        <v>9</v>
+      </c>
+      <c r="L16" s="71" t="n">
+        <f aca="false">H16*I16+F16</f>
+        <v>14</v>
+      </c>
+      <c r="M16" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K16,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N16" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K16,0)</f>
+        <v>12</v>
+      </c>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="66" t="n">
+        <f aca="false">IF(C17="Light",E17,E17+$W$2)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="49" t="n">
+        <f aca="false">H17+F17</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="49" t="n">
+        <f aca="false">H17*(I17/2)+F17</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="49" t="n">
+        <f aca="false">H17*I17+F17</f>
+        <v>11</v>
+      </c>
+      <c r="M17" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K17,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N17" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K17,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="F18" s="66" t="n">
+        <f aca="false">IF(C18="Light",E18,E18+$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="49" t="n">
+        <f aca="false">H18+F18</f>
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="K18" s="49" t="n">
+        <f aca="false">H18*(I18/2)+F18</f>
+        <v>8</v>
+      </c>
+      <c r="L18" s="49" t="n">
+        <f aca="false">H18*I18+F18</f>
+        <v>13</v>
+      </c>
+      <c r="M18" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K18,0)</f>
+        <v>7</v>
+      </c>
+      <c r="N18" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K18,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="69" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="70" t="n">
+        <f aca="false">IF(C19="Light",E19,E19+$W$2)</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" s="71" t="n">
+        <f aca="false">H19+F19</f>
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="K19" s="71" t="n">
+        <f aca="false">H19*(I19/2)+F19</f>
+        <v>9</v>
+      </c>
+      <c r="L19" s="71" t="n">
+        <f aca="false">H19*I19+F19</f>
+        <v>14</v>
+      </c>
+      <c r="M19" s="71" t="n">
+        <f aca="false">ROUNDUP(50/K19,0)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="N19" s="71" t="n">
+        <f aca="false">ROUNDUP(100/K19,0)</f>
+        <v>12</v>
+      </c>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="66" t="n">
+        <f aca="false">IF(C20="Light",E20,E20+$W$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" s="49" t="n">
+        <f aca="false">H20+F20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="49" t="n">
+        <f aca="false">H20*(I20/2)+F20</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="49" t="n">
+        <f aca="false">H20*I20+F20</f>
+        <v>10</v>
+      </c>
+      <c r="M20" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K20,0)</f>
+        <v>10</v>
+      </c>
+      <c r="N20" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K20,0)</f>
+        <v>20</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="66" t="n">
+        <f aca="false">IF(C21="Light",E21,E21+$W$2)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" s="49" t="n">
+        <f aca="false">H21+F21</f>
+        <v>3</v>
+      </c>
+      <c r="K21" s="49" t="n">
+        <f aca="false">H21*(I21/2)+F21</f>
         <v>7</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="L21" s="49" t="n">
+        <f aca="false">H21*I21+F21</f>
+        <v>12</v>
+      </c>
+      <c r="M21" s="49" t="n">
+        <f aca="false">ROUNDUP(50/K21,0)</f>
         <v>8</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="N21" s="49" t="n">
+        <f aca="false">ROUNDUP(100/K21,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="27" t="n">
+        <f aca="false">H24+F24</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="27" t="n">
+        <f aca="false">ROUNDUP(H24*(I24/2+0.5),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L24" s="27" t="n">
+        <f aca="false">H24*I24</f>
+        <v>10</v>
+      </c>
+      <c r="M24" s="27" t="n">
+        <f aca="false">ROUNDUP(50/K24,0)</f>
         <v>9</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="N24" s="27" t="n">
+        <f aca="false">ROUNDUP(100/K24,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O24" s="27" t="n">
+        <f aca="false">IF($F24=0, ROUNDUP(100/($K24/2),0), ROUNDUP((100-ROUNDUP(15/$F24,0)*$K24/2)/$K24,0)+ROUNDUP(15/$F24,0))</f>
+        <v>34</v>
+      </c>
+      <c r="P24" s="29" t="n">
+        <f aca="false">IF($F24=0, ROUNDUP(100/($K24/2),0), ROUNDUP((100-ROUNDUP(30/$F24,0)*$K24/2)/$K24,0)+ROUNDUP(30/$F24,0))</f>
+        <v>34</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="D25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32" t="n">
+        <f aca="false">H25+F25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="32" t="n">
+        <f aca="false">ROUNDUP(H25*(I25/2+0.5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="32" t="n">
+        <f aca="false">H25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="32" t="e">
+        <f aca="false">ROUNDUP(50/K25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="32" t="e">
+        <f aca="false">ROUNDUP(100/K25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="32" t="e">
+        <f aca="false">IF($F25=0, ROUNDUP(100/($K25/2),0), ROUNDUP((100-ROUNDUP(15/$F25,0)*$K25/2)/$K25,0)+ROUNDUP(15/$F25,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="32" t="e">
+        <f aca="false">IF($F25=0, ROUNDUP(100/($K25/2),0), ROUNDUP((100-ROUNDUP(30/$F25,0)*$K25/2)/$K25,0)+ROUNDUP(30/$F25,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="11" t="n">
         <v>20</v>
       </c>
-    </row>
+      <c r="C26" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="35" t="n">
+        <f aca="false">H26+F26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="35" t="n">
+        <f aca="false">ROUNDUP(H26*(I26/2+0.5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="35" t="n">
+        <f aca="false">H26*I26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="35" t="e">
+        <f aca="false">ROUNDUP(50/K26,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="35" t="e">
+        <f aca="false">ROUNDUP(100/K26,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="35" t="e">
+        <f aca="false">IF($F26=0, ROUNDUP(100/($K26/2),0), ROUNDUP((100-ROUNDUP(15/$F26,0)*$K26/2)/$K26,0)+ROUNDUP(15/$F26,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="35" t="e">
+        <f aca="false">IF($F26=0, ROUNDUP(100/($K26/2),0), ROUNDUP((100-ROUNDUP(30/$F26,0)*$K26/2)/$K26,0)+ROUNDUP(30/$F26,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8875,10 +10296,1740 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="R1:S2 I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="4" style="5" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="e">
+        <f aca="false">IF(B2&gt;0,(1-_xlfn.BINOM.DIST(0,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="5" t="e">
+        <f aca="false">IF(B2&gt;0,(1-_xlfn.BINOM.DIST(0,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="5" t="e">
+        <f aca="false">=IF(B2&gt;1,(1-_xlfn.BINOM.DIST(1,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="5" t="e">
+        <f aca="false">IF(B2&gt;1,(1-_xlfn.BINOM.DIST(1,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">IF(B2&gt;2,(1-_xlfn.BINOM.DIST(2,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">IF(B2&gt;2,(1-_xlfn.BINOM.DIST(2,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">IF(B2&gt;3,(1-_xlfn.BINOM.DIST(3,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <f aca="false">IF(B2&gt;3,(1-_xlfn.BINOM.DIST(3,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <f aca="false">IF(B2&gt;4,(1-_xlfn.BINOM.DIST(4,$B2,($C2-$P$2+1)/$C2,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <f aca="false">IF(B2&gt;4,(1-_xlfn.BINOM.DIST(4,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">3+R2</f>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">5+R2</f>
+        <v>9</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">IF(B3&gt;0,(1-_xlfn.BINOM.DIST(0,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="e">
+        <f aca="false">IF(B3&gt;0,(1-_xlfn.BINOM.DIST(0,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">=IF(B3&gt;1,(1-_xlfn.BINOM.DIST(1,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="e">
+        <f aca="false">IF(B3&gt;1,(1-_xlfn.BINOM.DIST(1,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">IF(B3&gt;2,(1-_xlfn.BINOM.DIST(2,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">IF(B3&gt;2,(1-_xlfn.BINOM.DIST(2,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">IF(B3&gt;3,(1-_xlfn.BINOM.DIST(3,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <f aca="false">IF(B3&gt;3,(1-_xlfn.BINOM.DIST(3,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <f aca="false">IF(B3&gt;4,(1-_xlfn.BINOM.DIST(4,$B3,($C3-$P$2+1)/$C3,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">IF(B3&gt;4,(1-_xlfn.BINOM.DIST(4,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">IF(B4&gt;0,(1-_xlfn.BINOM.DIST(0,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
+        <v>0.578125</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">IF(B4&gt;0,(1-_xlfn.BINOM.DIST(0,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">=IF(B4&gt;1,(1-_xlfn.BINOM.DIST(1,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">IF(B4&gt;1,(1-_xlfn.BINOM.DIST(1,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">IF(B4&gt;2,(1-_xlfn.BINOM.DIST(2,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">IF(B4&gt;2,(1-_xlfn.BINOM.DIST(2,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">IF(B4&gt;3,(1-_xlfn.BINOM.DIST(3,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <f aca="false">IF(B4&gt;3,(1-_xlfn.BINOM.DIST(3,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <f aca="false">IF(B4&gt;4,(1-_xlfn.BINOM.DIST(4,$B4,($C4-$P$2+1)/$C4,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <f aca="false">IF(B4&gt;4,(1-_xlfn.BINOM.DIST(4,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">IF(B5&gt;0,(1-_xlfn.BINOM.DIST(0,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
+        <v>0.578125</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">IF(B5&gt;0,(1-_xlfn.BINOM.DIST(0,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">=IF(B5&gt;1,(1-_xlfn.BINOM.DIST(1,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">IF(B5&gt;1,(1-_xlfn.BINOM.DIST(1,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">IF(B5&gt;2,(1-_xlfn.BINOM.DIST(2,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">IF(B5&gt;2,(1-_xlfn.BINOM.DIST(2,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">IF(B5&gt;3,(1-_xlfn.BINOM.DIST(3,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <f aca="false">IF(B5&gt;3,(1-_xlfn.BINOM.DIST(3,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <f aca="false">IF(B5&gt;4,(1-_xlfn.BINOM.DIST(4,$B5,($C5-$P$2+1)/$C5,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">IF(B5&gt;4,(1-_xlfn.BINOM.DIST(4,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">IF(B6&gt;0,(1-_xlfn.BINOM.DIST(0,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">IF(B6&gt;0,(1-_xlfn.BINOM.DIST(0,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
+        <v>0.555555555555555</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">=IF(B6&gt;1,(1-_xlfn.BINOM.DIST(1,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">IF(B6&gt;1,(1-_xlfn.BINOM.DIST(1,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">IF(B6&gt;2,(1-_xlfn.BINOM.DIST(2,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">IF(B6&gt;2,(1-_xlfn.BINOM.DIST(2,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">IF(B6&gt;3,(1-_xlfn.BINOM.DIST(3,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <f aca="false">IF(B6&gt;3,(1-_xlfn.BINOM.DIST(3,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <f aca="false">IF(B6&gt;4,(1-_xlfn.BINOM.DIST(4,$B6,($C6-$P$2+1)/$C6,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <f aca="false">IF(B6&gt;4,(1-_xlfn.BINOM.DIST(4,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">IF(B7&gt;0,(1-_xlfn.BINOM.DIST(0,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
+        <v>0.784</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">IF(B7&gt;0,(1-_xlfn.BINOM.DIST(0,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
+        <v>0.488</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">=IF(B7&gt;1,(1-_xlfn.BINOM.DIST(1,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
+        <v>0.352</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">IF(B7&gt;1,(1-_xlfn.BINOM.DIST(1,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
+        <v>0.104</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">IF(B7&gt;2,(1-_xlfn.BINOM.DIST(2,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
+        <v>0.0639999999999998</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">IF(B7&gt;2,(1-_xlfn.BINOM.DIST(2,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
+        <v>0.00799999999999956</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">IF(B7&gt;3,(1-_xlfn.BINOM.DIST(3,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">IF(B7&gt;3,(1-_xlfn.BINOM.DIST(3,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <f aca="false">IF(B7&gt;4,(1-_xlfn.BINOM.DIST(4,$B7,($C7-$P$2+1)/$C7,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <f aca="false">IF(B7&gt;4,(1-_xlfn.BINOM.DIST(4,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">IF(B8&gt;0,(1-_xlfn.BINOM.DIST(0,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
+        <v>0.578125</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">IF(B8&gt;0,(1-_xlfn.BINOM.DIST(0,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <f aca="false">=IF(B8&gt;1,(1-_xlfn.BINOM.DIST(1,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">IF(B8&gt;1,(1-_xlfn.BINOM.DIST(1,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">IF(B8&gt;2,(1-_xlfn.BINOM.DIST(2,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">IF(B8&gt;2,(1-_xlfn.BINOM.DIST(2,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">IF(B8&gt;3,(1-_xlfn.BINOM.DIST(3,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <f aca="false">IF(B8&gt;3,(1-_xlfn.BINOM.DIST(3,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <f aca="false">IF(B8&gt;4,(1-_xlfn.BINOM.DIST(4,$B8,($C8-$P$2+1)/$C8,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <f aca="false">IF(B8&gt;4,(1-_xlfn.BINOM.DIST(4,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">IF(B9&gt;0,(1-_xlfn.BINOM.DIST(0,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
+        <v>0.68359375</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">IF(B9&gt;0,(1-_xlfn.BINOM.DIST(0,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <f aca="false">=IF(B9&gt;1,(1-_xlfn.BINOM.DIST(1,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
+        <v>0.26171875</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">IF(B9&gt;1,(1-_xlfn.BINOM.DIST(1,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">IF(B9&gt;2,(1-_xlfn.BINOM.DIST(2,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
+        <v>0.05078125</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">IF(B9&gt;2,(1-_xlfn.BINOM.DIST(2,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">IF(B9&gt;3,(1-_xlfn.BINOM.DIST(3,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
+        <v>0.00390625</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <f aca="false">IF(B9&gt;3,(1-_xlfn.BINOM.DIST(3,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <f aca="false">IF(B9&gt;4,(1-_xlfn.BINOM.DIST(4,$B9,($C9-$P$2+1)/$C9,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">IF(B9&gt;4,(1-_xlfn.BINOM.DIST(4,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">IF(B10&gt;0,(1-_xlfn.BINOM.DIST(0,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">IF(B10&gt;0,(1-_xlfn.BINOM.DIST(0,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
+        <v>0.555555555555555</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <f aca="false">=IF(B10&gt;1,(1-_xlfn.BINOM.DIST(1,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">IF(B10&gt;1,(1-_xlfn.BINOM.DIST(1,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">IF(B10&gt;2,(1-_xlfn.BINOM.DIST(2,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">IF(B10&gt;2,(1-_xlfn.BINOM.DIST(2,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">IF(B10&gt;3,(1-_xlfn.BINOM.DIST(3,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">IF(B10&gt;3,(1-_xlfn.BINOM.DIST(3,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <f aca="false">IF(B10&gt;4,(1-_xlfn.BINOM.DIST(4,$B10,($C10-$P$2+1)/$C10,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <f aca="false">IF(B10&gt;4,(1-_xlfn.BINOM.DIST(4,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">IF(B11&gt;0,(1-_xlfn.BINOM.DIST(0,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">IF(B11&gt;0,(1-_xlfn.BINOM.DIST(0,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
+        <v>0.703703703703704</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false">=IF(B11&gt;1,(1-_xlfn.BINOM.DIST(1,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">IF(B11&gt;1,(1-_xlfn.BINOM.DIST(1,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
+        <v>0.259259259259259</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">IF(B11&gt;2,(1-_xlfn.BINOM.DIST(2,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">IF(B11&gt;2,(1-_xlfn.BINOM.DIST(2,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
+        <v>0.0370370370370369</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">IF(B11&gt;3,(1-_xlfn.BINOM.DIST(3,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">IF(B11&gt;3,(1-_xlfn.BINOM.DIST(3,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <f aca="false">IF(B11&gt;4,(1-_xlfn.BINOM.DIST(4,$B11,($C11-$P$2+1)/$C11,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">IF(B11&gt;4,(1-_xlfn.BINOM.DIST(4,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">IF(B12&gt;0,(1-_xlfn.BINOM.DIST(0,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
+        <v>0.784</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">IF(B12&gt;0,(1-_xlfn.BINOM.DIST(0,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
+        <v>0.488</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">=IF(B12&gt;1,(1-_xlfn.BINOM.DIST(1,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
+        <v>0.352</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">IF(B12&gt;1,(1-_xlfn.BINOM.DIST(1,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
+        <v>0.104</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">IF(B12&gt;2,(1-_xlfn.BINOM.DIST(2,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
+        <v>0.0639999999999998</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">IF(B12&gt;2,(1-_xlfn.BINOM.DIST(2,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
+        <v>0.00799999999999956</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">IF(B12&gt;3,(1-_xlfn.BINOM.DIST(3,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <f aca="false">IF(B12&gt;3,(1-_xlfn.BINOM.DIST(3,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <f aca="false">IF(B12&gt;4,(1-_xlfn.BINOM.DIST(4,$B12,($C12-$P$2+1)/$C12,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">IF(B12&gt;4,(1-_xlfn.BINOM.DIST(4,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">IF(B13&gt;0,(1-_xlfn.BINOM.DIST(0,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
+        <v>0.8704</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">IF(B13&gt;0,(1-_xlfn.BINOM.DIST(0,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
+        <v>0.5904</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <f aca="false">=IF(B13&gt;1,(1-_xlfn.BINOM.DIST(1,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
+        <v>0.5248</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">IF(B13&gt;1,(1-_xlfn.BINOM.DIST(1,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
+        <v>0.1808</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">IF(B13&gt;2,(1-_xlfn.BINOM.DIST(2,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
+        <v>0.1792</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">IF(B13&gt;2,(1-_xlfn.BINOM.DIST(2,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
+        <v>0.0271999999999998</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">IF(B13&gt;3,(1-_xlfn.BINOM.DIST(3,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
+        <v>0.0255999999999998</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <f aca="false">IF(B13&gt;3,(1-_xlfn.BINOM.DIST(3,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
+        <v>0.00159999999999982</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <f aca="false">IF(B13&gt;4,(1-_xlfn.BINOM.DIST(4,$B13,($C13-$P$2+1)/$C13,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <f aca="false">IF(B13&gt;4,(1-_xlfn.BINOM.DIST(4,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">IF(B14&gt;0,(1-_xlfn.BINOM.DIST(0,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
+        <v>0.7626953125</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">IF(B14&gt;0,(1-_xlfn.BINOM.DIST(0,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <f aca="false">=IF(B14&gt;1,(1-_xlfn.BINOM.DIST(1,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
+        <v>0.3671875</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">IF(B14&gt;1,(1-_xlfn.BINOM.DIST(1,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">IF(B14&gt;2,(1-_xlfn.BINOM.DIST(2,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
+        <v>0.103515625</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">IF(B14&gt;2,(1-_xlfn.BINOM.DIST(2,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">IF(B14&gt;3,(1-_xlfn.BINOM.DIST(3,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <f aca="false">IF(B14&gt;3,(1-_xlfn.BINOM.DIST(3,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <f aca="false">IF(B14&gt;4,(1-_xlfn.BINOM.DIST(4,$B14,($C14-$P$2+1)/$C14,1)),)</f>
+        <v>0.0009765625</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <f aca="false">IF(B14&gt;4,(1-_xlfn.BINOM.DIST(4,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">IF(B15&gt;0,(1-_xlfn.BINOM.DIST(0,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">IF(B15&gt;0,(1-_xlfn.BINOM.DIST(0,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
+        <v>0.802469135802469</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <f aca="false">=IF(B15&gt;1,(1-_xlfn.BINOM.DIST(1,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">IF(B15&gt;1,(1-_xlfn.BINOM.DIST(1,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
+        <v>0.407407407407407</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">IF(B15&gt;2,(1-_xlfn.BINOM.DIST(2,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">IF(B15&gt;2,(1-_xlfn.BINOM.DIST(2,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">IF(B15&gt;3,(1-_xlfn.BINOM.DIST(3,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <f aca="false">IF(B15&gt;3,(1-_xlfn.BINOM.DIST(3,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
+        <v>0.0123456790123455</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <f aca="false">IF(B15&gt;4,(1-_xlfn.BINOM.DIST(4,$B15,($C15-$P$2+1)/$C15,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <f aca="false">IF(B15&gt;4,(1-_xlfn.BINOM.DIST(4,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">IF(B16&gt;0,(1-_xlfn.BINOM.DIST(0,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
+        <v>0.92224</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">IF(B16&gt;0,(1-_xlfn.BINOM.DIST(0,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
+        <v>0.67232</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <f aca="false">=IF(B16&gt;1,(1-_xlfn.BINOM.DIST(1,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
+        <v>0.66304</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">IF(B16&gt;1,(1-_xlfn.BINOM.DIST(1,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
+        <v>0.26272</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">IF(B16&gt;2,(1-_xlfn.BINOM.DIST(2,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
+        <v>0.31744</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">IF(B16&gt;2,(1-_xlfn.BINOM.DIST(2,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
+        <v>0.0579199999999998</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">IF(B16&gt;3,(1-_xlfn.BINOM.DIST(3,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
+        <v>0.0870400000000002</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <f aca="false">IF(B16&gt;3,(1-_xlfn.BINOM.DIST(3,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
+        <v>0.00671999999999973</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <f aca="false">IF(B16&gt;4,(1-_xlfn.BINOM.DIST(4,$B16,($C16-$P$2+1)/$C16,1)),)</f>
+        <v>0.0102400000000002</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">IF(B16&gt;4,(1-_xlfn.BINOM.DIST(4,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
+        <v>0.000319999999999765</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="R1:S2 K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="3.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="1" sqref="R1:S2 O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9437,7 +12588,7 @@
   <dimension ref="B1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="1" sqref="R1:S2 G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9447,7 +12598,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11327,7 +14478,7 @@
   <dimension ref="B1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+      <selection pane="topLeft" activeCell="Q20" activeCellId="1" sqref="R1:S2 Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11337,7 +14488,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="3.98"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13217,7 +16368,7 @@
   <dimension ref="B1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="R1:S2 P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15551,7 +18702,7 @@
   <dimension ref="B1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="R1:S2 H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17440,7 +20591,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="R1:S2 H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19864,13 +23015,13 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="1" sqref="R1:S2 D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -20237,14 +23388,14 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="R1:S2 G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
@@ -22827,14 +25978,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="R1:S2 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,8 +23,8 @@
     <sheet name="Weapons 4.0" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Armor 4.0" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Weapons 5.0" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Armor 5.0" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Weapon 5.0 (Table)" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Weapon 5.0 (Table)" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Armor 5.0" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="Sheet2" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="Sheet5" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="219">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -516,28 +516,10 @@
     <t xml:space="preserve">Full Plate Mail Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Concentration cap</t>
+    <t xml:space="preserve">Guard Bonus</t>
   </si>
   <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concealable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide Overcoat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chain Mail  Hauberk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Certain Backgrounds may allow starting with this.</t>
+    <t xml:space="preserve">To Hit Bonus</t>
   </si>
   <si>
     <t xml:space="preserve">Dice Numb</t>
@@ -576,6 +558,9 @@
     <t xml:space="preserve">5 Lethal</t>
   </si>
   <si>
+    <t xml:space="preserve">Traits and Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pain Threshold</t>
   </si>
   <si>
@@ -585,16 +570,34 @@
     <t xml:space="preserve">Punch</t>
   </si>
   <si>
+    <t xml:space="preserve">Light, Cannot use Guard to against weapons Medium or Larger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Club/Improvised Weapon</t>
   </si>
   <si>
+    <t xml:space="preserve">Weak Versatile (Substitute 1 dice for 1d12 when using in two hands)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable , Throw, Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parring Dagger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Short Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw, Light</t>
   </si>
   <si>
     <t xml:space="preserve">Hand Axe</t>
   </si>
   <si>
     <t xml:space="preserve">Longsword (One Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versatile (Add 1d12 when using in two hands)</t>
   </si>
   <si>
     <t xml:space="preserve">Longsword (Two Hand)</t>
@@ -615,7 +618,103 @@
     <t xml:space="preserve">Great Sword</t>
   </si>
   <si>
+    <t xml:space="preserve">Two Hand (Substitute 1 dice for 1d12)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spear (One hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional Reach, Versitile, Throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spear (Two Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pole Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach, Two Hand (Substitute 1 dice for 1d12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff (one Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional Reach, Versitile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff (Two Hand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d12 (Two Hand Bonus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Shields (Buckler, etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can attack for Shove or Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Shields (Heater, Etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shove Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Shield (Kite, Targe, Etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dis. Adv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide Overcoat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Mail  Hauberk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Certain Backgrounds may allow starting with this.</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1151,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1349,11 +1448,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1493,8 +1604,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="R1:S2 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1623,8 +1734,8 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="R1:S2 I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4213,8 +4324,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="R1:S2 E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4497,8 +4608,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="1" sqref="R1:S2 E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6977,8 +7088,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="R1:S2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8497,8 +8608,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="R1:S2 B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8778,8 +8889,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="R1:S2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10296,10 +10407,2299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="7" style="5" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="74" width="58.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <f aca="false">IF(E2&gt;0,(1-_xlfn.BINOM.DIST(0,$E2,($F2-$R$2+1)/$F2,1)),0)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">IF(E2&gt;0,(1-_xlfn.BINOM.DIST(0,$E2,($F2-$S$2+1)/$F2,1)),0)</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">IF(E2&gt;1,(1-_xlfn.BINOM.DIST(1,$E2,($F2-$R$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">IF(E2&gt;1,(1-_xlfn.BINOM.DIST(1,$E2,($F2-$S$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <f aca="false">IF(E2&gt;2,(1-_xlfn.BINOM.DIST(2,$E2,($F2-$R$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <f aca="false">IF(E2&gt;2,(1-_xlfn.BINOM.DIST(2,$E2,($F2-$S$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <f aca="false">IF(E2&gt;3,(1-_xlfn.BINOM.DIST(3,$E2,($F2-$R$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <f aca="false">IF(E2&gt;3,(1-_xlfn.BINOM.DIST(3,$E2,($F2-$S$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <f aca="false">IF(E2&gt;4,(1-_xlfn.BINOM.DIST(4,$E2,($F2-$R$2+1)/$F2,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <f aca="false">IF(E2&gt;4,(1-_xlfn.BINOM.DIST(4,$E2,($F2-$S$2+1)/$F2,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">3+T2</f>
+        <v>3</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">5+T2</f>
+        <v>5</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">IF(E3&gt;0,(1-_xlfn.BINOM.DIST(0,$E3,($F3-$R$2+1)/$F3,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">IF(E3&gt;0,(1-_xlfn.BINOM.DIST(0,$E3,($F3-$S$2+1)/$F3,1)),0)</f>
+        <v>0.555555555555555</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">IF(E3&gt;1,(1-_xlfn.BINOM.DIST(1,$E3,($F3-$R$2+1)/$F3,1)),0)</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">IF(E3&gt;1,(1-_xlfn.BINOM.DIST(1,$E3,($F3-$S$2+1)/$F3,1)),0)</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <f aca="false">IF(E3&gt;2,(1-_xlfn.BINOM.DIST(2,$E3,($F3-$R$2+1)/$F3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <f aca="false">IF(E3&gt;2,(1-_xlfn.BINOM.DIST(2,$E3,($F3-$S$2+1)/$F3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">IF(E3&gt;3,(1-_xlfn.BINOM.DIST(3,$E3,($F3-$R$2+1)/$F3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <f aca="false">IF(E3&gt;3,(1-_xlfn.BINOM.DIST(3,$E3,($F3-$S$2+1)/$F3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <f aca="false">IF(E3&gt;4,(1-_xlfn.BINOM.DIST(4,$E3,($F3-$R$2+1)/$F3,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <f aca="false">IF(E3&gt;4,(1-_xlfn.BINOM.DIST(4,$E3,($F3-$S$2+1)/$F3,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">IF(E4&gt;0,(1-_xlfn.BINOM.DIST(0,$E4,($F4-$R$2+1)/$F4,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">IF(E4&gt;0,(1-_xlfn.BINOM.DIST(0,$E4,($F4-$S$2+1)/$F4,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">IF(E4&gt;1,(1-_xlfn.BINOM.DIST(1,$E4,($F4-$R$2+1)/$F4,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">IF(E4&gt;1,(1-_xlfn.BINOM.DIST(1,$E4,($F4-$S$2+1)/$F4,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <f aca="false">IF(E4&gt;2,(1-_xlfn.BINOM.DIST(2,$E4,($F4-$R$2+1)/$F4,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <f aca="false">IF(E4&gt;2,(1-_xlfn.BINOM.DIST(2,$E4,($F4-$S$2+1)/$F4,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <f aca="false">IF(E4&gt;3,(1-_xlfn.BINOM.DIST(3,$E4,($F4-$R$2+1)/$F4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <f aca="false">IF(E4&gt;3,(1-_xlfn.BINOM.DIST(3,$E4,($F4-$S$2+1)/$F4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <f aca="false">IF(E4&gt;4,(1-_xlfn.BINOM.DIST(4,$E4,($F4-$R$2+1)/$F4,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <f aca="false">IF(E4&gt;4,(1-_xlfn.BINOM.DIST(4,$E4,($F4-$S$2+1)/$F4,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">IF(E5&gt;0,(1-_xlfn.BINOM.DIST(0,$E5,($F5-$R$2+1)/$F5,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">IF(E5&gt;0,(1-_xlfn.BINOM.DIST(0,$E5,($F5-$S$2+1)/$F5,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">IF(E5&gt;1,(1-_xlfn.BINOM.DIST(1,$E5,($F5-$R$2+1)/$F5,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">IF(E5&gt;1,(1-_xlfn.BINOM.DIST(1,$E5,($F5-$S$2+1)/$F5,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <f aca="false">IF(E5&gt;2,(1-_xlfn.BINOM.DIST(2,$E5,($F5-$R$2+1)/$F5,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <f aca="false">IF(E5&gt;2,(1-_xlfn.BINOM.DIST(2,$E5,($F5-$S$2+1)/$F5,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">IF(E5&gt;3,(1-_xlfn.BINOM.DIST(3,$E5,($F5-$R$2+1)/$F5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <f aca="false">IF(E5&gt;3,(1-_xlfn.BINOM.DIST(3,$E5,($F5-$S$2+1)/$F5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <f aca="false">IF(E5&gt;4,(1-_xlfn.BINOM.DIST(4,$E5,($F5-$R$2+1)/$F5,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <f aca="false">IF(E5&gt;4,(1-_xlfn.BINOM.DIST(4,$E5,($F5-$S$2+1)/$F5,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">IF(E6&gt;0,(1-_xlfn.BINOM.DIST(0,$E6,($F6-$R$2+1)/$F6,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">IF(E6&gt;0,(1-_xlfn.BINOM.DIST(0,$E6,($F6-$S$2+1)/$F6,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">IF(E6&gt;1,(1-_xlfn.BINOM.DIST(1,$E6,($F6-$R$2+1)/$F6,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">IF(E6&gt;1,(1-_xlfn.BINOM.DIST(1,$E6,($F6-$S$2+1)/$F6,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <f aca="false">IF(E6&gt;2,(1-_xlfn.BINOM.DIST(2,$E6,($F6-$R$2+1)/$F6,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <f aca="false">IF(E6&gt;2,(1-_xlfn.BINOM.DIST(2,$E6,($F6-$S$2+1)/$F6,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <f aca="false">IF(E6&gt;3,(1-_xlfn.BINOM.DIST(3,$E6,($F6-$R$2+1)/$F6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <f aca="false">IF(E6&gt;3,(1-_xlfn.BINOM.DIST(3,$E6,($F6-$S$2+1)/$F6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <f aca="false">IF(E6&gt;4,(1-_xlfn.BINOM.DIST(4,$E6,($F6-$R$2+1)/$F6,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <f aca="false">IF(E6&gt;4,(1-_xlfn.BINOM.DIST(4,$E6,($F6-$S$2+1)/$F6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">IF(E7&gt;0,(1-_xlfn.BINOM.DIST(0,$E7,($F7-$R$2+1)/$F7,1)),0)</f>
+        <v>0.972222222222222</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">IF(E7&gt;0,(1-_xlfn.BINOM.DIST(0,$E7,($F7-$S$2+1)/$F7,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">IF(E7&gt;1,(1-_xlfn.BINOM.DIST(1,$E7,($F7-$R$2+1)/$F7,1)),0)</f>
+        <v>0.694444444444444</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">IF(E7&gt;1,(1-_xlfn.BINOM.DIST(1,$E7,($F7-$S$2+1)/$F7,1)),0)</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">IF(E7&gt;2,(1-_xlfn.BINOM.DIST(2,$E7,($F7-$R$2+1)/$F7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <f aca="false">IF(E7&gt;2,(1-_xlfn.BINOM.DIST(2,$E7,($F7-$S$2+1)/$F7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <f aca="false">IF(E7&gt;3,(1-_xlfn.BINOM.DIST(3,$E7,($F7-$R$2+1)/$F7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <f aca="false">IF(E7&gt;3,(1-_xlfn.BINOM.DIST(3,$E7,($F7-$S$2+1)/$F7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <f aca="false">IF(E7&gt;4,(1-_xlfn.BINOM.DIST(4,$E7,($F7-$R$2+1)/$F7,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <f aca="false">IF(E7&gt;4,(1-_xlfn.BINOM.DIST(4,$E7,($F7-$S$2+1)/$F7,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">IF(E8&gt;0,(1-_xlfn.BINOM.DIST(0,$E8,($F8-$R$2+1)/$F8,1)),0)</f>
+        <v>0.992</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">IF(E8&gt;0,(1-_xlfn.BINOM.DIST(0,$E8,($F8-$S$2+1)/$F8,1)),0)</f>
+        <v>0.936</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">IF(E8&gt;1,(1-_xlfn.BINOM.DIST(1,$E8,($F8-$R$2+1)/$F8,1)),0)</f>
+        <v>0.896</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">IF(E8&gt;1,(1-_xlfn.BINOM.DIST(1,$E8,($F8-$S$2+1)/$F8,1)),0)</f>
+        <v>0.648</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <f aca="false">IF(E8&gt;2,(1-_xlfn.BINOM.DIST(2,$E8,($F8-$R$2+1)/$F8,1)),0)</f>
+        <v>0.512</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <f aca="false">IF(E8&gt;2,(1-_xlfn.BINOM.DIST(2,$E8,($F8-$S$2+1)/$F8,1)),0)</f>
+        <v>0.216</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <f aca="false">IF(E8&gt;3,(1-_xlfn.BINOM.DIST(3,$E8,($F8-$R$2+1)/$F8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <f aca="false">IF(E8&gt;3,(1-_xlfn.BINOM.DIST(3,$E8,($F8-$S$2+1)/$F8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <f aca="false">IF(E8&gt;4,(1-_xlfn.BINOM.DIST(4,$E8,($F8-$R$2+1)/$F8,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <f aca="false">IF(E8&gt;4,(1-_xlfn.BINOM.DIST(4,$E8,($F8-$S$2+1)/$F8,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">IF(E9&gt;0,(1-_xlfn.BINOM.DIST(0,$E9,($F9-$R$2+1)/$F9,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">IF(E9&gt;0,(1-_xlfn.BINOM.DIST(0,$E9,($F9-$S$2+1)/$F9,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">IF(E9&gt;1,(1-_xlfn.BINOM.DIST(1,$E9,($F9-$R$2+1)/$F9,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">IF(E9&gt;1,(1-_xlfn.BINOM.DIST(1,$E9,($F9-$S$2+1)/$F9,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <f aca="false">IF(E9&gt;2,(1-_xlfn.BINOM.DIST(2,$E9,($F9-$R$2+1)/$F9,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <f aca="false">IF(E9&gt;2,(1-_xlfn.BINOM.DIST(2,$E9,($F9-$S$2+1)/$F9,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">IF(E9&gt;3,(1-_xlfn.BINOM.DIST(3,$E9,($F9-$R$2+1)/$F9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <f aca="false">IF(E9&gt;3,(1-_xlfn.BINOM.DIST(3,$E9,($F9-$S$2+1)/$F9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <f aca="false">IF(E9&gt;4,(1-_xlfn.BINOM.DIST(4,$E9,($F9-$R$2+1)/$F9,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <f aca="false">IF(E9&gt;4,(1-_xlfn.BINOM.DIST(4,$E9,($F9-$S$2+1)/$F9,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">IF(E10&gt;0,(1-_xlfn.BINOM.DIST(0,$E10,($F10-$R$2+1)/$F10,1)),0)</f>
+        <v>0.99609375</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">IF(E10&gt;0,(1-_xlfn.BINOM.DIST(0,$E10,($F10-$S$2+1)/$F10,1)),0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">IF(E10&gt;1,(1-_xlfn.BINOM.DIST(1,$E10,($F10-$R$2+1)/$F10,1)),0)</f>
+        <v>0.94921875</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">IF(E10&gt;1,(1-_xlfn.BINOM.DIST(1,$E10,($F10-$S$2+1)/$F10,1)),0)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">IF(E10&gt;2,(1-_xlfn.BINOM.DIST(2,$E10,($F10-$R$2+1)/$F10,1)),0)</f>
+        <v>0.73828125</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <f aca="false">IF(E10&gt;2,(1-_xlfn.BINOM.DIST(2,$E10,($F10-$S$2+1)/$F10,1)),0)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <f aca="false">IF(E10&gt;3,(1-_xlfn.BINOM.DIST(3,$E10,($F10-$R$2+1)/$F10,1)),0)</f>
+        <v>0.31640625</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <f aca="false">IF(E10&gt;3,(1-_xlfn.BINOM.DIST(3,$E10,($F10-$S$2+1)/$F10,1)),0)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <f aca="false">IF(E10&gt;4,(1-_xlfn.BINOM.DIST(4,$E10,($F10-$R$2+1)/$F10,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <f aca="false">IF(E10&gt;4,(1-_xlfn.BINOM.DIST(4,$E10,($F10-$S$2+1)/$F10,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">IF(E11&gt;0,(1-_xlfn.BINOM.DIST(0,$E11,($F11-$R$2+1)/$F11,1)),0)</f>
+        <v>0.972222222222222</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">IF(E11&gt;0,(1-_xlfn.BINOM.DIST(0,$E11,($F11-$S$2+1)/$F11,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">IF(E11&gt;1,(1-_xlfn.BINOM.DIST(1,$E11,($F11-$R$2+1)/$F11,1)),0)</f>
+        <v>0.694444444444444</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">IF(E11&gt;1,(1-_xlfn.BINOM.DIST(1,$E11,($F11-$S$2+1)/$F11,1)),0)</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">IF(E11&gt;2,(1-_xlfn.BINOM.DIST(2,$E11,($F11-$R$2+1)/$F11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <f aca="false">IF(E11&gt;2,(1-_xlfn.BINOM.DIST(2,$E11,($F11-$S$2+1)/$F11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">IF(E11&gt;3,(1-_xlfn.BINOM.DIST(3,$E11,($F11-$R$2+1)/$F11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <f aca="false">IF(E11&gt;3,(1-_xlfn.BINOM.DIST(3,$E11,($F11-$S$2+1)/$F11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <f aca="false">IF(E11&gt;4,(1-_xlfn.BINOM.DIST(4,$E11,($F11-$R$2+1)/$F11,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <f aca="false">IF(E11&gt;4,(1-_xlfn.BINOM.DIST(4,$E11,($F11-$S$2+1)/$F11,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">IF(E12&gt;0,(1-_xlfn.BINOM.DIST(0,$E12,($F12-$R$2+1)/$F12,1)),0)</f>
+        <v>0.99537037037037</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">IF(E12&gt;0,(1-_xlfn.BINOM.DIST(0,$E12,($F12-$S$2+1)/$F12,1)),0)</f>
+        <v>0.962962962962963</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">IF(E12&gt;1,(1-_xlfn.BINOM.DIST(1,$E12,($F12-$R$2+1)/$F12,1)),0)</f>
+        <v>0.925925925925926</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">IF(E12&gt;1,(1-_xlfn.BINOM.DIST(1,$E12,($F12-$S$2+1)/$F12,1)),0)</f>
+        <v>0.740740740740741</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <f aca="false">IF(E12&gt;2,(1-_xlfn.BINOM.DIST(2,$E12,($F12-$R$2+1)/$F12,1)),0)</f>
+        <v>0.578703703703704</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <f aca="false">IF(E12&gt;2,(1-_xlfn.BINOM.DIST(2,$E12,($F12-$S$2+1)/$F12,1)),0)</f>
+        <v>0.296296296296296</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">IF(E12&gt;3,(1-_xlfn.BINOM.DIST(3,$E12,($F12-$R$2+1)/$F12,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">IF(E12&gt;3,(1-_xlfn.BINOM.DIST(3,$E12,($F12-$S$2+1)/$F12,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <f aca="false">IF(E12&gt;4,(1-_xlfn.BINOM.DIST(4,$E12,($F12-$R$2+1)/$F12,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <f aca="false">IF(E12&gt;4,(1-_xlfn.BINOM.DIST(4,$E12,($F12-$S$2+1)/$F12,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">IF(E13&gt;0,(1-_xlfn.BINOM.DIST(0,$E13,($F13-$R$2+1)/$F13,1)),0)</f>
+        <v>0.992</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">IF(E13&gt;0,(1-_xlfn.BINOM.DIST(0,$E13,($F13-$S$2+1)/$F13,1)),0)</f>
+        <v>0.936</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">IF(E13&gt;1,(1-_xlfn.BINOM.DIST(1,$E13,($F13-$R$2+1)/$F13,1)),0)</f>
+        <v>0.896</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">IF(E13&gt;1,(1-_xlfn.BINOM.DIST(1,$E13,($F13-$S$2+1)/$F13,1)),0)</f>
+        <v>0.648</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <f aca="false">IF(E13&gt;2,(1-_xlfn.BINOM.DIST(2,$E13,($F13-$R$2+1)/$F13,1)),0)</f>
+        <v>0.512</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <f aca="false">IF(E13&gt;2,(1-_xlfn.BINOM.DIST(2,$E13,($F13-$S$2+1)/$F13,1)),0)</f>
+        <v>0.216</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <f aca="false">IF(E13&gt;3,(1-_xlfn.BINOM.DIST(3,$E13,($F13-$R$2+1)/$F13,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <f aca="false">IF(E13&gt;3,(1-_xlfn.BINOM.DIST(3,$E13,($F13-$S$2+1)/$F13,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <f aca="false">IF(E13&gt;4,(1-_xlfn.BINOM.DIST(4,$E13,($F13-$R$2+1)/$F13,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <f aca="false">IF(E13&gt;4,(1-_xlfn.BINOM.DIST(4,$E13,($F13-$S$2+1)/$F13,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">IF(E14&gt;0,(1-_xlfn.BINOM.DIST(0,$E14,($F14-$R$2+1)/$F14,1)),0)</f>
+        <v>0.9984</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">IF(E14&gt;0,(1-_xlfn.BINOM.DIST(0,$E14,($F14-$S$2+1)/$F14,1)),0)</f>
+        <v>0.9744</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">IF(E14&gt;1,(1-_xlfn.BINOM.DIST(1,$E14,($F14-$R$2+1)/$F14,1)),0)</f>
+        <v>0.9728</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">IF(E14&gt;1,(1-_xlfn.BINOM.DIST(1,$E14,($F14-$S$2+1)/$F14,1)),0)</f>
+        <v>0.8208</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <f aca="false">IF(E14&gt;2,(1-_xlfn.BINOM.DIST(2,$E14,($F14-$R$2+1)/$F14,1)),0)</f>
+        <v>0.8192</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <f aca="false">IF(E14&gt;2,(1-_xlfn.BINOM.DIST(2,$E14,($F14-$S$2+1)/$F14,1)),0)</f>
+        <v>0.4752</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <f aca="false">IF(E14&gt;3,(1-_xlfn.BINOM.DIST(3,$E14,($F14-$R$2+1)/$F14,1)),0)</f>
+        <v>0.4096</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <f aca="false">IF(E14&gt;3,(1-_xlfn.BINOM.DIST(3,$E14,($F14-$S$2+1)/$F14,1)),0)</f>
+        <v>0.1296</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <f aca="false">IF(E14&gt;4,(1-_xlfn.BINOM.DIST(4,$E14,($F14-$R$2+1)/$F14,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <f aca="false">IF(E14&gt;4,(1-_xlfn.BINOM.DIST(4,$E14,($F14-$S$2+1)/$F14,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">IF(E15&gt;0,(1-_xlfn.BINOM.DIST(0,$E15,($F15-$R$2+1)/$F15,1)),0)</f>
+        <v>0.9990234375</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">IF(E15&gt;0,(1-_xlfn.BINOM.DIST(0,$E15,($F15-$S$2+1)/$F15,1)),0)</f>
+        <v>0.96875</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">IF(E15&gt;1,(1-_xlfn.BINOM.DIST(1,$E15,($F15-$R$2+1)/$F15,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">IF(E15&gt;1,(1-_xlfn.BINOM.DIST(1,$E15,($F15-$S$2+1)/$F15,1)),0)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <f aca="false">IF(E15&gt;2,(1-_xlfn.BINOM.DIST(2,$E15,($F15-$R$2+1)/$F15,1)),0)</f>
+        <v>0.896484375</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <f aca="false">IF(E15&gt;2,(1-_xlfn.BINOM.DIST(2,$E15,($F15-$S$2+1)/$F15,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <f aca="false">IF(E15&gt;3,(1-_xlfn.BINOM.DIST(3,$E15,($F15-$R$2+1)/$F15,1)),0)</f>
+        <v>0.6328125</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <f aca="false">IF(E15&gt;3,(1-_xlfn.BINOM.DIST(3,$E15,($F15-$S$2+1)/$F15,1)),0)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <f aca="false">IF(E15&gt;4,(1-_xlfn.BINOM.DIST(4,$E15,($F15-$R$2+1)/$F15,1)),)</f>
+        <v>0.2373046875</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <f aca="false">IF(E15&gt;4,(1-_xlfn.BINOM.DIST(4,$E15,($F15-$S$2+1)/$F15,1)),0)</f>
+        <v>0.03125</v>
+      </c>
+      <c r="Q15" s="74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">IF(E16&gt;0,(1-_xlfn.BINOM.DIST(0,$E16,($F16-$R$2+1)/$F16,1)),0)</f>
+        <v>0.999228395061728</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">IF(E16&gt;0,(1-_xlfn.BINOM.DIST(0,$E16,($F16-$S$2+1)/$F16,1)),0)</f>
+        <v>0.987654320987654</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">IF(E16&gt;1,(1-_xlfn.BINOM.DIST(1,$E16,($F16-$R$2+1)/$F16,1)),0)</f>
+        <v>0.983796296296296</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">IF(E16&gt;1,(1-_xlfn.BINOM.DIST(1,$E16,($F16-$S$2+1)/$F16,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <f aca="false">IF(E16&gt;2,(1-_xlfn.BINOM.DIST(2,$E16,($F16-$R$2+1)/$F16,1)),0)</f>
+        <v>0.868055555555556</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <f aca="false">IF(E16&gt;2,(1-_xlfn.BINOM.DIST(2,$E16,($F16-$S$2+1)/$F16,1)),0)</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">IF(E16&gt;3,(1-_xlfn.BINOM.DIST(3,$E16,($F16-$R$2+1)/$F16,1)),0)</f>
+        <v>0.482253086419753</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">IF(E16&gt;3,(1-_xlfn.BINOM.DIST(3,$E16,($F16-$S$2+1)/$F16,1)),0)</f>
+        <v>0.197530864197531</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <f aca="false">IF(E16&gt;4,(1-_xlfn.BINOM.DIST(4,$E16,($F16-$R$2+1)/$F16,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <f aca="false">IF(E16&gt;4,(1-_xlfn.BINOM.DIST(4,$E16,($F16-$S$2+1)/$F16,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">IF(E17&gt;0,(1-_xlfn.BINOM.DIST(0,$E17,($F17-$R$2+1)/$F17,1)),0)</f>
+        <v>0.99968</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">IF(E17&gt;0,(1-_xlfn.BINOM.DIST(0,$E17,($F17-$S$2+1)/$F17,1)),0)</f>
+        <v>0.98976</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">IF(E17&gt;1,(1-_xlfn.BINOM.DIST(1,$E17,($F17-$R$2+1)/$F17,1)),0)</f>
+        <v>0.99328</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">IF(E17&gt;1,(1-_xlfn.BINOM.DIST(1,$E17,($F17-$S$2+1)/$F17,1)),0)</f>
+        <v>0.91296</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <f aca="false">IF(E17&gt;2,(1-_xlfn.BINOM.DIST(2,$E17,($F17-$R$2+1)/$F17,1)),0)</f>
+        <v>0.94208</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <f aca="false">IF(E17&gt;2,(1-_xlfn.BINOM.DIST(2,$E17,($F17-$S$2+1)/$F17,1)),0)</f>
+        <v>0.68256</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <f aca="false">IF(E17&gt;3,(1-_xlfn.BINOM.DIST(3,$E17,($F17-$R$2+1)/$F17,1)),0)</f>
+        <v>0.73728</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <f aca="false">IF(E17&gt;3,(1-_xlfn.BINOM.DIST(3,$E17,($F17-$S$2+1)/$F17,1)),0)</f>
+        <v>0.33696</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">IF(E17&gt;4,(1-_xlfn.BINOM.DIST(4,$E17,($F17-$R$2+1)/$F17,1)),)</f>
+        <v>0.32768</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <f aca="false">IF(E17&gt;4,(1-_xlfn.BINOM.DIST(4,$E17,($F17-$S$2+1)/$F17,1)),0)</f>
+        <v>0.0777600000000001</v>
+      </c>
+      <c r="Q17" s="78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">IF(E18&gt;0,(1-_xlfn.BINOM.DIST(0,$E18,($F18-$R$2+1)/$F18,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">IF(E18&gt;0,(1-_xlfn.BINOM.DIST(0,$E18,($F18-$S$2+1)/$F18,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">IF(E18&gt;1,(1-_xlfn.BINOM.DIST(1,$E18,($F18-$R$2+1)/$F18,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">IF(E18&gt;1,(1-_xlfn.BINOM.DIST(1,$E18,($F18-$S$2+1)/$F18,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <f aca="false">IF(E18&gt;2,(1-_xlfn.BINOM.DIST(2,$E18,($F18-$R$2+1)/$F18,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <f aca="false">IF(E18&gt;2,(1-_xlfn.BINOM.DIST(2,$E18,($F18-$S$2+1)/$F18,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <f aca="false">IF(E18&gt;3,(1-_xlfn.BINOM.DIST(3,$E18,($F18-$R$2+1)/$F18,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <f aca="false">IF(E18&gt;3,(1-_xlfn.BINOM.DIST(3,$E18,($F18-$S$2+1)/$F18,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">IF(E18&gt;4,(1-_xlfn.BINOM.DIST(4,$E18,($F18-$R$2+1)/$F18,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <f aca="false">IF(E18&gt;4,(1-_xlfn.BINOM.DIST(4,$E18,($F18-$S$2+1)/$F18,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <f aca="false">IF(E19&gt;0,(1-_xlfn.BINOM.DIST(0,$E19,($F19-$R$2+1)/$F19,1)),0)</f>
+        <v>0.99609375</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">IF(E19&gt;0,(1-_xlfn.BINOM.DIST(0,$E19,($F19-$S$2+1)/$F19,1)),0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">IF(E19&gt;1,(1-_xlfn.BINOM.DIST(1,$E19,($F19-$R$2+1)/$F19,1)),0)</f>
+        <v>0.94921875</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">IF(E19&gt;1,(1-_xlfn.BINOM.DIST(1,$E19,($F19-$S$2+1)/$F19,1)),0)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <f aca="false">IF(E19&gt;2,(1-_xlfn.BINOM.DIST(2,$E19,($F19-$R$2+1)/$F19,1)),0)</f>
+        <v>0.73828125</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <f aca="false">IF(E19&gt;2,(1-_xlfn.BINOM.DIST(2,$E19,($F19-$S$2+1)/$F19,1)),0)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <f aca="false">IF(E19&gt;3,(1-_xlfn.BINOM.DIST(3,$E19,($F19-$R$2+1)/$F19,1)),0)</f>
+        <v>0.31640625</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <f aca="false">IF(E19&gt;3,(1-_xlfn.BINOM.DIST(3,$E19,($F19-$S$2+1)/$F19,1)),0)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <f aca="false">IF(E19&gt;4,(1-_xlfn.BINOM.DIST(4,$E19,($F19-$R$2+1)/$F19,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <f aca="false">IF(E19&gt;4,(1-_xlfn.BINOM.DIST(4,$E19,($F19-$S$2+1)/$F19,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <f aca="false">IF(E20&gt;0,(1-_xlfn.BINOM.DIST(0,$E20,($F20-$R$2+1)/$F20,1)),0)</f>
+        <v>0.999228395061728</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">IF(E20&gt;0,(1-_xlfn.BINOM.DIST(0,$E20,($F20-$S$2+1)/$F20,1)),0)</f>
+        <v>0.987654320987654</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">IF(E20&gt;1,(1-_xlfn.BINOM.DIST(1,$E20,($F20-$R$2+1)/$F20,1)),0)</f>
+        <v>0.983796296296296</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">IF(E20&gt;1,(1-_xlfn.BINOM.DIST(1,$E20,($F20-$S$2+1)/$F20,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <f aca="false">IF(E20&gt;2,(1-_xlfn.BINOM.DIST(2,$E20,($F20-$R$2+1)/$F20,1)),0)</f>
+        <v>0.868055555555556</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <f aca="false">IF(E20&gt;2,(1-_xlfn.BINOM.DIST(2,$E20,($F20-$S$2+1)/$F20,1)),0)</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <f aca="false">IF(E20&gt;3,(1-_xlfn.BINOM.DIST(3,$E20,($F20-$R$2+1)/$F20,1)),0)</f>
+        <v>0.482253086419753</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <f aca="false">IF(E20&gt;3,(1-_xlfn.BINOM.DIST(3,$E20,($F20-$S$2+1)/$F20,1)),0)</f>
+        <v>0.197530864197531</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <f aca="false">IF(E20&gt;4,(1-_xlfn.BINOM.DIST(4,$E20,($F20-$R$2+1)/$F20,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <f aca="false">IF(E20&gt;4,(1-_xlfn.BINOM.DIST(4,$E20,($F20-$S$2+1)/$F20,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">IF(E21&gt;0,(1-_xlfn.BINOM.DIST(0,$E21,($F21-$R$2+1)/$F21,1)),0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">IF(E21&gt;0,(1-_xlfn.BINOM.DIST(0,$E21,($F21-$S$2+1)/$F21,1)),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">IF(E21&gt;1,(1-_xlfn.BINOM.DIST(1,$E21,($F21-$R$2+1)/$F21,1)),0)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <f aca="false">IF(E21&gt;1,(1-_xlfn.BINOM.DIST(1,$E21,($F21-$S$2+1)/$F21,1)),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <f aca="false">IF(E21&gt;2,(1-_xlfn.BINOM.DIST(2,$E21,($F21-$R$2+1)/$F21,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <f aca="false">IF(E21&gt;2,(1-_xlfn.BINOM.DIST(2,$E21,($F21-$S$2+1)/$F21,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <f aca="false">IF(E21&gt;3,(1-_xlfn.BINOM.DIST(3,$E21,($F21-$R$2+1)/$F21,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <f aca="false">IF(E21&gt;3,(1-_xlfn.BINOM.DIST(3,$E21,($F21-$S$2+1)/$F21,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <f aca="false">IF(E21&gt;4,(1-_xlfn.BINOM.DIST(4,$E21,($F21-$R$2+1)/$F21,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <f aca="false">IF(E21&gt;4,(1-_xlfn.BINOM.DIST(4,$E21,($F21-$S$2+1)/$F21,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">IF(E22&gt;0,(1-_xlfn.BINOM.DIST(0,$E22,($F22-$R$2+1)/$F22,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">IF(E22&gt;0,(1-_xlfn.BINOM.DIST(0,$E22,($F22-$S$2+1)/$F22,1)),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">IF(E22&gt;1,(1-_xlfn.BINOM.DIST(1,$E22,($F22-$R$2+1)/$F22,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">IF(E22&gt;1,(1-_xlfn.BINOM.DIST(1,$E22,($F22-$S$2+1)/$F22,1)),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <f aca="false">IF(E22&gt;2,(1-_xlfn.BINOM.DIST(2,$E22,($F22-$R$2+1)/$F22,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <f aca="false">IF(E22&gt;2,(1-_xlfn.BINOM.DIST(2,$E22,($F22-$S$2+1)/$F22,1)),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <f aca="false">IF(E22&gt;3,(1-_xlfn.BINOM.DIST(3,$E22,($F22-$R$2+1)/$F22,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <f aca="false">IF(E22&gt;3,(1-_xlfn.BINOM.DIST(3,$E22,($F22-$S$2+1)/$F22,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <f aca="false">IF(E22&gt;4,(1-_xlfn.BINOM.DIST(4,$E22,($F22-$R$2+1)/$F22,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <f aca="false">IF(E22&gt;4,(1-_xlfn.BINOM.DIST(4,$E22,($F22-$S$2+1)/$F22,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">IF(E23&gt;0,(1-_xlfn.BINOM.DIST(0,$E23,($F23-$R$2+1)/$F23,1)),0)</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">IF(E23&gt;0,(1-_xlfn.BINOM.DIST(0,$E23,($F23-$S$2+1)/$F23,1)),0)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <f aca="false">IF(E23&gt;1,(1-_xlfn.BINOM.DIST(1,$E23,($F23-$R$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">IF(E23&gt;1,(1-_xlfn.BINOM.DIST(1,$E23,($F23-$S$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <f aca="false">IF(E23&gt;2,(1-_xlfn.BINOM.DIST(2,$E23,($F23-$R$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <f aca="false">IF(E23&gt;2,(1-_xlfn.BINOM.DIST(2,$E23,($F23-$S$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <f aca="false">IF(E23&gt;3,(1-_xlfn.BINOM.DIST(3,$E23,($F23-$R$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <f aca="false">IF(E23&gt;3,(1-_xlfn.BINOM.DIST(3,$E23,($F23-$S$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <f aca="false">IF(E23&gt;4,(1-_xlfn.BINOM.DIST(4,$E23,($F23-$R$2+1)/$F23,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <f aca="false">IF(E23&gt;4,(1-_xlfn.BINOM.DIST(4,$E23,($F23-$S$2+1)/$F23,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <f aca="false">IF(E25&gt;0,(1-_xlfn.BINOM.DIST(0,$E25,($F25-$R$2+1)/$F25,1)),0)</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">IF(E25&gt;0,(1-_xlfn.BINOM.DIST(0,$E25,($F25-$S$2+1)/$F25,1)),0)</f>
+        <v>0.555555555555555</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <f aca="false">IF(E25&gt;1,(1-_xlfn.BINOM.DIST(1,$E25,($F25-$R$2+1)/$F25,1)),0)</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">IF(E25&gt;1,(1-_xlfn.BINOM.DIST(1,$E25,($F25-$S$2+1)/$F25,1)),0)</f>
+        <v>0.111111111111111</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <f aca="false">IF(E25&gt;2,(1-_xlfn.BINOM.DIST(2,$E25,($F25-$R$2+1)/$F25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <f aca="false">IF(E25&gt;2,(1-_xlfn.BINOM.DIST(2,$E25,($F25-$S$2+1)/$F25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <f aca="false">IF(E25&gt;3,(1-_xlfn.BINOM.DIST(3,$E25,($F25-$R$2+1)/$F25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <f aca="false">IF(E25&gt;3,(1-_xlfn.BINOM.DIST(3,$E25,($F25-$S$2+1)/$F25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <f aca="false">IF(E25&gt;4,(1-_xlfn.BINOM.DIST(4,$E25,($F25-$R$2+1)/$F25,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <f aca="false">IF(E25&gt;4,(1-_xlfn.BINOM.DIST(4,$E25,($F25-$S$2+1)/$F25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <f aca="false">IF(E26&gt;0,(1-_xlfn.BINOM.DIST(0,$E26,($F26-$R$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">IF(E26&gt;0,(1-_xlfn.BINOM.DIST(0,$E26,($F26-$S$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <f aca="false">IF(E26&gt;1,(1-_xlfn.BINOM.DIST(1,$E26,($F26-$R$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <f aca="false">IF(E26&gt;1,(1-_xlfn.BINOM.DIST(1,$E26,($F26-$S$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <f aca="false">IF(E26&gt;2,(1-_xlfn.BINOM.DIST(2,$E26,($F26-$R$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <f aca="false">IF(E26&gt;2,(1-_xlfn.BINOM.DIST(2,$E26,($F26-$S$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <f aca="false">IF(E26&gt;3,(1-_xlfn.BINOM.DIST(3,$E26,($F26-$R$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <f aca="false">IF(E26&gt;3,(1-_xlfn.BINOM.DIST(3,$E26,($F26-$S$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <f aca="false">IF(E26&gt;4,(1-_xlfn.BINOM.DIST(4,$E26,($F26-$R$2+1)/$F26,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <f aca="false">IF(E26&gt;4,(1-_xlfn.BINOM.DIST(4,$E26,($F26-$S$2+1)/$F26,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <f aca="false">IF(E27&gt;0,(1-_xlfn.BINOM.DIST(0,$E27,($F27-$R$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">IF(E27&gt;0,(1-_xlfn.BINOM.DIST(0,$E27,($F27-$S$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <f aca="false">IF(E27&gt;1,(1-_xlfn.BINOM.DIST(1,$E27,($F27-$R$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <f aca="false">IF(E27&gt;1,(1-_xlfn.BINOM.DIST(1,$E27,($F27-$S$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <f aca="false">IF(E27&gt;2,(1-_xlfn.BINOM.DIST(2,$E27,($F27-$R$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <f aca="false">IF(E27&gt;2,(1-_xlfn.BINOM.DIST(2,$E27,($F27-$S$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <f aca="false">IF(E27&gt;3,(1-_xlfn.BINOM.DIST(3,$E27,($F27-$R$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <f aca="false">IF(E27&gt;3,(1-_xlfn.BINOM.DIST(3,$E27,($F27-$S$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <f aca="false">IF(E27&gt;4,(1-_xlfn.BINOM.DIST(4,$E27,($F27-$R$2+1)/$F27,1)),)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <f aca="false">IF(E27&gt;4,(1-_xlfn.BINOM.DIST(4,$E27,($F27-$S$2+1)/$F27,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <f aca="false">IF(E29&gt;0,(1-_xlfn.BINOM.DIST(0,$E29,0.75,1)),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">IF(E29&gt;0,(1-_xlfn.BINOM.DIST(0,$E29,0.25,1)),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <f aca="false">IF(E29&gt;1,(1-_xlfn.BINOM.DIST(1,$E29,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <f aca="false">IF(E29&gt;1,(1-_xlfn.BINOM.DIST(1,$E29,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <f aca="false">IF(E29&gt;2,(1-_xlfn.BINOM.DIST(2,$E29,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <f aca="false">IF(E29&gt;2,(1-_xlfn.BINOM.DIST(2,$E29,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <f aca="false">IF(E29&gt;3,(1-_xlfn.BINOM.DIST(3,$E29,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <f aca="false">IF(E29&gt;3,(1-_xlfn.BINOM.DIST(3,$E29,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <f aca="false">IF(E29&gt;4,(1-_xlfn.BINOM.DIST(4,$E29,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <f aca="false">IF(E29&gt;4,(1-_xlfn.BINOM.DIST(4,$E29,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <f aca="false">IF(E30&gt;0,(1-_xlfn.BINOM.DIST(0,$E30,0.75,1)),0)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <f aca="false">IF(E30&gt;0,(1-_xlfn.BINOM.DIST(0,$E30,0.25,1)),0)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <f aca="false">IF(E30&gt;1,(1-_xlfn.BINOM.DIST(1,$E30,0.75,1)),0)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <f aca="false">IF(E30&gt;1,(1-_xlfn.BINOM.DIST(1,$E30,0.25,1)),0)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <f aca="false">IF(E30&gt;2,(1-_xlfn.BINOM.DIST(2,$E30,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <f aca="false">IF(E30&gt;2,(1-_xlfn.BINOM.DIST(2,$E30,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <f aca="false">IF(E30&gt;3,(1-_xlfn.BINOM.DIST(3,$E30,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <f aca="false">IF(E30&gt;3,(1-_xlfn.BINOM.DIST(3,$E30,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5" t="n">
+        <f aca="false">IF(E30&gt;4,(1-_xlfn.BINOM.DIST(4,$E30,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="n">
+        <f aca="false">IF(E30&gt;4,(1-_xlfn.BINOM.DIST(4,$E30,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <f aca="false">IF(E31&gt;0,(1-_xlfn.BINOM.DIST(0,$E31,0.75,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <f aca="false">IF(E31&gt;0,(1-_xlfn.BINOM.DIST(0,$E31,0.25,1)),0)</f>
+        <v>0.578125</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <f aca="false">IF(E31&gt;1,(1-_xlfn.BINOM.DIST(1,$E31,0.75,1)),0)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <f aca="false">IF(E31&gt;1,(1-_xlfn.BINOM.DIST(1,$E31,0.25,1)),0)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <f aca="false">IF(E31&gt;2,(1-_xlfn.BINOM.DIST(2,$E31,0.75,1)),0)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <f aca="false">IF(E31&gt;2,(1-_xlfn.BINOM.DIST(2,$E31,0.25,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <f aca="false">IF(E31&gt;3,(1-_xlfn.BINOM.DIST(3,$E31,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="n">
+        <f aca="false">IF(E31&gt;3,(1-_xlfn.BINOM.DIST(3,$E31,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5" t="n">
+        <f aca="false">IF(E31&gt;4,(1-_xlfn.BINOM.DIST(4,$E31,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="n">
+        <f aca="false">IF(E31&gt;4,(1-_xlfn.BINOM.DIST(4,$E31,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">IF(E32&gt;0,(1-_xlfn.BINOM.DIST(0,$E32,0.75,1)),0)</f>
+        <v>0.99609375</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">IF(E32&gt;0,(1-_xlfn.BINOM.DIST(0,$E32,0.25,1)),0)</f>
+        <v>0.68359375</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">IF(E32&gt;1,(1-_xlfn.BINOM.DIST(1,$E32,0.75,1)),0)</f>
+        <v>0.94921875</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">IF(E32&gt;1,(1-_xlfn.BINOM.DIST(1,$E32,0.25,1)),0)</f>
+        <v>0.26171875</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <f aca="false">IF(E32&gt;2,(1-_xlfn.BINOM.DIST(2,$E32,0.75,1)),0)</f>
+        <v>0.73828125</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <f aca="false">IF(E32&gt;2,(1-_xlfn.BINOM.DIST(2,$E32,0.25,1)),0)</f>
+        <v>0.05078125</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <f aca="false">IF(E32&gt;3,(1-_xlfn.BINOM.DIST(3,$E32,0.75,1)),0)</f>
+        <v>0.31640625</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">IF(E32&gt;3,(1-_xlfn.BINOM.DIST(3,$E32,0.25,1)),0)</f>
+        <v>0.00390625</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <f aca="false">IF(E32&gt;4,(1-_xlfn.BINOM.DIST(4,$E32,0.75,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <f aca="false">IF(E32&gt;4,(1-_xlfn.BINOM.DIST(4,$E32,0.25,1)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <f aca="false">IF(E33&gt;0,(1-_xlfn.BINOM.DIST(0,$E33,0.75,1)),0)</f>
+        <v>0.9990234375</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <f aca="false">IF(E33&gt;0,(1-_xlfn.BINOM.DIST(0,$E33,0.25,1)),0)</f>
+        <v>0.7626953125</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <f aca="false">IF(E33&gt;1,(1-_xlfn.BINOM.DIST(1,$E33,0.75,1)),0)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <f aca="false">IF(E33&gt;1,(1-_xlfn.BINOM.DIST(1,$E33,0.25,1)),0)</f>
+        <v>0.3671875</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <f aca="false">IF(E33&gt;2,(1-_xlfn.BINOM.DIST(2,$E33,0.75,1)),0)</f>
+        <v>0.896484375</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <f aca="false">IF(E33&gt;2,(1-_xlfn.BINOM.DIST(2,$E33,0.25,1)),0)</f>
+        <v>0.103515625</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <f aca="false">IF(E33&gt;3,(1-_xlfn.BINOM.DIST(3,$E33,0.75,1)),0)</f>
+        <v>0.6328125</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <f aca="false">IF(E33&gt;3,(1-_xlfn.BINOM.DIST(3,$E33,0.25,1)),0)</f>
+        <v>0.015625</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <f aca="false">IF(E33&gt;4,(1-_xlfn.BINOM.DIST(4,$E33,0.75,1)),0)</f>
+        <v>0.2373046875</v>
+      </c>
+      <c r="P33" s="5" t="n">
+        <f aca="false">IF(E33&gt;4,(1-_xlfn.BINOM.DIST(4,$E33,0.25,1)),0)</f>
+        <v>0.0009765625</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <f aca="false">IF(E34&gt;0,(1-_xlfn.BINOM.DIST(0,$E34,0.75,1)),0)</f>
+        <v>0.999755859375</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">IF(E34&gt;0,(1-_xlfn.BINOM.DIST(0,$E34,0.25,1)),0)</f>
+        <v>0.822021484375</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <f aca="false">IF(E34&gt;1,(1-_xlfn.BINOM.DIST(1,$E34,0.75,1)),0)</f>
+        <v>0.995361328125</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <f aca="false">IF(E34&gt;1,(1-_xlfn.BINOM.DIST(1,$E34,0.25,1)),0)</f>
+        <v>0.466064453125</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <f aca="false">IF(E34&gt;2,(1-_xlfn.BINOM.DIST(2,$E34,0.75,1)),0)</f>
+        <v>0.96240234375</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <f aca="false">IF(E34&gt;2,(1-_xlfn.BINOM.DIST(2,$E34,0.25,1)),0)</f>
+        <v>0.16943359375</v>
+      </c>
+      <c r="M34" s="5" t="n">
+        <f aca="false">IF(E34&gt;3,(1-_xlfn.BINOM.DIST(3,$E34,0.75,1)),0)</f>
+        <v>0.83056640625</v>
+      </c>
+      <c r="N34" s="5" t="n">
+        <f aca="false">IF(E34&gt;3,(1-_xlfn.BINOM.DIST(3,$E34,0.25,1)),0)</f>
+        <v>0.03759765625</v>
+      </c>
+      <c r="O34" s="5" t="n">
+        <f aca="false">IF(E34&gt;4,(1-_xlfn.BINOM.DIST(4,$E34,0.75,1)),0)</f>
+        <v>0.533935546875</v>
+      </c>
+      <c r="P34" s="5" t="n">
+        <f aca="false">IF(E34&gt;4,(1-_xlfn.BINOM.DIST(4,$E34,0.25,1)),0)</f>
+        <v>0.004638671875</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <f aca="false">IF(E35&gt;0,(1-_xlfn.BINOM.DIST(0,$E35,0.75,1)),0)</f>
+        <v>0.99993896484375</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">IF(E35&gt;0,(1-_xlfn.BINOM.DIST(0,$E35,0.25,1)),0)</f>
+        <v>0.86651611328125</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <f aca="false">IF(E35&gt;1,(1-_xlfn.BINOM.DIST(1,$E35,0.75,1)),0)</f>
+        <v>0.9986572265625</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <f aca="false">IF(E35&gt;1,(1-_xlfn.BINOM.DIST(1,$E35,0.25,1)),0)</f>
+        <v>0.5550537109375</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <f aca="false">IF(E35&gt;2,(1-_xlfn.BINOM.DIST(2,$E35,0.75,1)),0)</f>
+        <v>0.98712158203125</v>
+      </c>
+      <c r="L35" s="5" t="n">
+        <f aca="false">IF(E35&gt;2,(1-_xlfn.BINOM.DIST(2,$E35,0.25,1)),0)</f>
+        <v>0.24359130859375</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <f aca="false">IF(E35&gt;3,(1-_xlfn.BINOM.DIST(3,$E35,0.75,1)),0)</f>
+        <v>0.929443359375</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <f aca="false">IF(E35&gt;3,(1-_xlfn.BINOM.DIST(3,$E35,0.25,1)),0)</f>
+        <v>0.070556640625</v>
+      </c>
+      <c r="O35" s="5" t="n">
+        <f aca="false">IF(E35&gt;4,(1-_xlfn.BINOM.DIST(4,$E35,0.75,1)),0)</f>
+        <v>0.75640869140625</v>
+      </c>
+      <c r="P35" s="5" t="n">
+        <f aca="false">IF(E35&gt;4,(1-_xlfn.BINOM.DIST(4,$E35,0.25,1)),0)</f>
+        <v>0.01287841796875</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <f aca="false">IF(E36&gt;0,(1-_xlfn.BINOM.DIST(0,$E36,0.75,1)),0)</f>
+        <v>0.999984741210938</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <f aca="false">IF(E36&gt;0,(1-_xlfn.BINOM.DIST(0,$E36,0.25,1)),0)</f>
+        <v>0.899887084960938</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <f aca="false">IF(E36&gt;1,(1-_xlfn.BINOM.DIST(1,$E36,0.75,1)),0)</f>
+        <v>0.999618530273438</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <f aca="false">IF(E36&gt;1,(1-_xlfn.BINOM.DIST(1,$E36,0.25,1)),0)</f>
+        <v>0.632919311523438</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <f aca="false">IF(E36&gt;2,(1-_xlfn.BINOM.DIST(2,$E36,0.75,1)),0)</f>
+        <v>0.995773315429688</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <f aca="false">IF(E36&gt;2,(1-_xlfn.BINOM.DIST(2,$E36,0.25,1)),0)</f>
+        <v>0.321456909179687</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <f aca="false">IF(E36&gt;3,(1-_xlfn.BINOM.DIST(3,$E36,0.75,1)),0)</f>
+        <v>0.972702026367188</v>
+      </c>
+      <c r="N36" s="5" t="n">
+        <f aca="false">IF(E36&gt;3,(1-_xlfn.BINOM.DIST(3,$E36,0.25,1)),0)</f>
+        <v>0.113815307617188</v>
+      </c>
+      <c r="O36" s="5" t="n">
+        <f aca="false">IF(E36&gt;4,(1-_xlfn.BINOM.DIST(4,$E36,0.75,1)),0)</f>
+        <v>0.886184692382813</v>
+      </c>
+      <c r="P36" s="5" t="n">
+        <f aca="false">IF(E36&gt;4,(1-_xlfn.BINOM.DIST(4,$E36,0.25,1)),0)</f>
+        <v>0.0272979736328125</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G37:Q1048576 G28:Q28 G31:Q33 Q23:Q24 G1:P4 G6:P24 Q1:Q8 Q15 Q18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:Q36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:Q27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:P5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="R1:S2 I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10340,13 +12740,13 @@
         <v>124</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>94</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -10365,24 +12765,24 @@
         <v>97</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="G2" s="44" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="I2" s="44" t="s">
         <v>98</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -10397,13 +12797,13 @@
         <v>97</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>98</v>
@@ -10423,13 +12823,13 @@
         <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>98</v>
@@ -10452,19 +12852,19 @@
         <v>97</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>101</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10481,13 +12881,13 @@
         <v>97</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>101</v>
@@ -10590,7 +12990,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -10611,10 +13011,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10732,885 +13132,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R1:S2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="4" style="5" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="74" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="e">
-        <f aca="false">IF(B2&gt;0,(1-_xlfn.BINOM.DIST(0,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="5" t="e">
-        <f aca="false">IF(B2&gt;0,(1-_xlfn.BINOM.DIST(0,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="5" t="e">
-        <f aca="false">=IF(B2&gt;1,(1-_xlfn.BINOM.DIST(1,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="5" t="e">
-        <f aca="false">IF(B2&gt;1,(1-_xlfn.BINOM.DIST(1,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">IF(B2&gt;2,(1-_xlfn.BINOM.DIST(2,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <f aca="false">IF(B2&gt;2,(1-_xlfn.BINOM.DIST(2,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <f aca="false">IF(B2&gt;3,(1-_xlfn.BINOM.DIST(3,$B2,($C2-$P$2+1)/$C2,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <f aca="false">IF(B2&gt;3,(1-_xlfn.BINOM.DIST(3,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <f aca="false">IF(B2&gt;4,(1-_xlfn.BINOM.DIST(4,$B2,($C2-$P$2+1)/$C2,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <f aca="false">IF(B2&gt;4,(1-_xlfn.BINOM.DIST(4,$B2,($C2-$Q$2+1)/$C2,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <f aca="false">3+R2</f>
-        <v>7</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <f aca="false">5+R2</f>
-        <v>9</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">IF(B3&gt;0,(1-_xlfn.BINOM.DIST(0,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="e">
-        <f aca="false">IF(B3&gt;0,(1-_xlfn.BINOM.DIST(0,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <f aca="false">=IF(B3&gt;1,(1-_xlfn.BINOM.DIST(1,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="e">
-        <f aca="false">IF(B3&gt;1,(1-_xlfn.BINOM.DIST(1,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">IF(B3&gt;2,(1-_xlfn.BINOM.DIST(2,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <f aca="false">IF(B3&gt;2,(1-_xlfn.BINOM.DIST(2,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <f aca="false">IF(B3&gt;3,(1-_xlfn.BINOM.DIST(3,$B3,($C3-$P$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <f aca="false">IF(B3&gt;3,(1-_xlfn.BINOM.DIST(3,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <f aca="false">IF(B3&gt;4,(1-_xlfn.BINOM.DIST(4,$B3,($C3-$P$2+1)/$C3,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <f aca="false">IF(B3&gt;4,(1-_xlfn.BINOM.DIST(4,$B3,($C3-$Q$2+1)/$C3,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">IF(B4&gt;0,(1-_xlfn.BINOM.DIST(0,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
-        <v>0.578125</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <f aca="false">IF(B4&gt;0,(1-_xlfn.BINOM.DIST(0,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false">=IF(B4&gt;1,(1-_xlfn.BINOM.DIST(1,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
-        <v>0.15625</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <f aca="false">IF(B4&gt;1,(1-_xlfn.BINOM.DIST(1,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">IF(B4&gt;2,(1-_xlfn.BINOM.DIST(2,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
-        <v>0.015625</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <f aca="false">IF(B4&gt;2,(1-_xlfn.BINOM.DIST(2,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <f aca="false">IF(B4&gt;3,(1-_xlfn.BINOM.DIST(3,$B4,($C4-$P$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <f aca="false">IF(B4&gt;3,(1-_xlfn.BINOM.DIST(3,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <f aca="false">IF(B4&gt;4,(1-_xlfn.BINOM.DIST(4,$B4,($C4-$P$2+1)/$C4,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <f aca="false">IF(B4&gt;4,(1-_xlfn.BINOM.DIST(4,$B4,($C4-$Q$2+1)/$C4,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">IF(B5&gt;0,(1-_xlfn.BINOM.DIST(0,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
-        <v>0.578125</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <f aca="false">IF(B5&gt;0,(1-_xlfn.BINOM.DIST(0,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false">=IF(B5&gt;1,(1-_xlfn.BINOM.DIST(1,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
-        <v>0.15625</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <f aca="false">IF(B5&gt;1,(1-_xlfn.BINOM.DIST(1,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">IF(B5&gt;2,(1-_xlfn.BINOM.DIST(2,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
-        <v>0.015625</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <f aca="false">IF(B5&gt;2,(1-_xlfn.BINOM.DIST(2,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <f aca="false">IF(B5&gt;3,(1-_xlfn.BINOM.DIST(3,$B5,($C5-$P$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <f aca="false">IF(B5&gt;3,(1-_xlfn.BINOM.DIST(3,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <f aca="false">IF(B5&gt;4,(1-_xlfn.BINOM.DIST(4,$B5,($C5-$P$2+1)/$C5,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <f aca="false">IF(B5&gt;4,(1-_xlfn.BINOM.DIST(4,$B5,($C5-$Q$2+1)/$C5,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <f aca="false">IF(B6&gt;0,(1-_xlfn.BINOM.DIST(0,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <f aca="false">IF(B6&gt;0,(1-_xlfn.BINOM.DIST(0,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
-        <v>0.555555555555555</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false">=IF(B6&gt;1,(1-_xlfn.BINOM.DIST(1,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <f aca="false">IF(B6&gt;1,(1-_xlfn.BINOM.DIST(1,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">IF(B6&gt;2,(1-_xlfn.BINOM.DIST(2,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <f aca="false">IF(B6&gt;2,(1-_xlfn.BINOM.DIST(2,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <f aca="false">IF(B6&gt;3,(1-_xlfn.BINOM.DIST(3,$B6,($C6-$P$2+1)/$C6,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <f aca="false">IF(B6&gt;3,(1-_xlfn.BINOM.DIST(3,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <f aca="false">IF(B6&gt;4,(1-_xlfn.BINOM.DIST(4,$B6,($C6-$P$2+1)/$C6,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <f aca="false">IF(B6&gt;4,(1-_xlfn.BINOM.DIST(4,$B6,($C6-$Q$2+1)/$C6,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <f aca="false">IF(B7&gt;0,(1-_xlfn.BINOM.DIST(0,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
-        <v>0.784</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <f aca="false">IF(B7&gt;0,(1-_xlfn.BINOM.DIST(0,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
-        <v>0.488</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false">=IF(B7&gt;1,(1-_xlfn.BINOM.DIST(1,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
-        <v>0.352</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <f aca="false">IF(B7&gt;1,(1-_xlfn.BINOM.DIST(1,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
-        <v>0.104</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">IF(B7&gt;2,(1-_xlfn.BINOM.DIST(2,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
-        <v>0.0639999999999998</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <f aca="false">IF(B7&gt;2,(1-_xlfn.BINOM.DIST(2,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
-        <v>0.00799999999999956</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <f aca="false">IF(B7&gt;3,(1-_xlfn.BINOM.DIST(3,$B7,($C7-$P$2+1)/$C7,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <f aca="false">IF(B7&gt;3,(1-_xlfn.BINOM.DIST(3,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <f aca="false">IF(B7&gt;4,(1-_xlfn.BINOM.DIST(4,$B7,($C7-$P$2+1)/$C7,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <f aca="false">IF(B7&gt;4,(1-_xlfn.BINOM.DIST(4,$B7,($C7-$Q$2+1)/$C7,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <f aca="false">IF(B8&gt;0,(1-_xlfn.BINOM.DIST(0,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
-        <v>0.578125</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <f aca="false">IF(B8&gt;0,(1-_xlfn.BINOM.DIST(0,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false">=IF(B8&gt;1,(1-_xlfn.BINOM.DIST(1,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
-        <v>0.15625</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <f aca="false">IF(B8&gt;1,(1-_xlfn.BINOM.DIST(1,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">IF(B8&gt;2,(1-_xlfn.BINOM.DIST(2,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
-        <v>0.015625</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <f aca="false">IF(B8&gt;2,(1-_xlfn.BINOM.DIST(2,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <f aca="false">IF(B8&gt;3,(1-_xlfn.BINOM.DIST(3,$B8,($C8-$P$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <f aca="false">IF(B8&gt;3,(1-_xlfn.BINOM.DIST(3,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <f aca="false">IF(B8&gt;4,(1-_xlfn.BINOM.DIST(4,$B8,($C8-$P$2+1)/$C8,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <f aca="false">IF(B8&gt;4,(1-_xlfn.BINOM.DIST(4,$B8,($C8-$Q$2+1)/$C8,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <f aca="false">IF(B9&gt;0,(1-_xlfn.BINOM.DIST(0,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
-        <v>0.68359375</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <f aca="false">IF(B9&gt;0,(1-_xlfn.BINOM.DIST(0,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false">=IF(B9&gt;1,(1-_xlfn.BINOM.DIST(1,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
-        <v>0.26171875</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <f aca="false">IF(B9&gt;1,(1-_xlfn.BINOM.DIST(1,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">IF(B9&gt;2,(1-_xlfn.BINOM.DIST(2,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
-        <v>0.05078125</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <f aca="false">IF(B9&gt;2,(1-_xlfn.BINOM.DIST(2,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <f aca="false">IF(B9&gt;3,(1-_xlfn.BINOM.DIST(3,$B9,($C9-$P$2+1)/$C9,1)),0)</f>
-        <v>0.00390625</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <f aca="false">IF(B9&gt;3,(1-_xlfn.BINOM.DIST(3,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <f aca="false">IF(B9&gt;4,(1-_xlfn.BINOM.DIST(4,$B9,($C9-$P$2+1)/$C9,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <f aca="false">IF(B9&gt;4,(1-_xlfn.BINOM.DIST(4,$B9,($C9-$Q$2+1)/$C9,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <f aca="false">IF(B10&gt;0,(1-_xlfn.BINOM.DIST(0,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <f aca="false">IF(B10&gt;0,(1-_xlfn.BINOM.DIST(0,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
-        <v>0.555555555555555</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">=IF(B10&gt;1,(1-_xlfn.BINOM.DIST(1,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <f aca="false">IF(B10&gt;1,(1-_xlfn.BINOM.DIST(1,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">IF(B10&gt;2,(1-_xlfn.BINOM.DIST(2,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <f aca="false">IF(B10&gt;2,(1-_xlfn.BINOM.DIST(2,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <f aca="false">IF(B10&gt;3,(1-_xlfn.BINOM.DIST(3,$B10,($C10-$P$2+1)/$C10,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <f aca="false">IF(B10&gt;3,(1-_xlfn.BINOM.DIST(3,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <f aca="false">IF(B10&gt;4,(1-_xlfn.BINOM.DIST(4,$B10,($C10-$P$2+1)/$C10,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <f aca="false">IF(B10&gt;4,(1-_xlfn.BINOM.DIST(4,$B10,($C10-$Q$2+1)/$C10,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <f aca="false">IF(B11&gt;0,(1-_xlfn.BINOM.DIST(0,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
-        <v>0.875</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <f aca="false">IF(B11&gt;0,(1-_xlfn.BINOM.DIST(0,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
-        <v>0.703703703703704</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false">=IF(B11&gt;1,(1-_xlfn.BINOM.DIST(1,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">IF(B11&gt;1,(1-_xlfn.BINOM.DIST(1,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
-        <v>0.259259259259259</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">IF(B11&gt;2,(1-_xlfn.BINOM.DIST(2,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <f aca="false">IF(B11&gt;2,(1-_xlfn.BINOM.DIST(2,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
-        <v>0.0370370370370369</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <f aca="false">IF(B11&gt;3,(1-_xlfn.BINOM.DIST(3,$B11,($C11-$P$2+1)/$C11,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <f aca="false">IF(B11&gt;3,(1-_xlfn.BINOM.DIST(3,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <f aca="false">IF(B11&gt;4,(1-_xlfn.BINOM.DIST(4,$B11,($C11-$P$2+1)/$C11,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <f aca="false">IF(B11&gt;4,(1-_xlfn.BINOM.DIST(4,$B11,($C11-$Q$2+1)/$C11,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">IF(B12&gt;0,(1-_xlfn.BINOM.DIST(0,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
-        <v>0.784</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <f aca="false">IF(B12&gt;0,(1-_xlfn.BINOM.DIST(0,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
-        <v>0.488</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">=IF(B12&gt;1,(1-_xlfn.BINOM.DIST(1,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
-        <v>0.352</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">IF(B12&gt;1,(1-_xlfn.BINOM.DIST(1,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
-        <v>0.104</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">IF(B12&gt;2,(1-_xlfn.BINOM.DIST(2,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
-        <v>0.0639999999999998</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <f aca="false">IF(B12&gt;2,(1-_xlfn.BINOM.DIST(2,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
-        <v>0.00799999999999956</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <f aca="false">IF(B12&gt;3,(1-_xlfn.BINOM.DIST(3,$B12,($C12-$P$2+1)/$C12,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <f aca="false">IF(B12&gt;3,(1-_xlfn.BINOM.DIST(3,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <f aca="false">IF(B12&gt;4,(1-_xlfn.BINOM.DIST(4,$B12,($C12-$P$2+1)/$C12,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <f aca="false">IF(B12&gt;4,(1-_xlfn.BINOM.DIST(4,$B12,($C12-$Q$2+1)/$C12,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">IF(B13&gt;0,(1-_xlfn.BINOM.DIST(0,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
-        <v>0.8704</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <f aca="false">IF(B13&gt;0,(1-_xlfn.BINOM.DIST(0,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
-        <v>0.5904</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">=IF(B13&gt;1,(1-_xlfn.BINOM.DIST(1,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
-        <v>0.5248</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <f aca="false">IF(B13&gt;1,(1-_xlfn.BINOM.DIST(1,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
-        <v>0.1808</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">IF(B13&gt;2,(1-_xlfn.BINOM.DIST(2,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
-        <v>0.1792</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <f aca="false">IF(B13&gt;2,(1-_xlfn.BINOM.DIST(2,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
-        <v>0.0271999999999998</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <f aca="false">IF(B13&gt;3,(1-_xlfn.BINOM.DIST(3,$B13,($C13-$P$2+1)/$C13,1)),0)</f>
-        <v>0.0255999999999998</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <f aca="false">IF(B13&gt;3,(1-_xlfn.BINOM.DIST(3,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
-        <v>0.00159999999999982</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <f aca="false">IF(B13&gt;4,(1-_xlfn.BINOM.DIST(4,$B13,($C13-$P$2+1)/$C13,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <f aca="false">IF(B13&gt;4,(1-_xlfn.BINOM.DIST(4,$B13,($C13-$Q$2+1)/$C13,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">IF(B14&gt;0,(1-_xlfn.BINOM.DIST(0,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
-        <v>0.7626953125</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <f aca="false">IF(B14&gt;0,(1-_xlfn.BINOM.DIST(0,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <f aca="false">=IF(B14&gt;1,(1-_xlfn.BINOM.DIST(1,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
-        <v>0.3671875</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <f aca="false">IF(B14&gt;1,(1-_xlfn.BINOM.DIST(1,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">IF(B14&gt;2,(1-_xlfn.BINOM.DIST(2,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
-        <v>0.103515625</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <f aca="false">IF(B14&gt;2,(1-_xlfn.BINOM.DIST(2,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <f aca="false">IF(B14&gt;3,(1-_xlfn.BINOM.DIST(3,$B14,($C14-$P$2+1)/$C14,1)),0)</f>
-        <v>0.015625</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <f aca="false">IF(B14&gt;3,(1-_xlfn.BINOM.DIST(3,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <f aca="false">IF(B14&gt;4,(1-_xlfn.BINOM.DIST(4,$B14,($C14-$P$2+1)/$C14,1)),)</f>
-        <v>0.0009765625</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <f aca="false">IF(B14&gt;4,(1-_xlfn.BINOM.DIST(4,$B14,($C14-$Q$2+1)/$C14,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">IF(B15&gt;0,(1-_xlfn.BINOM.DIST(0,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
-        <v>0.9375</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <f aca="false">IF(B15&gt;0,(1-_xlfn.BINOM.DIST(0,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
-        <v>0.802469135802469</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <f aca="false">=IF(B15&gt;1,(1-_xlfn.BINOM.DIST(1,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
-        <v>0.6875</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <f aca="false">IF(B15&gt;1,(1-_xlfn.BINOM.DIST(1,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
-        <v>0.407407407407407</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">IF(B15&gt;2,(1-_xlfn.BINOM.DIST(2,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
-        <v>0.3125</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <f aca="false">IF(B15&gt;2,(1-_xlfn.BINOM.DIST(2,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <f aca="false">IF(B15&gt;3,(1-_xlfn.BINOM.DIST(3,$B15,($C15-$P$2+1)/$C15,1)),0)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <f aca="false">IF(B15&gt;3,(1-_xlfn.BINOM.DIST(3,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
-        <v>0.0123456790123455</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <f aca="false">IF(B15&gt;4,(1-_xlfn.BINOM.DIST(4,$B15,($C15-$P$2+1)/$C15,1)),)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <f aca="false">IF(B15&gt;4,(1-_xlfn.BINOM.DIST(4,$B15,($C15-$Q$2+1)/$C15,1)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <f aca="false">IF(B16&gt;0,(1-_xlfn.BINOM.DIST(0,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
-        <v>0.92224</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <f aca="false">IF(B16&gt;0,(1-_xlfn.BINOM.DIST(0,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
-        <v>0.67232</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <f aca="false">=IF(B16&gt;1,(1-_xlfn.BINOM.DIST(1,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
-        <v>0.66304</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <f aca="false">IF(B16&gt;1,(1-_xlfn.BINOM.DIST(1,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
-        <v>0.26272</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">IF(B16&gt;2,(1-_xlfn.BINOM.DIST(2,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
-        <v>0.31744</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <f aca="false">IF(B16&gt;2,(1-_xlfn.BINOM.DIST(2,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
-        <v>0.0579199999999998</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <f aca="false">IF(B16&gt;3,(1-_xlfn.BINOM.DIST(3,$B16,($C16-$P$2+1)/$C16,1)),0)</f>
-        <v>0.0870400000000002</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <f aca="false">IF(B16&gt;3,(1-_xlfn.BINOM.DIST(3,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
-        <v>0.00671999999999973</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <f aca="false">IF(B16&gt;4,(1-_xlfn.BINOM.DIST(4,$B16,($C16-$P$2+1)/$C16,1)),)</f>
-        <v>0.0102400000000002</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <f aca="false">IF(B16&gt;4,(1-_xlfn.BINOM.DIST(4,$B16,($C16-$Q$2+1)/$C16,1)),0)</f>
-        <v>0.000319999999999765</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:M1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFBA131A"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FF89C765"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -11618,8 +13139,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="R1:S2 K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12028,8 +13549,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="1" sqref="R1:S2 O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12587,8 +14108,8 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="1" sqref="R1:S2 G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14477,8 +15998,8 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="1" sqref="R1:S2 Q20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16367,8 +17888,8 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="1" sqref="R1:S2 P20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18701,8 +20222,8 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="R1:S2 H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20590,8 +22111,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="1" sqref="R1:S2 H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23015,8 +24536,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="1" sqref="R1:S2 D48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23387,8 +24908,8 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="R1:S2 G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25977,8 +27498,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="R1:S2 E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="238">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -726,29 +726,13 @@
     <t xml:space="preserve">Concealable, Light</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Throw, Light, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Forceful (-2 On opponents DR instead of -1, works with Minimum damage.)</t>
-    </r>
+    <t xml:space="preserve">Throw, Light, Forceful (-2 On opponents DR instead of -1)</t>
   </si>
   <si>
     <t xml:space="preserve">Longsword </t>
   </si>
   <si>
-    <t xml:space="preserve">Versatile (Double DB and +1 Guard when using in two hands)</t>
+    <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
   </si>
   <si>
     <t xml:space="preserve">WarHammer </t>
@@ -759,17 +743,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Versatile (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Double DB and +1 Guard </t>
+      <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
     </r>
     <r>
       <rPr>
@@ -778,103 +753,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> when using in two hands), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Forceful (-2 On opponents DR instead of -1, works with Minimum damage.)</t>
+      <t xml:space="preserve">, Forceful (-2 On opponents DR instead of -1)</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Battle Axe </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Versatile (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Double DB and +1 Guard </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> when using in two hands)</t>
-    </r>
+    <t xml:space="preserve">Two Hand (Double DB)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Two Hand (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Double DB and +1 Guard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Two Hand (Double DB), Forceful (-2 On opponents DR instead of -1)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Two Hand (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Double DB and +1 Guard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">), Forceful (-2 On opponents DR instead of -1)</t>
-    </r>
+    <t xml:space="preserve">Two Hand (Double DB and +1 Guard)</t>
   </si>
   <si>
     <t xml:space="preserve">Spear </t>
@@ -883,82 +775,19 @@
     <t xml:space="preserve">Optional Reach (Can Hit at 10ft), Versitile, Throw</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reach (Can hit at 10ft, disadvantage at 5ft), Two Hand (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Double DB and +1 Guard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Reach (Can hit at 10ft, disadvantage at 5ft), Two Hand (Double DB and +1 Guard)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Optional Reach </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Can Hit at 10ft)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Versitile</t>
-    </r>
+    <t xml:space="preserve">Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional Reach (Can Hit at 10ft), Versitile</t>
   </si>
   <si>
     <t xml:space="preserve">Shove Attack (push 5ft back instead of doing damage)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Shove Attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (push 5ft back instead of doing damage)</t>
-    </r>
+    <t xml:space="preserve">Shove Attack  (push 5ft back instead of doing damage)</t>
   </si>
 </sst>
 </file>
@@ -1744,13 +1573,13 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,11 +1702,11 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>
@@ -2241,10 +2070,10 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -4828,11 +4657,11 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -5111,13 +4940,13 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
@@ -7590,10 +7419,10 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -9087,11 +8916,11 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.99"/>
@@ -9367,11 +9196,11 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -9804,18 +9633,18 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
@@ -9916,7 +9745,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -9939,7 +9768,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -9962,12 +9791,12 @@
         <v>46</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -9985,7 +9814,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -10008,7 +9837,7 @@
         <v>49</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -10031,16 +9860,16 @@
         <v>49</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>223</v>
       </c>
@@ -10054,7 +9883,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -10077,16 +9906,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="79" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>227</v>
       </c>
@@ -10100,13 +9929,13 @@
         <v>60</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>228</v>
+      <c r="G11" s="79" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,13 +9952,13 @@
         <v>68</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10146,13 +9975,13 @@
         <v>68</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,13 +9998,13 @@
         <v>68</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10192,7 +10021,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -10215,7 +10044,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -10226,7 +10055,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -10238,73 +10067,73 @@
         <v>60</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>234</v>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -10313,103 +10142,17 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="G32:G1048576 G23 G26:G28 G19 G1:G8 G12 G15">
+  <conditionalFormatting sqref="G31:G1048576 G22 G25:G27 G18 G1:G8 G12 G15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10421,7 +10164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G31">
+  <conditionalFormatting sqref="G23:G30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10433,7 +10176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G22">
+  <conditionalFormatting sqref="G19:G21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10529,18 +10272,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFBA131A"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FF89C765"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10562,7 +10293,7 @@
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
   </cols>
@@ -10971,7 +10702,7 @@
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
   </cols>
@@ -11529,7 +11260,7 @@
       <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -13418,7 +13149,7 @@
       <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -15307,7 +15038,7 @@
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -17640,16 +17371,16 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="5" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7"/>
@@ -19969,7 +19700,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="3.57"/>
@@ -21857,7 +21588,7 @@
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -24279,9 +24010,9 @@
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -24650,10 +24381,10 @@
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -720,7 +720,7 @@
     <t xml:space="preserve">Base Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Damage</t>
+    <t xml:space="preserve">Armor Pen</t>
   </si>
   <si>
     <t xml:space="preserve">Concealable, Light</t>
@@ -738,23 +738,7 @@
     <t xml:space="preserve">WarHammer </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Forceful (-2 On opponents DR instead of -1)</t>
-    </r>
+    <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands), Forceful (-2 On opponents DR instead of -1)</t>
   </si>
   <si>
     <t xml:space="preserve">Battle Axe </t>
@@ -775,7 +759,7 @@
     <t xml:space="preserve">Optional Reach (Can Hit at 10ft), Versitile, Throw</t>
   </si>
   <si>
-    <t xml:space="preserve">Reach (Can hit at 10ft, disadvantage at 5ft), Two Hand (Double DB and +1 Guard)</t>
+    <t xml:space="preserve">Reach (Can hit at 10ft, Two Hand (Double DB and +1 Guard)</t>
   </si>
   <si>
     <t xml:space="preserve">Staff </t>
@@ -800,7 +784,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -836,11 +820,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1059,7 +1038,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1376,10 +1355,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,7 +1548,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
@@ -1702,7 +1677,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -2070,7 +2045,7 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
@@ -4657,7 +4632,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -4940,7 +4915,7 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
@@ -7419,7 +7394,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
@@ -8916,7 +8891,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -9196,7 +9171,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -9633,10 +9608,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -9759,7 +9734,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -9782,7 +9757,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -9911,7 +9886,7 @@
       <c r="F10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9934,7 +9909,7 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9955,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>228</v>
@@ -9978,7 +9953,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>229</v>
@@ -10001,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>230</v>
@@ -10293,7 +10268,7 @@
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
   </cols>
@@ -10702,7 +10677,7 @@
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
   </cols>
@@ -11260,7 +11235,7 @@
       <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -13149,7 +13124,7 @@
       <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -15038,7 +15013,7 @@
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -17371,7 +17346,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -19700,7 +19675,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="3.57"/>
@@ -21588,7 +21563,7 @@
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -24010,7 +23985,7 @@
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -24381,7 +24356,7 @@
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,8 +25,10 @@
     <sheet name="Armor 4.0" sheetId="15" state="hidden" r:id="rId16"/>
     <sheet name="Armor 5.0" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Weapon 6.0" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Sheet2" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Sheet5" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Weapon 6.1" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Armor 6.1" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Sheet5" sheetId="21" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="259">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -723,10 +725,31 @@
     <t xml:space="preserve">Armor Pen</t>
   </si>
   <si>
+    <t xml:space="preserve">Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brawling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable, Throw, Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blades/Brawling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concealable, Light</t>
   </si>
   <si>
-    <t xml:space="preserve">Throw, Light, Forceful (-2 On opponents DR instead of -1)</t>
+    <t xml:space="preserve">Short Sword / Rapier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blunt Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axes</t>
   </si>
   <si>
     <t xml:space="preserve">Longsword </t>
@@ -735,10 +758,7 @@
     <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
   </si>
   <si>
-    <t xml:space="preserve">WarHammer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands), Forceful (-2 On opponents DR instead of -1)</t>
+    <t xml:space="preserve">WarHammer / Mace</t>
   </si>
   <si>
     <t xml:space="preserve">Battle Axe </t>
@@ -747,31 +767,140 @@
     <t xml:space="preserve">Two Hand (Double DB)</t>
   </si>
   <si>
-    <t xml:space="preserve">Two Hand (Double DB), Forceful (-2 On opponents DR instead of -1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Hand (Double DB and +1 Guard)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spear </t>
   </si>
   <si>
-    <t xml:space="preserve">Optional Reach (Can Hit at 10ft), Versitile, Throw</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reach (Can Hit at 10ft), Throw, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Reach (Can hit at 10ft, Two Hand (Double DB and +1 Guard)</t>
+    <t xml:space="preserve">Pole Arms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach (Can hit at 10ft, Two Hand (Double DB), Leverage (+3 damage and +3 AP when the opponent is farther then 5ft) </t>
   </si>
   <si>
     <t xml:space="preserve">Staff </t>
   </si>
   <si>
-    <t xml:space="preserve">Optional Reach (Can Hit at 10ft), Versitile</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reach (Can Hit at 10ft), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Versatile (Double DB, +1 Guard, and +1 Min Damage when using in two hands)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
   </si>
   <si>
     <t xml:space="preserve">Shove Attack (push 5ft back instead of doing damage)</t>
   </si>
   <si>
     <t xml:space="preserve">Shove Attack  (push 5ft back instead of doing damage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Per Die (DPD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor Penetration (AP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versatile (+1 AP and Guard when using in two hands)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Hand </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reach (Can Hit at 10ft), Throw, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Versatile (+1 AP and Guard when using in two hands)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach (Can hit at 10ft, Two Hand (Double DB), Leverage (+1 DPD and SB when the opponent is farther then 5ft) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Reach (Can Hit at 10ft), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Versatile (+1 AP and Guard when using in two hands)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shove Attack (push 5ft back)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim Bonus Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide/Leather Overcoat</t>
   </si>
 </sst>
 </file>
@@ -784,7 +913,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -821,8 +950,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,6 +991,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1038,7 +1178,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1355,6 +1495,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,7 +1700,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
@@ -1677,7 +1829,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -2045,7 +2197,7 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
@@ -4632,7 +4784,7 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -4915,7 +5067,7 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
@@ -7394,7 +7546,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>
@@ -8891,7 +9043,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -9168,10 +9320,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -9607,11 +9759,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -9620,7 +9772,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="58.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.29"/>
@@ -9650,13 +9802,7 @@
         <v>41</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -9674,7 +9820,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -9691,19 +9837,8 @@
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">3+J2</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">5+J2</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
+      <c r="H2" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,8 +9860,8 @@
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>50</v>
+      <c r="H3" s="79" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,7 +9884,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>52</v>
+        <v>223</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9766,18 +9904,21 @@
         <v>46</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -9796,6 +9937,9 @@
       </c>
       <c r="G6" s="11" t="s">
         <v>54</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9818,7 +9962,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>222</v>
+        <v>57</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9843,10 +9990,13 @@
       <c r="G8" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
@@ -9864,12 +10014,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -9887,12 +10040,15 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -9910,7 +10066,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9933,10 +10092,13 @@
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>70</v>
       </c>
@@ -9956,7 +10118,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,12 +10144,15 @@
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -10002,7 +10170,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10019,18 +10190,21 @@
         <v>68</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -10048,8 +10222,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>235</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" s="80" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="81"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -10073,6 +10253,9 @@
       <c r="G19" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -10094,7 +10277,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,7 +10303,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10163,7 +10352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10175,7 +10364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10187,7 +10376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10199,7 +10388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10211,7 +10400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10223,7 +10412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10235,7 +10424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10262,400 +10451,709 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="n">
+    <row r="1" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" s="80" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="81"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="C21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="G31:G1048576 G22 G25:G27 G18 G1:G8 G12 G15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFBA131A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF89C765"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10671,555 +11169,501 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="n">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="n">
+      <c r="D4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="J4" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="C5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>213</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="G11" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="C14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="G14" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11232,10 +11676,10 @@
   <dimension ref="B1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -13113,6 +13557,973 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -13124,7 +14535,7 @@
       <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -15013,7 +16424,7 @@
       <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -17342,11 +18753,11 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -19675,7 +21086,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="3.57"/>
@@ -21563,7 +22974,7 @@
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -23985,7 +25396,7 @@
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -24356,7 +25767,7 @@
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="13" width="9.13"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,8 +27,9 @@
     <sheet name="Weapon 6.0" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="Weapon 6.1" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="Armor 6.1" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Sheet5" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Actions 6.1" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Sheet5" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="304">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -836,23 +837,7 @@
     <t xml:space="preserve">Short Reach (Disadvantage when attacking an opponent with a weapon size medium or larger who is guarding against you,while not grappled, advantage against opponents while grappling).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Concealable, Throw, Light, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Short Reach (Disadvantage when attacking an opponent with a weapon size medium or larger who is guarding against you,while not grappled, advantage against opponents while grappling).</t>
-    </r>
+    <t xml:space="preserve">Concealable, Throw, Light, Short Reach (Disadvantage when attacking an opponent with a weapon size medium or larger who is guarding against you,while not grappled, advantage against opponents while grappling).</t>
   </si>
   <si>
     <t xml:space="preserve">Versatile (+1 DPD, AP and Guard when using in two hands)</t>
@@ -873,13 +858,13 @@
     <t xml:space="preserve">Two Hand </t>
   </si>
   <si>
-    <t xml:space="preserve">Reach (Can Hit at 10ft), Throw, Versatile (+1 DPD, AP and Guard when using in two hands)</t>
+    <t xml:space="preserve">Reach (When using two hands, can hit at 10ft, and while guarding melee attacks against you have disadvantage when the attacker start their turn outside of 5ft and they do not have reach.), Throw, Versatile (+1 DPD, AP and Guard when using in two hands)</t>
   </si>
   <si>
     <t xml:space="preserve">Spear (Two Hands)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reach (Can hit at 10ft, Two Hand (Double DB), Leverage (+2 DPD and +1 SB when the opponent is farther then 5ft) </t>
+    <t xml:space="preserve">Reach, Two Hand, Leverage (+2 DPD and +1 SB when the opponent is farther then 5ft) </t>
   </si>
   <si>
     <t xml:space="preserve">Pole Axe (Leverage)</t>
@@ -888,7 +873,7 @@
     <t xml:space="preserve">Staff</t>
   </si>
   <si>
-    <t xml:space="preserve">Reach (Can Hit at 10ft), Versatile (+1 DPD, AP and Guard when using in two hands)</t>
+    <t xml:space="preserve">Reach, Versatile (+1 DPD, AP and Guard when using in two hands)</t>
   </si>
   <si>
     <t xml:space="preserve">Staff (Two Hands)</t>
@@ -917,25 +902,99 @@
   <si>
     <t xml:space="preserve">Hide/Leather Overcoat</t>
   </si>
+  <si>
+    <t xml:space="preserve">Brigantine Chest-piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Skill 
+Reduction
+Applies to Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leather/Padded Cowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Mail Cowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Face Helmet (Sallet, Viking Helm, Etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially Closed Face Helm (Roman Legionnaire, Barbute,etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Enclosed Helm (Frog mouth, Armet Etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose one attack against you this turn, roll your main weapon attack and add your off hand weapons defense bonus to the roll (if applicable). The attack with the lower roll fails. The attack with the higher roll is successful and adds 1 to their weapons DPD. If the rolls are equal both attacks are successful and both add 1 their weapons DPD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot Move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guard Stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively Guard yours against up to two attacks per turn, allowing you do use your reflex + your weapon defense bonuses as your Defense Rating against those attacks while you maintain this stance.
+The following breaks Guard Stance: Taking any other action other then Attack, Dodge or Sprint, moving more then your Base Move Speed (willingly or not), getting knocked prone, or taking a wound.
+On your first turn of any combat, you may do this as a Free Action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base move in any direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt dodge all melee attacks targeting you. Roll the Dodge skill and subtract 1 for each additional attack against you after the first. If you roll above the attackers reflex, the dodge is success and their attack fails regardless of what they roll for it. You only roll once  and it is possible to only dodge some of the oncoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must move atleast 5ft in an empty 5ft area. If not available then this action automatically fails. Can move up to Base move, but all moved through spaces must be empty.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -957,7 +1016,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -965,23 +1023,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1458,7 +1503,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1466,7 +1511,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="149">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1791,23 +1836,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1819,11 +1856,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1831,7 +1864,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="7" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1847,7 +1880,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1859,23 +1892,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1899,19 +1928,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="8" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1923,11 +1948,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1943,7 +1964,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1955,7 +1976,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1967,19 +1988,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="30" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="30" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="30" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="8" borderId="31" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="31" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1999,15 +2016,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2027,15 +2040,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="36" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="36" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="36" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="37" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="37" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2043,7 +2052,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2059,7 +2068,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2067,7 +2076,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2085,6 +2098,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2129,7 +2150,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2142,7 +2162,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2155,7 +2174,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2276,17 +2294,17 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
@@ -2405,14 +2423,14 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -2420,7 +2438,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4992,15 +5010,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -5275,17 +5293,17 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
@@ -7754,14 +7772,14 @@
   </sheetPr>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -7769,7 +7787,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
@@ -9251,15 +9269,15 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.99"/>
@@ -9531,20 +9549,20 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="5" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7"/>
@@ -9552,7 +9570,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="76" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
         <v>87</v>
       </c>
@@ -11860,15 +11878,15 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -12300,27 +12318,27 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="76" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
         <v>87</v>
       </c>
@@ -12525,7 +12543,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>230</v>
       </c>
@@ -12551,7 +12569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>232</v>
       </c>
@@ -12577,7 +12595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>233</v>
       </c>
@@ -12681,7 +12699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>235</v>
       </c>
@@ -12707,7 +12725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>191</v>
       </c>
@@ -12733,7 +12751,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>239</v>
       </c>
@@ -12978,1477 +12996,1477 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="81" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="82" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="82" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="83" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="84" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="85" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="81" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="81" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="81" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="82" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="83" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="94" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+    <row r="1" s="91" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="87" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="T1" s="93" t="s">
+      <c r="T1" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="AME1" s="95"/>
-      <c r="AMF1" s="95"/>
-      <c r="AMG1" s="95"/>
-      <c r="AMH1" s="95"/>
-      <c r="AMI1" s="95"/>
-      <c r="AMJ1" s="95"/>
+      <c r="AME1" s="92"/>
+      <c r="AMF1" s="92"/>
+      <c r="AMG1" s="92"/>
+      <c r="AMH1" s="92"/>
+      <c r="AMI1" s="92"/>
+      <c r="AMJ1" s="92"/>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="B2" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="98" t="s">
+      <c r="E2" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="99" t="n">
+      <c r="I2" s="96" t="n">
         <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C2-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J2" s="97" t="n">
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J2" s="94" t="n">
         <f aca="false">(-$T$2-4+$R$2+F2)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K2" s="97" t="n">
+        <f aca="false">I2*(1-(_xlfn.BINOM.DIST(0,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L2" s="97" t="n">
+        <f aca="false">I2*(_xlfn.BINOM.DIST(2,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M2" s="97" t="n">
+        <f aca="false">I2*(_xlfn.BINOM.DIST(2,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="98" t="n">
+        <f aca="false">(K2-L2)*E2+(L2-M2)*E2*2+M2*E2*3</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="P2" s="94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="100" t="n">
-        <f aca="false">I2*(1-(_xlfn.BINOM.DIST(0,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L2" s="100" t="n">
-        <f aca="false">I2*(_xlfn.BINOM.DIST(2,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M2" s="101" t="n">
-        <f aca="false">I2*(_xlfn.BINOM.DIST(2,2,IF(J2&lt;1, 11, IF(J2&gt;11, 1, 12-J2))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J2&lt;1, $Q$2-1, IF(J2&gt;($Q$2-1), 0, IF(J2&gt;11, 1, $Q$2-J2)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N2" s="102" t="n">
-        <f aca="false">(K2-L2)*E2+(L2-M2)*E2*2+M2*E2*3</f>
-        <v>1.83767361111111</v>
-      </c>
-      <c r="P2" s="97" t="n">
+      <c r="S2" s="94" t="n">
+        <v>22</v>
+      </c>
+      <c r="T2" s="99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="104" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J3" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F3)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="105" t="n">
+        <f aca="false">I3*(1-(_xlfn.BINOM.DIST(0,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L3" s="105" t="n">
+        <f aca="false">I3*(_xlfn.BINOM.DIST(2,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M3" s="105" t="n">
+        <f aca="false">I3*(_xlfn.BINOM.DIST(2,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="106" t="n">
+        <f aca="false">(K3-L3)*E3+(L3-M3)*E3*2+M3*E3*3</f>
+        <v>0.712962962962963</v>
+      </c>
+      <c r="O3" s="83"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="107"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="109" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J4" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F4)*-1</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="97" t="n">
-        <v>8</v>
-      </c>
-      <c r="R2" s="97" t="n">
+      <c r="K4" s="97" t="n">
+        <f aca="false">I4*(1-(_xlfn.BINOM.DIST(0,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L4" s="97" t="n">
+        <f aca="false">I4*(_xlfn.BINOM.DIST(2,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M4" s="97" t="n">
+        <f aca="false">I4*(_xlfn.BINOM.DIST(2,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N4" s="98" t="n">
+        <f aca="false">(K4-L4)*E4+(L4-M4)*E4*2+M4*E4*3</f>
+        <v>0.950617283950617</v>
+      </c>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="99"/>
+    </row>
+    <row r="5" s="108" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="101" t="n">
         <v>2</v>
       </c>
-      <c r="S2" s="97" t="n">
-        <v>18</v>
-      </c>
-      <c r="T2" s="103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="105" t="s">
+      <c r="F5" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="104" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J5" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F5)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="105" t="n">
+        <f aca="false">I5*(1-(_xlfn.BINOM.DIST(0,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L5" s="105" t="n">
+        <f aca="false">I5*(_xlfn.BINOM.DIST(2,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M5" s="105" t="n">
+        <f aca="false">I5*(_xlfn.BINOM.DIST(2,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N5" s="106" t="n">
+        <f aca="false">(K5-L5)*E5+(L5-M5)*E5*2+M5*E5*3</f>
+        <v>0.950617283950617</v>
+      </c>
+      <c r="O5" s="83"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="107"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="105" t="n">
+      <c r="E6" s="94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="109" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-12))/144,0)/$Q$2)</f>
+        <v>0.427083333333333</v>
+      </c>
+      <c r="J6" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F6)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="97" t="n">
+        <f aca="false">I6*(1-(_xlfn.BINOM.DIST(0,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,1))))</f>
+        <v>0.3203125</v>
+      </c>
+      <c r="L6" s="97" t="n">
+        <f aca="false">I6*(_xlfn.BINOM.DIST(2,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,0))))</f>
+        <v>0.106770833333333</v>
+      </c>
+      <c r="M6" s="97" t="n">
+        <f aca="false">I6*(_xlfn.BINOM.DIST(2,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="98" t="n">
+        <f aca="false">(K6-L6)*E6+(L6-M6)*E6*2+M6*E6*3</f>
+        <v>1.28125</v>
+      </c>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="99"/>
+    </row>
+    <row r="7" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="104" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J7" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F7)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="105" t="n">
+        <f aca="false">I7*(1-(_xlfn.BINOM.DIST(0,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L7" s="105" t="n">
+        <f aca="false">I7*(_xlfn.BINOM.DIST(2,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M7" s="105" t="n">
+        <f aca="false">I7*(_xlfn.BINOM.DIST(2,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N7" s="106" t="n">
+        <f aca="false">(K7-L7)*E7+(L7-M7)*E7*2+M7*E7*3</f>
+        <v>1.42592592592593</v>
+      </c>
+      <c r="O7" s="83"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="107"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="109" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J8" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F8)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K8" s="97" t="n">
+        <f aca="false">I8*(1-(_xlfn.BINOM.DIST(0,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L8" s="97" t="n">
+        <f aca="false">I8*(_xlfn.BINOM.DIST(2,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M8" s="97" t="n">
+        <f aca="false">I8*(_xlfn.BINOM.DIST(2,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="98" t="n">
+        <f aca="false">(K8-L8)*E8+(L8-M8)*E8*2+M8*E8*3</f>
+        <v>1.42592592592593</v>
+      </c>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="99"/>
+    </row>
+    <row r="9" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-12))/144,0)/$Q$2)</f>
+        <v>0.427083333333333</v>
+      </c>
+      <c r="J9" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F9)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="105" t="n">
+        <f aca="false">I9*(1-(_xlfn.BINOM.DIST(0,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,1))))</f>
+        <v>0.3203125</v>
+      </c>
+      <c r="L9" s="105" t="n">
+        <f aca="false">I9*(_xlfn.BINOM.DIST(2,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,0))))</f>
+        <v>0.106770833333333</v>
+      </c>
+      <c r="M9" s="105" t="n">
+        <f aca="false">I9*(_xlfn.BINOM.DIST(2,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="106" t="n">
+        <f aca="false">(K9-L9)*E9+(L9-M9)*E9*2+M9*E9*3</f>
+        <v>1.28125</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="107"/>
+    </row>
+    <row r="10" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="101" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="108" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C3-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J3" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F3)*-1</f>
+      <c r="C10" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-12))/144,0)/$Q$2)</f>
+        <v>0.427083333333333</v>
+      </c>
+      <c r="J10" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F10)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="105" t="n">
+        <f aca="false">I10*(1-(_xlfn.BINOM.DIST(0,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,1))))</f>
+        <v>0.365294656635802</v>
+      </c>
+      <c r="L10" s="105" t="n">
+        <f aca="false">I10*(_xlfn.BINOM.DIST(2,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,0))))</f>
+        <v>0.17992862654321</v>
+      </c>
+      <c r="M10" s="105" t="n">
+        <f aca="false">I10*(_xlfn.BINOM.DIST(2,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,0)))</f>
+        <v>0.0242211612654321</v>
+      </c>
+      <c r="N10" s="106" t="n">
+        <f aca="false">(K10-L10)*E10+(L10-M10)*E10*2+M10*E10*3</f>
+        <v>2.27777777777778</v>
+      </c>
+      <c r="O10" s="83"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="107"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="116" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J11" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F11)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="97" t="n">
+        <f aca="false">I11*(1-(_xlfn.BINOM.DIST(0,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L11" s="97" t="n">
+        <f aca="false">I11*(_xlfn.BINOM.DIST(2,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M11" s="97" t="n">
+        <f aca="false">I11*(_xlfn.BINOM.DIST(2,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N11" s="98" t="n">
+        <f aca="false">(K11-L11)*E11+(L11-M11)*E11*2+M11*E11*3</f>
+        <v>1.42592592592593</v>
+      </c>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="99"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="109" t="n">
-        <f aca="false">I3*(1-(_xlfn.BINOM.DIST(0,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L3" s="109" t="n">
-        <f aca="false">I3*(_xlfn.BINOM.DIST(2,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M3" s="110" t="n">
-        <f aca="false">I3*(_xlfn.BINOM.DIST(2,2,IF(J3&lt;1, 11, IF(J3&gt;11, 1, 12-J3))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J3&lt;1, $Q$2-1, IF(J3&gt;($Q$2-1), 0, IF(J3&gt;11, 1, $Q$2-J3)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N3" s="111" t="n">
-        <f aca="false">(K3-L3)*E3+(L3-M3)*E3*2+M3*E3*3</f>
-        <v>3.67534722222222</v>
-      </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="112"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="97" t="s">
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J12" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F12)*-1</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="97" t="n">
+        <f aca="false">I12*(1-(_xlfn.BINOM.DIST(0,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,1))))</f>
+        <v>0.330075445816187</v>
+      </c>
+      <c r="L12" s="97" t="n">
+        <f aca="false">I12*(_xlfn.BINOM.DIST(2,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,0))))</f>
+        <v>0.211248285322359</v>
+      </c>
+      <c r="M12" s="97" t="n">
+        <f aca="false">I12*(_xlfn.BINOM.DIST(2,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,0)))</f>
+        <v>0.0528120713305898</v>
+      </c>
+      <c r="N12" s="98" t="n">
+        <f aca="false">(K12-L12)*E12+(L12-M12)*E12*2+M12*E12*3</f>
+        <v>2.37654320987654</v>
+      </c>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="99"/>
+    </row>
+    <row r="13" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J13" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F13)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K13" s="105" t="n">
+        <f aca="false">I13*(1-(_xlfn.BINOM.DIST(0,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L13" s="105" t="n">
+        <f aca="false">I13*(_xlfn.BINOM.DIST(2,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M13" s="105" t="n">
+        <f aca="false">I13*(_xlfn.BINOM.DIST(2,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="106" t="n">
+        <f aca="false">(K13-L13)*E13+(L13-M13)*E13*2+M13*E13*3</f>
+        <v>1.42592592592593</v>
+      </c>
+      <c r="O13" s="83"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="107"/>
+    </row>
+    <row r="14" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J14" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F14)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="105" t="n">
+        <f aca="false">I14*(1-(_xlfn.BINOM.DIST(0,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L14" s="105" t="n">
+        <f aca="false">I14*(_xlfn.BINOM.DIST(2,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M14" s="105" t="n">
+        <f aca="false">I14*(_xlfn.BINOM.DIST(2,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N14" s="106" t="n">
+        <f aca="false">(K14-L14)*E14+(L14-M14)*E14*2+M14*E14*3</f>
+        <v>2.37654320987654</v>
+      </c>
+      <c r="O14" s="83"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="107"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="109" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-12))/144,0)/$Q$2)</f>
+        <v>0.427083333333333</v>
+      </c>
+      <c r="J15" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F15)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K15" s="97" t="n">
+        <f aca="false">I15*(1-(_xlfn.BINOM.DIST(0,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,1))))</f>
+        <v>0.365294656635802</v>
+      </c>
+      <c r="L15" s="97" t="n">
+        <f aca="false">I15*(_xlfn.BINOM.DIST(2,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,0))))</f>
+        <v>0.17992862654321</v>
+      </c>
+      <c r="M15" s="97" t="n">
+        <f aca="false">I15*(_xlfn.BINOM.DIST(2,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,0)))</f>
+        <v>0.0242211612654321</v>
+      </c>
+      <c r="N15" s="98" t="n">
+        <f aca="false">(K15-L15)*E15+(L15-M15)*E15*2+M15*E15*3</f>
+        <v>2.84722222222222</v>
+      </c>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="99"/>
+    </row>
+    <row r="16" s="108" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="104" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J16" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F16)*-1</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="105" t="n">
+        <f aca="false">I16*(1-(_xlfn.BINOM.DIST(0,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,1))))</f>
+        <v>0.330075445816187</v>
+      </c>
+      <c r="L16" s="105" t="n">
+        <f aca="false">I16*(_xlfn.BINOM.DIST(2,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,0))))</f>
+        <v>0.211248285322359</v>
+      </c>
+      <c r="M16" s="105" t="n">
+        <f aca="false">I16*(_xlfn.BINOM.DIST(2,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,0)))</f>
+        <v>0.0528120713305898</v>
+      </c>
+      <c r="N16" s="106" t="n">
+        <f aca="false">(K16-L16)*E16+(L16-M16)*E16*2+M16*E16*3</f>
+        <v>2.97067901234568</v>
+      </c>
+      <c r="O16" s="83"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="107"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="109" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J17" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F17)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="97" t="n">
+        <f aca="false">I17*(1-(_xlfn.BINOM.DIST(0,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L17" s="97" t="n">
+        <f aca="false">I17*(_xlfn.BINOM.DIST(2,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M17" s="97" t="n">
+        <f aca="false">I17*(_xlfn.BINOM.DIST(2,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N17" s="98" t="n">
+        <f aca="false">(K17-L17)*E17+(L17-M17)*E17*2+M17*E17*3</f>
+        <v>2.85185185185185</v>
+      </c>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="99"/>
+    </row>
+    <row r="18" s="108" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J18" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F18)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="105" t="n">
+        <f aca="false">I18*(1-(_xlfn.BINOM.DIST(0,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L18" s="105" t="n">
+        <f aca="false">I18*(_xlfn.BINOM.DIST(2,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M18" s="105" t="n">
+        <f aca="false">I18*(_xlfn.BINOM.DIST(2,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="106" t="n">
+        <f aca="false">(K18-L18)*E18+(L18-M18)*E18*2+M18*E18*3</f>
+        <v>1.06944444444444</v>
+      </c>
+      <c r="O18" s="83"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="107"/>
+    </row>
+    <row r="19" s="108" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="100" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J19" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F19)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K19" s="105" t="n">
+        <f aca="false">I19*(1-(_xlfn.BINOM.DIST(0,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L19" s="105" t="n">
+        <f aca="false">I19*(_xlfn.BINOM.DIST(2,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M19" s="105" t="n">
+        <f aca="false">I19*(_xlfn.BINOM.DIST(2,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N19" s="106" t="n">
+        <f aca="false">(K19-L19)*E19+(L19-M19)*E19*2+M19*E19*3</f>
+        <v>1.90123456790123</v>
+      </c>
+      <c r="O19" s="83"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="107"/>
+    </row>
+    <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="116" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J20" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F20)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K20" s="97" t="n">
+        <f aca="false">I20*(1-(_xlfn.BINOM.DIST(0,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L20" s="97" t="n">
+        <f aca="false">I20*(_xlfn.BINOM.DIST(2,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M20" s="97" t="n">
+        <f aca="false">I20*(_xlfn.BINOM.DIST(2,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N20" s="98" t="n">
+        <f aca="false">(K20-L20)*E20+(L20-M20)*E20*2+M20*E20*3</f>
+        <v>1.90123456790123</v>
+      </c>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="99"/>
+    </row>
+    <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J21" s="94" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F21)*-1</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="97" t="n">
+        <f aca="false">I21*(1-(_xlfn.BINOM.DIST(0,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,1))))</f>
+        <v>0.330075445816187</v>
+      </c>
+      <c r="L21" s="97" t="n">
+        <f aca="false">I21*(_xlfn.BINOM.DIST(2,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,0))))</f>
+        <v>0.211248285322359</v>
+      </c>
+      <c r="M21" s="97" t="n">
+        <f aca="false">I21*(_xlfn.BINOM.DIST(2,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,0)))</f>
+        <v>0.0528120713305898</v>
+      </c>
+      <c r="N21" s="98" t="n">
+        <f aca="false">(K21-L21)*E21+(L21-M21)*E21*2+M21*E21*3</f>
+        <v>3.56481481481481</v>
+      </c>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="99"/>
+    </row>
+    <row r="22" s="108" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="113" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J22" s="101" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F22)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="105" t="n">
+        <f aca="false">I22*(1-(_xlfn.BINOM.DIST(0,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L22" s="105" t="n">
+        <f aca="false">I22*(_xlfn.BINOM.DIST(2,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M22" s="105" t="n">
+        <f aca="false">I22*(_xlfn.BINOM.DIST(2,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="106" t="n">
+        <f aca="false">(K22-L22)*E22+(L22-M22)*E22*2+M22*E22*3</f>
+        <v>0.712962962962963</v>
+      </c>
+      <c r="O22" s="83"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="107"/>
+    </row>
+    <row r="23" s="108" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="119" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J23" s="118" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F23)*-1</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="120" t="n">
+        <f aca="false">I23*(1-(_xlfn.BINOM.DIST(0,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,1))))</f>
+        <v>0.304907193072702</v>
+      </c>
+      <c r="L23" s="120" t="n">
+        <f aca="false">I23*(_xlfn.BINOM.DIST(2,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,0))))</f>
+        <v>0.150184327846365</v>
+      </c>
+      <c r="M23" s="120" t="n">
+        <f aca="false">I23*(_xlfn.BINOM.DIST(2,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,0)))</f>
+        <v>0.0202171210562414</v>
+      </c>
+      <c r="N23" s="121" t="n">
+        <f aca="false">(K23-L23)*E23+(L23-M23)*E23*2+M23*E23*3</f>
+        <v>1.42592592592593</v>
+      </c>
+      <c r="O23" s="83"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="122"/>
+    </row>
+    <row r="24" s="124" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="123"/>
+      <c r="G24" s="125"/>
+      <c r="I24" s="126"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="83"/>
+      <c r="T24" s="128"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="97" t="n">
+      <c r="E25" s="130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="96" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J25" s="130" t="n">
+        <f aca="false">(-$T$2-4+$R$2+F25)*-1</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="132" t="n">
+        <f aca="false">I25*(1-(_xlfn.BINOM.DIST(0,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,1))))</f>
+        <v>0.267361111111111</v>
+      </c>
+      <c r="L25" s="132" t="n">
+        <f aca="false">I25*(_xlfn.BINOM.DIST(2,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,0))))</f>
+        <v>0.0891203703703704</v>
+      </c>
+      <c r="M25" s="132" t="n">
+        <f aca="false">I25*(_xlfn.BINOM.DIST(2,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="133" t="n">
+        <f aca="false">(K25-L25)*E25+(L25-M25)*E25*2+M25*E25*3</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="134"/>
+    </row>
+    <row r="26" s="108" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="101" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" s="115" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C4-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J4" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F4)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="100" t="n">
-        <f aca="false">I4*(1-(_xlfn.BINOM.DIST(0,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L4" s="100" t="n">
-        <f aca="false">I4*(_xlfn.BINOM.DIST(2,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M4" s="101" t="n">
-        <f aca="false">I4*(_xlfn.BINOM.DIST(2,2,IF(J4&lt;1, 11, IF(J4&gt;11, 1, 12-J4))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J4&lt;1, $Q$2-1, IF(J4&gt;($Q$2-1), 0, IF(J4&gt;11, 1, $Q$2-J4)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N4" s="102" t="n">
-        <f aca="false">(K4-L4)*E4+(L4-M4)*E4*2+M4*E4*3</f>
-        <v>4.11892361111111</v>
-      </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="103"/>
-    </row>
-    <row r="5" s="113" customFormat="true" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="105" t="s">
+      <c r="C26" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="108" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C5-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J5" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F5)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="109" t="n">
-        <f aca="false">I5*(1-(_xlfn.BINOM.DIST(0,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L5" s="109" t="n">
-        <f aca="false">I5*(_xlfn.BINOM.DIST(2,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M5" s="110" t="n">
-        <f aca="false">I5*(_xlfn.BINOM.DIST(2,2,IF(J5&lt;1, 11, IF(J5&gt;11, 1, 12-J5))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J5&lt;1, $Q$2-1, IF(J5&gt;($Q$2-1), 0, IF(J5&gt;11, 1, $Q$2-J5)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N5" s="111" t="n">
-        <f aca="false">(K5-L5)*E5+(L5-M5)*E5*2+M5*E5*3</f>
-        <v>4.11892361111111</v>
-      </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="112"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="97" t="n">
+      <c r="E26" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="135" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J26" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="135" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="135" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="135" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" s="83"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="107"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="137" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="115" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C6-12))/144,0)/$Q$2)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J6" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F6)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="100" t="n">
-        <f aca="false">I6*(1-(_xlfn.BINOM.DIST(0,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,1))))</f>
-        <v>0.806857638888889</v>
-      </c>
-      <c r="L6" s="100" t="n">
-        <f aca="false">I6*(_xlfn.BINOM.DIST(2,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,0))))</f>
-        <v>0.733506944444444</v>
-      </c>
-      <c r="M6" s="101" t="n">
-        <f aca="false">I6*(_xlfn.BINOM.DIST(2,2,IF(J6&lt;1, 11, IF(J6&gt;11, 1, 12-J6))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J6&lt;1, $Q$2-1, IF(J6&gt;($Q$2-1), 0, IF(J6&gt;11, 1, $Q$2-J6)))/$Q$2,0)))</f>
-        <v>0.423177083333333</v>
-      </c>
-      <c r="N6" s="102" t="n">
-        <f aca="false">(K6-L6)*E6+(L6-M6)*E6*2+M6*E6*3</f>
-        <v>5.890625</v>
-      </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="103"/>
-    </row>
-    <row r="7" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="108" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C7-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J7" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F7)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="109" t="n">
-        <f aca="false">I7*(1-(_xlfn.BINOM.DIST(0,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L7" s="109" t="n">
-        <f aca="false">I7*(_xlfn.BINOM.DIST(2,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M7" s="110" t="n">
-        <f aca="false">I7*(_xlfn.BINOM.DIST(2,2,IF(J7&lt;1, 11, IF(J7&gt;11, 1, 12-J7))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J7&lt;1, $Q$2-1, IF(J7&gt;($Q$2-1), 0, IF(J7&gt;11, 1, $Q$2-J7)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N7" s="111" t="n">
-        <f aca="false">(K7-L7)*E7+(L7-M7)*E7*2+M7*E7*3</f>
-        <v>6.17838541666667</v>
-      </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="112"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="I8" s="115" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C8-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J8" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F8)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="100" t="n">
-        <f aca="false">I8*(1-(_xlfn.BINOM.DIST(0,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L8" s="100" t="n">
-        <f aca="false">I8*(_xlfn.BINOM.DIST(2,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M8" s="101" t="n">
-        <f aca="false">I8*(_xlfn.BINOM.DIST(2,2,IF(J8&lt;1, 11, IF(J8&gt;11, 1, 12-J8))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J8&lt;1, $Q$2-1, IF(J8&gt;($Q$2-1), 0, IF(J8&gt;11, 1, $Q$2-J8)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N8" s="102" t="n">
-        <f aca="false">(K8-L8)*E8+(L8-M8)*E8*2+M8*E8*3</f>
-        <v>7.35069444444444</v>
-      </c>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="103"/>
-    </row>
-    <row r="9" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="105" t="s">
+      <c r="C27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="118" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C9-12))/144,0)/$Q$2)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J9" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F9)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="109" t="n">
-        <f aca="false">I9*(1-(_xlfn.BINOM.DIST(0,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,1))))</f>
-        <v>0.806857638888889</v>
-      </c>
-      <c r="L9" s="109" t="n">
-        <f aca="false">I9*(_xlfn.BINOM.DIST(2,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,0))))</f>
-        <v>0.733506944444444</v>
-      </c>
-      <c r="M9" s="110" t="n">
-        <f aca="false">I9*(_xlfn.BINOM.DIST(2,2,IF(J9&lt;1, 11, IF(J9&gt;11, 1, 12-J9))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J9&lt;1, $Q$2-1, IF(J9&gt;($Q$2-1), 0, IF(J9&gt;11, 1, $Q$2-J9)))/$Q$2,0)))</f>
-        <v>0.423177083333333</v>
-      </c>
-      <c r="N9" s="111" t="n">
-        <f aca="false">(K9-L9)*E9+(L9-M9)*E9*2+M9*E9*3</f>
-        <v>5.890625</v>
-      </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="112"/>
-    </row>
-    <row r="10" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C10-12))/144,0)/$Q$2)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J10" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F10)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="109" t="n">
-        <f aca="false">I10*(1-(_xlfn.BINOM.DIST(0,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,1))))</f>
-        <v>0.811794704861111</v>
-      </c>
-      <c r="L10" s="109" t="n">
-        <f aca="false">I10*(_xlfn.BINOM.DIST(2,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,0))))</f>
-        <v>0.791341145833333</v>
-      </c>
-      <c r="M10" s="110" t="n">
-        <f aca="false">I10*(_xlfn.BINOM.DIST(2,2,IF(J10&lt;1, 11, IF(J10&gt;11, 1, 12-J10))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J10&lt;1, $Q$2-1, IF(J10&gt;($Q$2-1), 0, IF(J10&gt;11, 1, $Q$2-J10)))/$Q$2,0)))</f>
-        <v>0.597384982638889</v>
-      </c>
-      <c r="N10" s="111" t="n">
-        <f aca="false">(K10-L10)*E10+(L10-M10)*E10*2+M10*E10*3</f>
-        <v>8.80208333333333</v>
-      </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="112"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="I11" s="122" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C11-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J11" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F11)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="100" t="n">
-        <f aca="false">I11*(1-(_xlfn.BINOM.DIST(0,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L11" s="100" t="n">
-        <f aca="false">I11*(_xlfn.BINOM.DIST(2,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M11" s="101" t="n">
-        <f aca="false">I11*(_xlfn.BINOM.DIST(2,2,IF(J11&lt;1, 11, IF(J11&gt;11, 1, 12-J11))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J11&lt;1, $Q$2-1, IF(J11&gt;($Q$2-1), 0, IF(J11&gt;11, 1, $Q$2-J11)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N11" s="102" t="n">
-        <f aca="false">(K11-L11)*E11+(L11-M11)*E11*2+M11*E11*3</f>
-        <v>6.17838541666667</v>
-      </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="103"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C12-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J12" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F12)*-1</f>
-        <v>-0</v>
-      </c>
-      <c r="K12" s="100" t="n">
-        <f aca="false">I12*(1-(_xlfn.BINOM.DIST(0,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L12" s="100" t="n">
-        <f aca="false">I12*(_xlfn.BINOM.DIST(2,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M12" s="101" t="n">
-        <f aca="false">I12*(_xlfn.BINOM.DIST(2,2,IF(J12&lt;1, 11, IF(J12&gt;11, 1, 12-J12))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J12&lt;1, $Q$2-1, IF(J12&gt;($Q$2-1), 0, IF(J12&gt;11, 1, $Q$2-J12)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N12" s="102" t="n">
-        <f aca="false">(K12-L12)*E12+(L12-M12)*E12*2+M12*E12*3</f>
-        <v>8.23784722222222</v>
-      </c>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="103"/>
-    </row>
-    <row r="13" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="I13" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C13-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J13" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F13)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K13" s="109" t="n">
-        <f aca="false">I13*(1-(_xlfn.BINOM.DIST(0,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L13" s="109" t="n">
-        <f aca="false">I13*(_xlfn.BINOM.DIST(2,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M13" s="110" t="n">
-        <f aca="false">I13*(_xlfn.BINOM.DIST(2,2,IF(J13&lt;1, 11, IF(J13&gt;11, 1, 12-J13))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J13&lt;1, $Q$2-1, IF(J13&gt;($Q$2-1), 0, IF(J13&gt;11, 1, $Q$2-J13)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N13" s="111" t="n">
-        <f aca="false">(K13-L13)*E13+(L13-M13)*E13*2+M13*E13*3</f>
-        <v>7.35069444444444</v>
-      </c>
-      <c r="O13" s="85"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="112"/>
-    </row>
-    <row r="14" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="105" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C14-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J14" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F14)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="109" t="n">
-        <f aca="false">I14*(1-(_xlfn.BINOM.DIST(0,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L14" s="109" t="n">
-        <f aca="false">I14*(_xlfn.BINOM.DIST(2,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M14" s="110" t="n">
-        <f aca="false">I14*(_xlfn.BINOM.DIST(2,2,IF(J14&lt;1, 11, IF(J14&gt;11, 1, 12-J14))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J14&lt;1, $Q$2-1, IF(J14&gt;($Q$2-1), 0, IF(J14&gt;11, 1, $Q$2-J14)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N14" s="111" t="n">
-        <f aca="false">(K14-L14)*E14+(L14-M14)*E14*2+M14*E14*3</f>
-        <v>10.2973090277778</v>
-      </c>
-      <c r="O14" s="85"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="112"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="97" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="H15" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="I15" s="115" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C15-12))/144,0)/$Q$2)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J15" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F15)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="100" t="n">
-        <f aca="false">I15*(1-(_xlfn.BINOM.DIST(0,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,1))))</f>
-        <v>0.811794704861111</v>
-      </c>
-      <c r="L15" s="100" t="n">
-        <f aca="false">I15*(_xlfn.BINOM.DIST(2,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,0))))</f>
-        <v>0.791341145833333</v>
-      </c>
-      <c r="M15" s="101" t="n">
-        <f aca="false">I15*(_xlfn.BINOM.DIST(2,2,IF(J15&lt;1, 11, IF(J15&gt;11, 1, 12-J15))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J15&lt;1, $Q$2-1, IF(J15&gt;($Q$2-1), 0, IF(J15&gt;11, 1, $Q$2-J15)))/$Q$2,0)))</f>
-        <v>0.597384982638889</v>
-      </c>
-      <c r="N15" s="102" t="n">
-        <f aca="false">(K15-L15)*E15+(L15-M15)*E15*2+M15*E15*3</f>
-        <v>11.0026041666667</v>
-      </c>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="103"/>
-    </row>
-    <row r="16" s="113" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="105" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" s="108" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C16-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J16" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F16)*-1</f>
-        <v>-0</v>
-      </c>
-      <c r="K16" s="109" t="n">
-        <f aca="false">I16*(1-(_xlfn.BINOM.DIST(0,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L16" s="109" t="n">
-        <f aca="false">I16*(_xlfn.BINOM.DIST(2,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M16" s="110" t="n">
-        <f aca="false">I16*(_xlfn.BINOM.DIST(2,2,IF(J16&lt;1, 11, IF(J16&gt;11, 1, 12-J16))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J16&lt;1, $Q$2-1, IF(J16&gt;($Q$2-1), 0, IF(J16&gt;11, 1, $Q$2-J16)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N16" s="111" t="n">
-        <f aca="false">(K16-L16)*E16+(L16-M16)*E16*2+M16*E16*3</f>
-        <v>10.2973090277778</v>
-      </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="112"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="97" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" s="115" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C17-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J17" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F17)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="100" t="n">
-        <f aca="false">I17*(1-(_xlfn.BINOM.DIST(0,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L17" s="100" t="n">
-        <f aca="false">I17*(_xlfn.BINOM.DIST(2,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M17" s="101" t="n">
-        <f aca="false">I17*(_xlfn.BINOM.DIST(2,2,IF(J17&lt;1, 11, IF(J17&gt;11, 1, 12-J17))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J17&lt;1, $Q$2-1, IF(J17&gt;($Q$2-1), 0, IF(J17&gt;11, 1, $Q$2-J17)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N17" s="102" t="n">
-        <f aca="false">(K17-L17)*E17+(L17-M17)*E17*2+M17*E17*3</f>
-        <v>12.3567708333333</v>
-      </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="103"/>
-    </row>
-    <row r="18" s="113" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="117" t="s">
-        <v>265</v>
-      </c>
-      <c r="H18" s="118" t="s">
-        <v>237</v>
-      </c>
-      <c r="I18" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C18-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J18" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F18)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="109" t="n">
-        <f aca="false">I18*(1-(_xlfn.BINOM.DIST(0,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L18" s="109" t="n">
-        <f aca="false">I18*(_xlfn.BINOM.DIST(2,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M18" s="110" t="n">
-        <f aca="false">I18*(_xlfn.BINOM.DIST(2,2,IF(J18&lt;1, 11, IF(J18&gt;11, 1, 12-J18))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J18&lt;1, $Q$2-1, IF(J18&gt;($Q$2-1), 0, IF(J18&gt;11, 1, $Q$2-J18)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N18" s="111" t="n">
-        <f aca="false">(K18-L18)*E18+(L18-M18)*E18*2+M18*E18*3</f>
-        <v>5.51302083333333</v>
-      </c>
-      <c r="O18" s="85"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="112"/>
-    </row>
-    <row r="19" s="113" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C19-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J19" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F19)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="109" t="n">
-        <f aca="false">I19*(1-(_xlfn.BINOM.DIST(0,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L19" s="109" t="n">
-        <f aca="false">I19*(_xlfn.BINOM.DIST(2,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M19" s="110" t="n">
-        <f aca="false">I19*(_xlfn.BINOM.DIST(2,2,IF(J19&lt;1, 11, IF(J19&gt;11, 1, 12-J19))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J19&lt;1, $Q$2-1, IF(J19&gt;($Q$2-1), 0, IF(J19&gt;11, 1, $Q$2-J19)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N19" s="111" t="n">
-        <f aca="false">(K19-L19)*E19+(L19-M19)*E19*2+M19*E19*3</f>
-        <v>8.23784722222222</v>
-      </c>
-      <c r="O19" s="85"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="112"/>
-    </row>
-    <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="121" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" s="122" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C20-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J20" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F20)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="100" t="n">
-        <f aca="false">I20*(1-(_xlfn.BINOM.DIST(0,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L20" s="100" t="n">
-        <f aca="false">I20*(_xlfn.BINOM.DIST(2,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M20" s="101" t="n">
-        <f aca="false">I20*(_xlfn.BINOM.DIST(2,2,IF(J20&lt;1, 11, IF(J20&gt;11, 1, 12-J20))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J20&lt;1, $Q$2-1, IF(J20&gt;($Q$2-1), 0, IF(J20&gt;11, 1, $Q$2-J20)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N20" s="102" t="n">
-        <f aca="false">(K20-L20)*E20+(L20-M20)*E20*2+M20*E20*3</f>
-        <v>8.23784722222222</v>
-      </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="103"/>
-    </row>
-    <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="97" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C21-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J21" s="97" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F21)*-1</f>
-        <v>-0</v>
-      </c>
-      <c r="K21" s="100" t="n">
-        <f aca="false">I21*(1-(_xlfn.BINOM.DIST(0,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L21" s="100" t="n">
-        <f aca="false">I21*(_xlfn.BINOM.DIST(2,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M21" s="101" t="n">
-        <f aca="false">I21*(_xlfn.BINOM.DIST(2,2,IF(J21&lt;1, 11, IF(J21&gt;11, 1, 12-J21))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J21&lt;1, $Q$2-1, IF(J21&gt;($Q$2-1), 0, IF(J21&gt;11, 1, $Q$2-J21)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N21" s="102" t="n">
-        <f aca="false">(K21-L21)*E21+(L21-M21)*E21*2+M21*E21*3</f>
-        <v>12.3567708333333</v>
-      </c>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="103"/>
-    </row>
-    <row r="22" s="113" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="118" t="s">
-        <v>237</v>
-      </c>
-      <c r="I22" s="119" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C22-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J22" s="105" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F22)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="109" t="n">
-        <f aca="false">I22*(1-(_xlfn.BINOM.DIST(0,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L22" s="109" t="n">
-        <f aca="false">I22*(_xlfn.BINOM.DIST(2,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M22" s="110" t="n">
-        <f aca="false">I22*(_xlfn.BINOM.DIST(2,2,IF(J22&lt;1, 11, IF(J22&gt;11, 1, 12-J22))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J22&lt;1, $Q$2-1, IF(J22&gt;($Q$2-1), 0, IF(J22&gt;11, 1, $Q$2-J22)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N22" s="111" t="n">
-        <f aca="false">(K22-L22)*E22+(L22-M22)*E22*2+M22*E22*3</f>
-        <v>3.67534722222222</v>
-      </c>
-      <c r="O22" s="85"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="112"/>
-    </row>
-    <row r="23" s="113" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="123" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="125" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C23-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J23" s="124" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F23)*-1</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="126" t="n">
-        <f aca="false">I23*(1-(_xlfn.BINOM.DIST(0,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,1))))</f>
-        <v>0.75975658275463</v>
-      </c>
-      <c r="L23" s="126" t="n">
-        <f aca="false">I23*(_xlfn.BINOM.DIST(2,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,0))))</f>
-        <v>0.740614149305556</v>
-      </c>
-      <c r="M23" s="127" t="n">
-        <f aca="false">I23*(_xlfn.BINOM.DIST(2,2,IF(J23&lt;1, 11, IF(J23&gt;11, 1, 12-J23))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J23&lt;1, $Q$2-1, IF(J23&gt;($Q$2-1), 0, IF(J23&gt;11, 1, $Q$2-J23)))/$Q$2,0)))</f>
-        <v>0.55909107349537</v>
-      </c>
-      <c r="N23" s="128" t="n">
-        <f aca="false">(K23-L23)*E23+(L23-M23)*E23*2+M23*E23*3</f>
-        <v>6.17838541666667</v>
-      </c>
-      <c r="O23" s="85"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="129"/>
-    </row>
-    <row r="24" s="131" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="130"/>
-      <c r="G24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="85"/>
-      <c r="T24" s="136"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="139" t="s">
-        <v>272</v>
-      </c>
-      <c r="H25" s="138" t="s">
+      <c r="E27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="137" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="99" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C25-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J25" s="138" t="n">
-        <f aca="false">(-$T$2-4+$R$2+F25)*-1</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="140" t="n">
-        <f aca="false">I25*(1-(_xlfn.BINOM.DIST(0,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,1)*IF($Q$2&lt;1, 1, _xlfn.BINOM.DIST(0,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,1))))</f>
-        <v>0.75513599537037</v>
-      </c>
-      <c r="L25" s="140" t="n">
-        <f aca="false">I25*(_xlfn.BINOM.DIST(2,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)+(_xlfn.BINOM.DIST(1,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,0))))</f>
-        <v>0.686487268518519</v>
-      </c>
-      <c r="M25" s="141" t="n">
-        <f aca="false">I25*(_xlfn.BINOM.DIST(2,2,IF(J25&lt;1, 11, IF(J25&gt;11, 1, 12-J25))/12,0)*IF($Q$2&lt;1, 0, _xlfn.BINOM.DIST(1,1,IF(J25&lt;1, $Q$2-1, IF(J25&gt;($Q$2-1), 0, IF(J25&gt;11, 1, $Q$2-J25)))/$Q$2,0)))</f>
-        <v>0.396050347222222</v>
-      </c>
-      <c r="N25" s="142" t="n">
-        <f aca="false">(K25-L25)*E25+(L25-M25)*E25*2+M25*E25*3</f>
-        <v>1.83767361111111</v>
-      </c>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="143"/>
-    </row>
-    <row r="26" s="113" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>272</v>
-      </c>
-      <c r="H26" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="I26" s="144" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C26-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J26" s="105" t="s">
+      <c r="I27" s="139" t="n">
+        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-12))/144,0)/$Q$2)</f>
+        <v>0.356481481481481</v>
+      </c>
+      <c r="J27" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="K26" s="105" t="s">
+      <c r="K27" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="L26" s="105" t="s">
+      <c r="L27" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="M26" s="105" t="s">
+      <c r="M27" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="N26" s="105" t="s">
+      <c r="N27" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="O26" s="85"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="112"/>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="145" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="146" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="146" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="147" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="148" t="n">
-        <f aca="false">IF($Q$2&lt;1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27))/144, IF($Q$2&gt;=1,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-1))/144,0)/$Q$2 + IF($Q$2&gt;=2,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-2))/144,0)/$Q$2 + IF($Q$2&gt;=3,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-3))/144,0)/$Q$2 + IF($Q$2&gt;=4,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-4))/144,0)/$Q$2 + IF($Q$2&gt;=5,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-5))/144,0)/$Q$2 + IF($Q$2&gt;=6,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-6))/144,0)/$Q$2 + IF($Q$2&gt;=7,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-7))/144,0)/$Q$2 + IF($Q$2&gt;=8,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-8))/144,0)/$Q$2 + IF($Q$2&gt;=9,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-9))/144,0)/$Q$2 + IF($Q$2&gt;=10,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-10))/144,0)/$Q$2 + IF($Q$2&gt;=11,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-11))/144,0)/$Q$2 + IF($Q$2&gt;=12,COUNTIF(Sheet5!$B$2:$M$13, "&gt;="&amp;($S$2+1-$P$2-C27-12))/144,0)/$Q$2)</f>
-        <v>0.760416666666667</v>
-      </c>
-      <c r="J27" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="K27" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="N27" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="O27" s="150"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="151"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="143"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="152"/>
-      <c r="J36" s="153"/>
+      <c r="G36" s="144"/>
+      <c r="J36" s="145"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="154"/>
+      <c r="E38" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -14636,20 +14654,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
@@ -14866,7 +14884,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
@@ -15012,7 +15030,7 @@
         <v>109</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>-4</v>
@@ -15044,7 +15062,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>-4</v>
@@ -15076,7 +15094,7 @@
         <v>109</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>-4</v>
@@ -15108,7 +15126,7 @@
         <v>109</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>-4</v>
@@ -15121,6 +15139,152 @@
       </c>
       <c r="J14" s="0" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -15141,11 +15305,11 @@
   </sheetPr>
   <dimension ref="B1:Y27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -17679,13 +17843,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="81.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="19.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="148"/>
+      <c r="B3" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="148"/>
+      <c r="B4" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="148"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
   </cols>
@@ -18083,18 +18347,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
   </cols>
@@ -18648,11 +18912,11 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -20537,11 +20801,11 @@
   </sheetPr>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -22870,11 +23134,11 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="3.57"/>
@@ -24758,11 +25022,11 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -24774,7 +25038,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -27180,13 +27444,13 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -27551,14 +27815,14 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -27566,7 +27830,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -30138,15 +30402,15 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="495">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -994,7 +994,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Perform a basic attack. Roll your Weapon Skill against a targets Defense (Usually 14 if they are not in Guard Stance). If your roll is </t>
     </r>
@@ -1005,7 +1004,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Greater</t>
     </r>
@@ -1014,7 +1012,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> then the targets Defense, you deal damage equal to your weapons DPD multiplied by that number of dice that are greater then the targets protection minus your AP (12s always count and 1s never do).</t>
     </r>
@@ -1105,7 +1102,7 @@
     <t xml:space="preserve">The ability to maintain social presence and ability to inspire loyalty and trust.</t>
   </si>
   <si>
-    <t xml:space="preserve">Focus (FAC)</t>
+    <t xml:space="preserve">Focus (FOC)</t>
   </si>
   <si>
     <t xml:space="preserve">The ability to tune out unnecessary distractions and concentrate on the tasks at hand.</t>
@@ -1162,23 +1159,7 @@
     <t xml:space="preserve">Charisma and Focus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CHA + FOC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 12</t>
-    </r>
+    <t xml:space="preserve">CHA + FOC + 12</t>
   </si>
   <si>
     <t xml:space="preserve">Vigilance (VIGI)</t>
@@ -1190,23 +1171,7 @@
     <t xml:space="preserve">Focus and Endurance</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FOC + END</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 12</t>
-    </r>
+    <t xml:space="preserve">FOC + END + 12</t>
   </si>
   <si>
     <t xml:space="preserve">Fortitude (FORT)</t>
@@ -1218,23 +1183,7 @@
     <t xml:space="preserve">Endurance and Strength</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">END + STR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 12</t>
-    </r>
+    <t xml:space="preserve">END + STR + 12</t>
   </si>
   <si>
     <t xml:space="preserve">Reflex (REFL)</t>
@@ -1246,23 +1195,7 @@
     <t xml:space="preserve">Dexterity and Mobility</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DEX + MOB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 12</t>
-    </r>
+    <t xml:space="preserve">DEX + MOB + 12</t>
   </si>
   <si>
     <t xml:space="preserve">Derived Stats</t>
@@ -1377,6 +1310,282 @@
   </si>
   <si>
     <t xml:space="preserve">FOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science (type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Knowledge about a specific type of topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 leaves to all skills:
+ - Trained = 1d4
+ - Proficient = 1d6
+ - Expert = 1d8
+ - Master = 1d10
+ - Grand Master = 1d12
+Add skill die with associated attribute and 2d12 when making any skill check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcane Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the arcane school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the elemental school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge in first aid and of medical topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language (type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to speak and knowledge about a specific type of language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge in historical topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge in religious topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge in cults and witchcraft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to investigate a topic and draw accurate conclusions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to perceive very quiet sounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Handing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to communicate and understand animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to repair mechanical items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to read other humanoids body language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the holy school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necromancy Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the Necromancy school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to make others like you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to fool or trick people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to make persuasive arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance (type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to show impressive amount of skill in an ability meant for entertainment. Examples are Singing, Dancing, Acting, etc...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusion Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the illusion school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmutation Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the Transmutation school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock picking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to open locks with a lock picking set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafting (type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafting a specific type of object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to trap, hunt and survive in the wilderness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Torture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist the pain of torture or the effects of drugs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spot hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to see hidden objects or details that would be difficult to decern for most.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the Nature school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the Blood school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to swim in difficult conditions or for a long time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marathon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to keep running or maintaining a physically enduring activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to resist the effects of poisons and drugs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist Fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to resist the effects of being tired and fatigued.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to grapple and strike people unarmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your knowledge and skill when attacking people with shields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to lift heavy objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to climb up objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to intimidate people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slight of Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to manipulate your hands without others knowing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your knowledge and skill when using knives, daggers and swords.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your knowledge and skill when using axes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your knowledge and skill when using Hammers, Maces, and Clubs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polearms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your knowledge and skill when using Staves, Spears and Poleaxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ability to dodge attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiftness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ability to run across difficult terrain quickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrobatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ability to perform maneuvers in the air.</t>
   </si>
 </sst>
 </file>
@@ -1390,12 +1599,11 @@
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1417,7 +1625,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1425,30 +1632,16 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1926,7 +2119,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2259,15 +2452,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2303,7 +2496,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2323,11 +2516,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2355,11 +2548,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="26" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="27" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2415,11 +2608,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="30" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="30" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="31" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="31" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2443,7 +2636,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2463,11 +2656,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="36" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="36" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="37" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="37" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2503,7 +2696,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="8" xfId="19" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2585,7 +2778,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2598,7 +2790,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2611,7 +2802,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="@"/>
@@ -2736,13 +2926,13 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -2804,7 +2994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -2818,7 +3008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
@@ -2865,10 +3055,10 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -2876,7 +3066,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5452,11 +5642,11 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -5735,13 +5925,13 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.7"/>
@@ -8214,10 +8404,10 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -8225,7 +8415,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
@@ -9711,11 +9901,11 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="11.99"/>
@@ -9991,16 +10181,16 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="7" style="5" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7"/>
@@ -10008,7 +10198,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="76" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
         <v>87</v>
       </c>
@@ -12320,11 +12510,11 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
@@ -12760,23 +12950,23 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="76" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="76" t="s">
         <v>87</v>
       </c>
@@ -12981,7 +13171,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>230</v>
       </c>
@@ -13007,7 +13197,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>232</v>
       </c>
@@ -13033,7 +13223,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>233</v>
       </c>
@@ -13137,7 +13327,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>235</v>
       </c>
@@ -13163,7 +13353,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>191</v>
       </c>
@@ -13189,7 +13379,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>239</v>
       </c>
@@ -13438,28 +13628,28 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="58.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="81" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="81" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="81" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="82" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="82" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="83" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="91" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="91" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="84" t="s">
         <v>87</v>
       </c>
@@ -13525,7 +13715,7 @@
       <c r="AMI1" s="92"/>
       <c r="AMJ1" s="92"/>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="93" t="s">
         <v>222</v>
       </c>
@@ -13644,7 +13834,7 @@
       <c r="S3" s="101"/>
       <c r="T3" s="107"/>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="93" t="s">
         <v>44</v>
       </c>
@@ -14848,7 +15038,7 @@
       <c r="S26" s="101"/>
       <c r="T26" s="107"/>
     </row>
-    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="136" t="s">
         <v>201</v>
       </c>
@@ -15098,11 +15288,11 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.15"/>
@@ -15584,7 +15774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="46" t="s">
         <v>87</v>
       </c>
@@ -15747,7 +15937,7 @@
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -18318,7 +18508,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="149" t="s">
         <v>294</v>
       </c>
@@ -18338,7 +18528,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="149"/>
       <c r="B3" s="147" t="s">
         <v>299</v>
@@ -18356,7 +18546,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="149"/>
       <c r="B4" s="147" t="s">
         <v>302</v>
@@ -18374,7 +18564,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="149" t="s">
         <v>305</v>
       </c>
@@ -18394,7 +18584,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="149"/>
       <c r="B6" s="147" t="s">
         <v>309</v>
@@ -18412,7 +18602,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="149"/>
       <c r="B7" s="147" t="s">
         <v>311</v>
@@ -18430,7 +18620,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
         <v>313</v>
       </c>
@@ -18450,7 +18640,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="280.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61"/>
       <c r="B9" s="147" t="s">
         <v>317</v>
@@ -18468,7 +18658,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61"/>
       <c r="B10" s="147" t="s">
         <v>319</v>
@@ -18483,7 +18673,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61"/>
       <c r="B11" s="147" t="s">
         <v>321</v>
@@ -18519,15 +18709,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="148" width="51.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="21.02"/>
@@ -18553,7 +18743,7 @@
       </c>
     </row>
     <row r="2" s="150" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>327</v>
       </c>
       <c r="B2" s="150" t="s">
@@ -18562,54 +18752,61 @@
       <c r="C2" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="149" t="s">
         <v>330</v>
       </c>
       <c r="E2" s="150" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="150" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="149"/>
       <c r="B3" s="150" t="s">
         <v>331</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>332</v>
       </c>
+      <c r="D3" s="149"/>
       <c r="E3" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="149"/>
       <c r="B4" s="150" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="151" t="s">
         <v>334</v>
       </c>
+      <c r="D4" s="149"/>
       <c r="E4" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="149"/>
       <c r="B5" s="150" t="s">
         <v>335</v>
       </c>
       <c r="C5" s="151" t="s">
         <v>336</v>
       </c>
+      <c r="D5" s="149"/>
       <c r="E5" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" s="150" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="149"/>
       <c r="B6" s="150" t="s">
         <v>337</v>
       </c>
       <c r="C6" s="151" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="149" t="s">
         <v>339</v>
       </c>
       <c r="E6" s="150" t="s">
@@ -18617,40 +18814,46 @@
       </c>
     </row>
     <row r="7" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="149"/>
       <c r="B7" s="150" t="s">
         <v>340</v>
       </c>
       <c r="C7" s="151" t="s">
         <v>341</v>
       </c>
+      <c r="D7" s="149"/>
       <c r="E7" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="149"/>
       <c r="B8" s="150" t="s">
         <v>342</v>
       </c>
       <c r="C8" s="151" t="s">
         <v>343</v>
       </c>
+      <c r="D8" s="149"/>
       <c r="E8" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" s="150" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="149"/>
       <c r="B9" s="150" t="s">
         <v>344</v>
       </c>
       <c r="C9" s="151" t="s">
         <v>345</v>
       </c>
+      <c r="D9" s="149"/>
       <c r="E9" s="150" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="149" t="s">
         <v>346</v>
       </c>
       <c r="B10" s="147" t="s">
@@ -18667,7 +18870,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="150"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="147" t="s">
         <v>351</v>
       </c>
@@ -18682,7 +18885,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="150"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="147" t="s">
         <v>355</v>
       </c>
@@ -18697,7 +18900,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="150"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="147" t="s">
         <v>359</v>
       </c>
@@ -18712,7 +18915,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="150"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="147" t="s">
         <v>363</v>
       </c>
@@ -18727,7 +18930,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="149" t="s">
         <v>367</v>
       </c>
       <c r="B15" s="147" t="s">
@@ -18744,7 +18947,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="150"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="147" t="s">
         <v>314</v>
       </c>
@@ -18759,7 +18962,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="150"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="147" t="s">
         <v>375</v>
       </c>
@@ -18774,7 +18977,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="150"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="147" t="s">
         <v>378</v>
       </c>
@@ -18789,7 +18992,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="150"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="147" t="s">
         <v>382</v>
       </c>
@@ -18804,7 +19007,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="150"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="147" t="s">
         <v>274</v>
       </c>
@@ -18819,7 +19022,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="150"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="147" t="s">
         <v>387</v>
       </c>
@@ -18834,7 +19037,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="150"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="147" t="s">
         <v>9</v>
       </c>
@@ -18849,7 +19052,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="150"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="147" t="s">
         <v>391</v>
       </c>
@@ -18864,7 +19067,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="150"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="147" t="s">
         <v>395</v>
       </c>
@@ -18879,7 +19082,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="150"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="147" t="s">
         <v>398</v>
       </c>
@@ -18894,7 +19097,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="150"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="147" t="s">
         <v>402</v>
       </c>
@@ -18908,13 +19111,546 @@
         <v>404</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="147" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="150"/>
+      <c r="B28" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="150"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="150"/>
+      <c r="B29" s="147" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="150"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="150"/>
+      <c r="B30" s="147" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="148" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="150"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="150"/>
+      <c r="B31" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="150"/>
+      <c r="B32" s="147" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>418</v>
+      </c>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="150"/>
+      <c r="B33" s="147" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="150"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="150"/>
+      <c r="B34" s="147" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="150"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="150"/>
+      <c r="B35" s="147" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="148" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="150"/>
+      <c r="E35" s="151"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="150"/>
+      <c r="B36" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>426</v>
+      </c>
+      <c r="D36" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36" s="151"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="150"/>
+      <c r="B37" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="D37" s="150"/>
+      <c r="E37" s="151"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="150"/>
+      <c r="B38" s="147" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="148" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="150"/>
+      <c r="E38" s="151"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="150"/>
+      <c r="B39" s="147" t="s">
+        <v>431</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>432</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="150"/>
+      <c r="B40" s="147" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="148" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="151"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="150"/>
+      <c r="B41" s="147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="148" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" s="150"/>
+      <c r="E41" s="151"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="150"/>
+      <c r="B42" s="147" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="148" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>439</v>
+      </c>
+      <c r="E42" s="151"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="150"/>
+      <c r="B43" s="147" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="148" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" s="150"/>
+      <c r="E43" s="151"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="150"/>
+      <c r="B44" s="147" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" s="148" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" s="150"/>
+      <c r="E44" s="151"/>
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="150"/>
+      <c r="B45" s="147" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="148" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45" s="150"/>
+      <c r="E45" s="151"/>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="150"/>
+      <c r="B46" s="147" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" s="148" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="150"/>
+      <c r="E46" s="151"/>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="150"/>
+      <c r="B47" s="147" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="148" t="s">
+        <v>449</v>
+      </c>
+      <c r="D47" s="150"/>
+      <c r="E47" s="151"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="150"/>
+      <c r="B48" s="147" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" s="148" t="s">
+        <v>451</v>
+      </c>
+      <c r="D48" s="150" t="s">
+        <v>373</v>
+      </c>
+      <c r="E48" s="151"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="150"/>
+      <c r="B49" s="147" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49" s="148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="150"/>
+      <c r="B50" s="147" t="s">
+        <v>454</v>
+      </c>
+      <c r="C50" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="150"/>
+      <c r="B51" s="147" t="s">
+        <v>456</v>
+      </c>
+      <c r="C51" s="148" t="s">
+        <v>457</v>
+      </c>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="150"/>
+      <c r="B52" s="147" t="s">
+        <v>458</v>
+      </c>
+      <c r="C52" s="148" t="s">
+        <v>459</v>
+      </c>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="150"/>
+      <c r="B53" s="147" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" s="148" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="150"/>
+      <c r="B54" s="147" t="s">
+        <v>462</v>
+      </c>
+      <c r="C54" s="148" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="150"/>
+      <c r="B55" s="147" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="D55" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="E55" s="151"/>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="150"/>
+      <c r="B56" s="147" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="148" t="s">
+        <v>467</v>
+      </c>
+      <c r="D56" s="150"/>
+      <c r="E56" s="151"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="150"/>
+      <c r="B57" s="147" t="s">
+        <v>468</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="150"/>
+      <c r="B58" s="147" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" s="148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="150"/>
+      <c r="B59" s="147" t="s">
+        <v>472</v>
+      </c>
+      <c r="C59" s="148" t="s">
+        <v>473</v>
+      </c>
+      <c r="D59" s="150" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="151"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="150"/>
+      <c r="B60" s="147" t="s">
+        <v>474</v>
+      </c>
+      <c r="C60" s="148" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="150"/>
+      <c r="B61" s="147" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" s="148" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="150"/>
+      <c r="B62" s="147" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="148" t="s">
+        <v>479</v>
+      </c>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="150"/>
+      <c r="B63" s="147" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63" s="148" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="150"/>
+      <c r="B64" s="147" t="s">
+        <v>482</v>
+      </c>
+      <c r="C64" s="148" t="s">
+        <v>483</v>
+      </c>
+      <c r="D64" s="150" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" s="151"/>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="150"/>
+      <c r="B65" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="148" t="s">
+        <v>485</v>
+      </c>
+      <c r="D65" s="150"/>
+      <c r="E65" s="151"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="150"/>
+      <c r="B66" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="148" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" s="150"/>
+      <c r="E66" s="151"/>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="150"/>
+      <c r="B67" s="147" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="148" t="s">
+        <v>487</v>
+      </c>
+      <c r="D67" s="150"/>
+      <c r="E67" s="151"/>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="150"/>
+      <c r="B68" s="147" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="148" t="s">
+        <v>489</v>
+      </c>
+      <c r="D68" s="150"/>
+      <c r="E68" s="151"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="150"/>
+      <c r="B69" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="148" t="s">
+        <v>490</v>
+      </c>
+      <c r="D69" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="151"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="150"/>
+      <c r="B70" s="147" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" s="148" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="150"/>
+      <c r="E70" s="151"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="150"/>
+      <c r="B71" s="147" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="148" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" s="150"/>
+      <c r="E71" s="151"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A71"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="E27:E71"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D69:D71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -18937,7 +19673,7 @@
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="3.71"/>
   </cols>
@@ -19346,7 +20082,7 @@
       <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="2.99"/>
   </cols>
@@ -19904,7 +20640,7 @@
       <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -21793,7 +22529,7 @@
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.14"/>
@@ -24126,7 +24862,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="3.57"/>
@@ -26014,7 +26750,7 @@
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.57"/>
@@ -26026,7 +26762,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -28436,9 +29172,9 @@
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
@@ -28807,10 +29543,10 @@
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.71"/>
@@ -28818,7 +29554,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="2" width="40.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -31394,11 +32130,11 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.7"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -1321,7 +1321,7 @@
     <t xml:space="preserve">Scientific Knowledge about a specific type of topic</t>
   </si>
   <si>
-    <t xml:space="preserve">There are 5 leaves to all skills:
+    <t xml:space="preserve">There are 5 levels to all skills:
  - Trained = 1d4
  - Proficient = 1d6
  - Expert = 1d8
@@ -18711,8 +18711,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/rules/d10Chart_other.xlsx
+++ b/rules/d10Chart_other.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="17" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Moves" sheetId="1" state="hidden" r:id="rId2"/>
@@ -25,10 +25,10 @@
     <sheet name="Weapon 5.0" sheetId="15" state="hidden" r:id="rId16"/>
     <sheet name="Armor 5.0" sheetId="16" state="hidden" r:id="rId17"/>
     <sheet name="Weapon 6.0" sheetId="17" state="hidden" r:id="rId18"/>
-    <sheet name="Weapon 6.1" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Armor 6.1" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Stats 6.1" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Actions 6.1" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Weapon 6.1" sheetId="18" state="hidden" r:id="rId19"/>
+    <sheet name="Armor 6.1" sheetId="19" state="hidden" r:id="rId20"/>
+    <sheet name="Stats 6.1" sheetId="20" state="hidden" r:id="rId21"/>
+    <sheet name="Actions 6.1" sheetId="21" state="hidden" r:id="rId22"/>
     <sheet name="Weapon 6.2" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Armor 6.2" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Stats 6.2" sheetId="24" state="visible" r:id="rId25"/>
@@ -38,7 +38,7 @@
     <sheet name="Talents 6.2" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="Spells 6.2" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="2d10s" sheetId="30" state="hidden" r:id="rId31"/>
-    <sheet name="2d12s" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="2d12s" sheetId="31" state="hidden" r:id="rId32"/>
     <sheet name="1d12Plus" sheetId="32" state="visible" r:id="rId33"/>
     <sheet name="Single Dice" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="839">
   <si>
     <t xml:space="preserve">Moves</t>
   </si>
@@ -1491,253 +1491,15 @@
     <t xml:space="preserve">2 Stamina</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose one attack against you this turn, roll your main weapon attack and add your off hand weapons defense bonus to the roll (if applicable). The attack with the lower roll fails. The attack with the higher roll is successful and adds 1 to their weapons DPD. If the rolls are equal both attacks are successful and both add 1 their weapons DPD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can move your Base move, but it must be towards the target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guard Stance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actively Guard yours against up to two attacks per turn, allowing you do use your reflex + your weapon defense bonuses as your Defense Rating against those attacks while you maintain this stance.
-The following breaks Guard Stance: Taking any other action other then Attack, Dodge or Sprint, moving more then your Base Move Speed (willingly or not), getting knocked prone, getting dazed, or taking a wound.
-On your first turn of any combat, you may do this as a Free Action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base move in any direction or get up from prone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempt dodge all melee attacks targeting you. Roll the Dodge skill and subtract 1 for each additional attack against you after the first. If you roll above the attackers reflex, the dodge is success and their attack fails regardless of what they roll for it. You only roll once  and it is possible to only dodge some of the oncoming attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must move atleast 5ft in an empty 5ft area. If not available then this action automatically fails. Can move up to Base move, but all moved through spaces must be empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Perform a basic attack. Roll your Weapon Skill against a targets Defense (Usually 14 if they are not in Guard Stance). If your roll is </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Greater</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> then the targets Defense, you deal damage equal to your weapons DPD multiplied by that number of dice that are greater then the targets protection minus your AP (12s always count and 1s never do).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Can move your Base move if it is a Melee Attack, but it must be towards the target. Cannot move while performing a Range Attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You make precise and calculated attack against the targets Defense. Choose to at the body or the head. If you choose the body, subract 2 plus the targets body armor coverage from your roll. If you choose the head, subract 5 plus the targets Head armor coverage from your roll. If successful The targets protection in that location is set 4 and your DPD is increased by 1. You may also select an attribute in that location (Physical for Body, and Mental for Head). Any damage applied after the targets tough reaches 0 must be applied to that location first reguardless if another attribute has more damage on it. This has no effect if the attrbute is already wounded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack with both weapons. Must be dualwielding melee weapons and must be atleast trained with both weapons. Choose a weapon to be the primary. All stats for the attacks are based on that weapons. Add an additional die to the attack equal to your skill in the secondary weapon. This die can deal damage but maintains the states of the primary weapon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adds your aim bonus to your next range attack against a declared target. You don't need constant line of sight of the target but must have a resonable understanding where the target is. For example you may keep your aim bonus if your target hides behind a barrel, but you may not keep it when they run inside a large house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot Move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple the target. Roll Brawl vs the targets Fortitude. If you roll higher the target is grappled. You and the grappled target can only guard against 1 target (instead of 2). Both your attacks using unarmed attacks or small weapons gain advantage. The target cannot move. 
-You can use this action again during a grapple to shove or pin the target. Roll brawl against fortitude again to do so. If successfull you can shove the target 5ft away, if they are pushed into a breakable or small object they are knocked prone, if it is a hard object like a wall they are dazed. If you decide to pin them and are next to a wall, you can pin them against the wall, otherwise both the targe and you are prone. While pined both you and the target cannot move or take any actions other then grapple. If you take the grapple action while your target is pinned, you choke the target dealing none leathal damage to the directly to the targets mental stats equal to your strength. Any wounds gained from this damage does not trigger bleed checks.
-The target may take the grapple action to break free from the grapple. They must roll Brawl against your fortitude. If they succeed the grapple ends. They can also attempt to grapple you back in which case both of you have the grappled condition. If they are pin they can only use this action to remove the pin (Brawl vs Fortitude), doing so moves them back into the grappled state.
-If both you and the target are using the grappled action, the higher roll is the one whose action applies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interact with an item in your backback or with a complex device (Items on your body any within reach can be interacted with as a free action).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Stamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move freely up to your sprint speed. If you are prone you may get up but only move your base speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint move in any direction or get up from prone and move base speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage Threshhold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opp Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concealable, Throw, Light, Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concealable, Light, Small </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach, Throw, Versatile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach, Two Hand, Leverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach, Versatile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shove Attack, Bulky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All attacks while holding this are at disadvantage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be concealed under clothing and armor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used in the Offhand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+2 DPD and +1 AP when attacking an opponent greater then 5ft away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using two hands, can hit at 10ft, and while guarding melee attacks against you have disadvantage when the attacker start their turn more then 5ft away and they do not have reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On success, regardless of damage done, push the target 5 ft back. Does not work on targets that are a greater size then you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disadvantage with this weapon when attacking an opponent with a weapon size medium or larger who is guarding against you,while not grappled, advantage against opponents while grappling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be thrown as a range weapon. It gains +1 DPD and has a max  Aim of 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Handed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires 2 hands to use, also takes up 2 slots when equipping or stowed in your backpack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be used in one hand or two. Switch between is a free action that can happen at any time. When used in two hands the weapon gains +1 DPD, +1 AP and +1 Guard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mana Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental Skill 
-Reduction
-Applies to Focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normally Can be from 1-6. The number corresponds with a die size (ussually twice the value).3 Is average. 
-1 – 0
-2 – d4
-3 – d6
-4 – d8
-5 – d10
-6 – d12
-Some items and abilitys can allow you to go above 6, when this occurs add a flat +1 for each point above 6 to any of the rolls using this die.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIND + INT + 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHA + FOC + 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOC + END + 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END + STR + 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEX + MOB + 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(STR / 2) – 1 + Item Bonuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 + Armor Bonuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are 6 levels to all skills:
- - Untrained = 0
- - Trained = 1d4
- - Proficient = 1d6
- - Expert = 1d8
- - Master = 1d10
- - Grand Master = 1d12
-Add skill die with associated attribute, the die from that attribute and 1d12 when making any skill check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divine Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is use for knowledge and the casting spells from the Divine school of magic.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Choose one attack against you this turn, roll your main weapon attack and add your off hand weapons defense bonus to the roll (if applicable). The attack with the lower roll fails. The attack with the higher roll is successful and adds 1 to their weapons DPD. If the rolls are equal both attacks are successful and both add 1 their weapons DPD.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Can move your Base move, but it must be towards the target. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guard Stance</t>
   </si>
   <si>
     <t xml:space="preserve">Actively Guard yours against up to two attacks per turn, allowing you do use your reflex + your weapon defense bonuses as your Defense Rating against those attacks while you maintain this stance.
@@ -1746,12 +1508,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Base move in any direction or get up from prone.
+    <t xml:space="preserve">Base move in any direction or get up from prone. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt dodge all melee attacks targeting you. Roll the Dodge skill and subtract 1 for each additional attack against you after the first. If you roll above the attackers reflex, the dodge is success and their attack fails regardless of what they roll for it. You only roll once  and it is possible to only dodge some of the oncoming attacks.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Must move atleast 5ft in an empty 5ft area. If not available then this action automatically fails. Can move up to Base move, but all moved through spaces must be empty.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack</t>
   </si>
   <si>
     <r>
@@ -1790,16 +1562,32 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Attack with both weapons. Must be dualwielding melee weapons and must be atleast trained with both weapons. Choose a weapon to be the primary. All stats for the attacks are based on that weapons. Add an additional die to the attack equal to your skill in the secondary weapon. This die can deal damage but maintains the stats of the primary weapon.
-</t>
+    <t xml:space="preserve">Precision Attack</t>
   </si>
   <si>
     <t xml:space="preserve">You make precise and calculated attack against the targets Defense. Choose to at the body or the head. If you choose the body, subract 2 plus the targets body armor coverage from your roll. If you choose the head, subract 5 plus the targets Head armor coverage from your roll. If successful The targets protection in that location is set 4 and your DPD is increased by 1. You may also select an attribute in that location (Physical for Body, and Mental for Head). Any damage applied after the targets tough reaches 0 must be applied to that location first reguardless if another attribute has more damage on it. This has no effect if the attrbute is already wounded.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Dual Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack with both weapons. Must be dualwielding melee weapons and must be atleast trained with both weapons. Choose a weapon to be the primary. All stats for the attacks are based on that weapons. Add an additional die to the attack equal to your skill in the secondary weapon. This die can deal damage but maintains the states of the primary weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adds your aim bonus to your next range attack against a declared target. You don't need constant line of sight of the target but must have a resonable understanding where the target is. For example you may keep your aim bonus if your target hides behind a barrel, but you may not keep it when they run inside a large house.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot Move
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple</t>
   </si>
   <si>
     <t xml:space="preserve">Grapple the target. Roll Brawl vs the targets Fortitude. If you roll higher the target is grappled. You and the grappled target can only guard against 1 target (instead of 2). Both your attacks using unarmed attacks or small weapons gain advantage. The target cannot move. 
@@ -1809,16 +1597,208 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Interact</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interact with an item in your backback or with a complex device (Items on your body any within reach can be interacted with as a free action).
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Base move in any direction or get up from prone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Stamina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Move freely up to your sprint speed. If you are prone you may get up but only move your base speed.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Sprint move in any direction or get up from prone and move base speed.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Threshhold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opp Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable, Throw, Light, Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concealable, Light, Small </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versatile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach, Throw, Versatile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach, Two Hand, Leverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach, Versatile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shove Attack, Bulky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brittle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Brittle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: If the total amount rolled (without static modifiers) is less than 8, this item breaks and becomes useless.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All attacks while holding this are at disadvantage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be concealed under clothing and armor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used in the Offhand
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+2 DPD and +1 AP when attacking an opponent greater then 5ft away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When using two hands, can hit at 10ft, While guarding melee attacks against you were have disadvatange if the opponent started their action further then 5ft away and moved closer at 5ft or less. If the attack fails they are moved back 5ft.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On success, regardless of damage done, push the target 5 ft back. Does not work on targets that are a greater size then you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disadvantage with this weapon when attacking an opponent with a weapon size medium or larger who is guarding against you,while not grappled, advantage against opponents while grappling 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be thrown as a range weapon. It gains +1 DPD and has a max  Aim of 1.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Handed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires 2 hands to use, also takes up 2 slots when equipping or stowed in your backpack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be used in one hand or two. Switch between is a free action that can happen at any time. When used in two hands the weapon gains +1 DPD, +1 AP and +1 Guard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Skill 
+Reduction
+Applies to Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normally Can be from 1-6. The number corresponds with a die size (ussually twice the value).3 Is average. 
+1 – 0
+2 – d4
+3 – d6
+4 – d8
+5 – d10
+6 – d12
+Some items and abilitys can allow you to go above 6, when this occurs add a flat +1 for each point above 6 to any of the rolls using this die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIND + INT + 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHA + FOC + 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOC + END + 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END + STR + 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEX + MOB + 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(STR / 2) – 1 + Item Bonuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 + Armor Bonuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 6 levels to all skills:
+ - Untrained = 0
+ - Trained = 1d4
+ - Proficient = 1d6
+ - Expert = 1d8
+ - Master = 1d10
+ - Grand Master = 1d12
+Add skill die with associated attribute, the die from that attribute and 1d12 when making any skill check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is use for knowledge and the casting spells from the Divine school of magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt dodge all melee attacks targeting you. Roll the Dodge skill and subtract 1 for each additional attack against you after the first. If you roll above the attackers reflex, the dodge is success and their attack fails regardless of what they roll for it. You only roll once  and it is possible to only dodge some of the oncoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack with both weapons. Must be dualwielding melee weapons and must be atleast trained with both weapons. Choose a weapon to be the primary. All stats for the attacks are based on that weapons. Add an additional die to the attack equal to your skill in the secondary weapon. This die can deal damage but maintains the stats of the primary weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can move your Base move, but it must be towards the target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can move your Base move if it is a Melee Attack, but it must be towards the target. Cannot move while performing a Range Attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot Move</t>
   </si>
   <si>
     <t xml:space="preserve">Unlock Method</t>
@@ -2509,7 +2489,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: If the total amount rolled (without static modifiers) is 5 or less. This item breaks and becomes useless. 
+      <t xml:space="preserve">: If the total amount rolled (without static modifiers) is less than 8, this item breaks and becomes useless. 
 </t>
     </r>
     <r>
@@ -2904,7 +2884,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: If the total amount rolled (without static modifiers) is 5 or less. This item breaks and becomes useless. 
+      <t xml:space="preserve">: If the total amount rolled (without static modifiers) is less than 8, this item breaks and becomes useless. 
 </t>
     </r>
     <r>
@@ -3075,7 +3055,8 @@
 Set Current Stamina to your Endurance = 1 Wound
 Remove Exhaustion on a physical attribute = 2 Wounds
 Remobe a Wound and Heal a physical Attribute Completely = 2 Wounds
-If the target dies durring this process, automaticly gain all 4 effects.</t>
+If the target dies durring this process, automaticly gain all 4 effects.
+</t>
     </r>
   </si>
   <si>
@@ -3266,13 +3247,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3282,6 +3256,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4457,8 +4438,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4577,11 +4558,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -21300,8 +21281,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21310,7 +21291,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="148" width="81.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="148" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="148" width="27.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="15.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="147" width="11.57"/>
   </cols>
@@ -21335,7 +21316,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
         <v>466</v>
       </c>
@@ -21355,7 +21336,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="151"/>
       <c r="B3" s="147" t="s">
         <v>471</v>
@@ -21373,7 +21354,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="151"/>
       <c r="B4" s="147" t="s">
         <v>457</v>
@@ -21391,7 +21372,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="151" t="s">
         <v>476</v>
       </c>
@@ -21411,7 +21392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="151"/>
       <c r="B6" s="147" t="s">
         <v>480</v>
@@ -21429,7 +21410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="151"/>
       <c r="B7" s="147" t="s">
         <v>482</v>
@@ -21447,7 +21428,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
         <v>484</v>
       </c>
@@ -21467,7 +21448,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="248.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61"/>
       <c r="B9" s="147" t="s">
         <v>487</v>
@@ -21497,22 +21478,22 @@
         <v>490</v>
       </c>
       <c r="E10" s="148" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61"/>
       <c r="B11" s="147" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -21536,10 +21517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ40"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21592,7 +21573,7 @@
         <v>246</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K1" s="87" t="s">
         <v>248</v>
@@ -21617,7 +21598,7 @@
         <v>254</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T1" s="90" t="s">
         <v>256</v>
@@ -21649,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H2" s="94" t="s">
         <v>222</v>
@@ -21660,23 +21641,23 @@
       </c>
       <c r="J2" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F2)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L2" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M2" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J2&lt;2,3,IF($J2&gt;11,13,MATCH($J2,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N2" s="98" t="n">
         <f aca="false">((K2-L2)*E2+(L2-M2)*E2*2+M2*E2*3)*I2</f>
-        <v>0.5873</v>
+        <v>0.13984452</v>
       </c>
       <c r="O2" s="83" t="n">
         <v>0.06</v>
@@ -21694,7 +21675,7 @@
         <v>16</v>
       </c>
       <c r="T2" s="99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U2" s="153"/>
       <c r="V2" s="154"/>
@@ -21729,23 +21710,23 @@
       </c>
       <c r="J3" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F3)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K3" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L3" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M3" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J3&lt;2,3,IF($J3&gt;11,13,MATCH($J3,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N3" s="106" t="n">
         <f aca="false">((K3-L3)*E3+(L3-M3)*E3*2+M3*E3*3)*I3</f>
-        <v>1.1746</v>
+        <v>0.27968904</v>
       </c>
       <c r="O3" s="83"/>
       <c r="P3" s="101"/>
@@ -21775,7 +21756,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H4" s="94" t="s">
         <v>224</v>
@@ -21786,23 +21767,23 @@
       </c>
       <c r="J4" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F4)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K4" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M4" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J4&lt;2,3,IF($J4&gt;11,13,MATCH($J4,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N4" s="98" t="n">
         <f aca="false">((K4-L4)*E4+(L4-M4)*E4*2+M4*E4*3)*I4</f>
-        <v>1.45428904</v>
+        <v>0.3356</v>
       </c>
       <c r="P4" s="94"/>
       <c r="Q4" s="94"/>
@@ -21830,7 +21811,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H5" s="101" t="s">
         <v>224</v>
@@ -21841,23 +21822,23 @@
       </c>
       <c r="J5" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F5)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M5" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J5&lt;2,3,IF($J5&gt;11,13,MATCH($J5,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N5" s="106" t="n">
         <f aca="false">((K5-L5)*E5+(L5-M5)*E5*2+M5*E5*3)*I5</f>
-        <v>1.45428904</v>
+        <v>0.3356</v>
       </c>
       <c r="O5" s="83"/>
       <c r="P5" s="101"/>
@@ -21897,23 +21878,23 @@
       </c>
       <c r="J6" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F6)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L6" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M6" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J6&lt;2,3,IF($J6&gt;11,13,MATCH($J6,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N6" s="98" t="n">
         <f aca="false">((K6-L6)*E6+(L6-M6)*E6*2+M6*E6*3)*I6</f>
-        <v>2.187675</v>
+        <v>0.52091667</v>
       </c>
       <c r="P6" s="94"/>
       <c r="Q6" s="94"/>
@@ -21952,23 +21933,23 @@
       </c>
       <c r="J7" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F7)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M7" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J7&lt;2,3,IF($J7&gt;11,13,MATCH($J7,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N7" s="106" t="n">
         <f aca="false">((K7-L7)*E7+(L7-M7)*E7*2+M7*E7*3)*I7</f>
-        <v>2.18143356</v>
+        <v>0.5034</v>
       </c>
       <c r="O7" s="83"/>
       <c r="P7" s="101"/>
@@ -22008,23 +21989,23 @@
       </c>
       <c r="J8" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F8)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K8" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L8" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M8" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J8&lt;2,3,IF($J8&gt;11,13,MATCH($J8,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N8" s="98" t="n">
         <f aca="false">((K8-L8)*E8+(L8-M8)*E8*2+M8*E8*3)*I8</f>
-        <v>2.3492</v>
+        <v>0.55937808</v>
       </c>
       <c r="P8" s="94"/>
       <c r="Q8" s="94"/>
@@ -22052,7 +22033,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H9" s="112" t="s">
         <v>227</v>
@@ -22063,23 +22044,23 @@
       </c>
       <c r="J9" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F9)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L9" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M9" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J9&lt;2,3,IF($J9&gt;11,13,MATCH($J9,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N9" s="106" t="n">
         <f aca="false">((K9-L9)*E9+(L9-M9)*E9*2+M9*E9*3)*I9</f>
-        <v>2.187675</v>
+        <v>0.52091667</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="101"/>
@@ -22115,23 +22096,23 @@
       </c>
       <c r="J10" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F10)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K10" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M10" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J10&lt;2,3,IF($J10&gt;11,13,MATCH($J10,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N10" s="106" t="n">
         <f aca="false">((K10-L10)*E10+(L10-M10)*E10*2+M10*E10*3)*I10</f>
-        <v>3.61145556</v>
+        <v>0.8334</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="101"/>
@@ -22160,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H11" s="115" t="s">
         <v>228</v>
@@ -22171,23 +22152,23 @@
       </c>
       <c r="J11" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F11)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M11" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J11&lt;2,3,IF($J11&gt;11,13,MATCH($J11,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N11" s="98" t="n">
         <f aca="false">((K11-L11)*E11+(L11-M11)*E11*2+M11*E11*3)*I11</f>
-        <v>2.18143356</v>
+        <v>0.5034</v>
       </c>
       <c r="P11" s="94"/>
       <c r="Q11" s="94"/>
@@ -22222,23 +22203,23 @@
       </c>
       <c r="J12" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F12)*-1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.997685185463</v>
+        <v>0.710648149537</v>
       </c>
       <c r="L12" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.949068519074</v>
+        <v>0.189842590926</v>
       </c>
       <c r="M12" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J12&lt;2,3,IF($J12&gt;11,13,MATCH($J12,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.636546295463</v>
+        <v>0.016209259537</v>
       </c>
       <c r="N12" s="98" t="n">
         <f aca="false">((K12-L12)*E12+(L12-M12)*E12*2+M12*E12*3)*I12</f>
-        <v>3.46782192</v>
+        <v>1.23057808</v>
       </c>
       <c r="P12" s="94"/>
       <c r="Q12" s="94"/>
@@ -22266,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H13" s="112" t="s">
         <v>229</v>
@@ -22277,23 +22258,23 @@
       </c>
       <c r="J13" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F13)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L13" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M13" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J13&lt;2,3,IF($J13&gt;11,13,MATCH($J13,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N13" s="106" t="n">
         <f aca="false">((K13-L13)*E13+(L13-M13)*E13*2+M13*E13*3)*I13</f>
-        <v>2.3492</v>
+        <v>0.55937808</v>
       </c>
       <c r="O13" s="83"/>
       <c r="P13" s="101"/>
@@ -22329,23 +22310,23 @@
       </c>
       <c r="J14" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F14)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K14" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M14" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J14&lt;2,3,IF($J14&gt;11,13,MATCH($J14,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N14" s="106" t="n">
         <f aca="false">((K14-L14)*E14+(L14-M14)*E14*2+M14*E14*3)*I14</f>
-        <v>3.6357226</v>
+        <v>0.839</v>
       </c>
       <c r="O14" s="83"/>
       <c r="P14" s="101"/>
@@ -22385,23 +22366,23 @@
       </c>
       <c r="J15" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F15)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K15" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M15" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J15&lt;2,3,IF($J15&gt;11,13,MATCH($J15,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N15" s="98" t="n">
         <f aca="false">((K15-L15)*E15+(L15-M15)*E15*2+M15*E15*3)*I15</f>
-        <v>4.51431945</v>
+        <v>1.04175</v>
       </c>
       <c r="P15" s="94"/>
       <c r="Q15" s="94"/>
@@ -22440,23 +22421,23 @@
       </c>
       <c r="J16" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F16)*-1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.997685185463</v>
+        <v>0.710648149537</v>
       </c>
       <c r="L16" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.949068519074</v>
+        <v>0.189842590926</v>
       </c>
       <c r="M16" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J16&lt;2,3,IF($J16&gt;11,13,MATCH($J16,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.636546295463</v>
+        <v>0.016209259537</v>
       </c>
       <c r="N16" s="106" t="n">
         <f aca="false">((K16-L16)*E16+(L16-M16)*E16*2+M16*E16*3)*I16</f>
-        <v>4.3347774</v>
+        <v>1.5382226</v>
       </c>
       <c r="O16" s="83"/>
       <c r="P16" s="101"/>
@@ -22496,23 +22477,23 @@
       </c>
       <c r="J17" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F17)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K17" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M17" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J17&lt;2,3,IF($J17&gt;11,13,MATCH($J17,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N17" s="98" t="n">
         <f aca="false">((K17-L17)*E17+(L17-M17)*E17*2+M17*E17*3)*I17</f>
-        <v>4.36286712</v>
+        <v>1.0068</v>
       </c>
       <c r="P17" s="94"/>
       <c r="Q17" s="94"/>
@@ -22540,7 +22521,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H18" s="112" t="s">
         <v>237</v>
@@ -22551,23 +22532,23 @@
       </c>
       <c r="J18" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F18)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K18" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L18" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M18" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J18&lt;2,3,IF($J18&gt;11,13,MATCH($J18,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N18" s="106" t="n">
         <f aca="false">((K18-L18)*E18+(L18-M18)*E18*2+M18*E18*3)*I18</f>
-        <v>1.7619</v>
+        <v>0.41953356</v>
       </c>
       <c r="O18" s="83"/>
       <c r="P18" s="101"/>
@@ -22603,23 +22584,23 @@
       </c>
       <c r="J19" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F19)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K19" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M19" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J19&lt;2,3,IF($J19&gt;11,13,MATCH($J19,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N19" s="106" t="n">
         <f aca="false">((K19-L19)*E19+(L19-M19)*E19*2+M19*E19*3)*I19</f>
-        <v>2.90857808</v>
+        <v>0.6712</v>
       </c>
       <c r="O19" s="83"/>
       <c r="P19" s="101"/>
@@ -22648,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="114" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H20" s="115" t="s">
         <v>237</v>
@@ -22659,23 +22640,23 @@
       </c>
       <c r="J20" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F20)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K20" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M20" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J20&lt;2,3,IF($J20&gt;11,13,MATCH($J20,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N20" s="98" t="n">
         <f aca="false">((K20-L20)*E20+(L20-M20)*E20*2+M20*E20*3)*I20</f>
-        <v>2.90857808</v>
+        <v>0.6712</v>
       </c>
       <c r="P20" s="94"/>
       <c r="Q20" s="94"/>
@@ -22710,23 +22691,23 @@
       </c>
       <c r="J21" s="94" t="n">
         <f aca="false">(-$T$2-5+$R$2+F21)*-1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K21" s="97" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.997685185463</v>
+        <v>0.710648149537</v>
       </c>
       <c r="L21" s="97" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.949068519074</v>
+        <v>0.189842590926</v>
       </c>
       <c r="M21" s="97" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J21&lt;2,3,IF($J21&gt;11,13,MATCH($J21,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.636546295463</v>
+        <v>0.016209259537</v>
       </c>
       <c r="N21" s="98" t="n">
         <f aca="false">((K21-L21)*E21+(L21-M21)*E21*2+M21*E21*3)*I21</f>
-        <v>5.20173288</v>
+        <v>1.84586712</v>
       </c>
       <c r="P21" s="94"/>
       <c r="Q21" s="94"/>
@@ -22754,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="111" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H22" s="112" t="s">
         <v>237</v>
@@ -22765,23 +22746,23 @@
       </c>
       <c r="J22" s="101" t="n">
         <f aca="false">(-$T$2-5+$R$2+F22)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K22" s="105" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L22" s="105" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M22" s="105" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J22&lt;2,3,IF($J22&gt;11,13,MATCH($J22,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N22" s="106" t="n">
         <f aca="false">((K22-L22)*E22+(L22-M22)*E22*2+M22*E22*3)*I22</f>
-        <v>1.1746</v>
+        <v>0.27968904</v>
       </c>
       <c r="O22" s="83"/>
       <c r="P22" s="101"/>
@@ -22817,23 +22798,23 @@
       </c>
       <c r="J23" s="118" t="n">
         <f aca="false">(-$T$2-5+$R$2+F23)*-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K23" s="120" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.981481482037</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="120" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.814825925926</v>
+        <v>0</v>
       </c>
       <c r="M23" s="120" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J23&lt;2,3,IF($J23&gt;11,13,MATCH($J23,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.370392592037</v>
+        <v>0</v>
       </c>
       <c r="N23" s="121" t="n">
         <f aca="false">((K23-L23)*E23+(L23-M23)*E23*2+M23*E23*3)*I23</f>
-        <v>2.18143356</v>
+        <v>0.5034</v>
       </c>
       <c r="O23" s="83"/>
       <c r="P23" s="118"/>
@@ -22884,23 +22865,23 @@
       </c>
       <c r="J25" s="130" t="n">
         <f aca="false">(-$T$2-5+$R$2+F25)*-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K25" s="132" t="n">
         <f aca="false">1-((1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)))</f>
-        <v>0.9375</v>
+        <v>0.4167</v>
       </c>
       <c r="L25" s="132" t="n">
         <f aca="false">(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))+(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100)*(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(1-(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100))*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)+(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100)*(INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M25" s="132" t="n">
         <f aca="false">((((INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),7)/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($P$2,'Single Dice'!$A$1:$G$1,0))/100))*((INDEX('Single Dice'!$A$1:$G$13,IF($J25&lt;2,3,IF($J25&gt;11,13,MATCH($J25,'Single Dice'!$A:$A))),MATCH($Q$2,'Single Dice'!$A$1:$G$1,0))/100))))</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="N25" s="133" t="n">
         <f aca="false">((K25-L25)*E25+(L25-M25)*E25*2+M25*E25*3)*I25</f>
-        <v>0.5873</v>
+        <v>0.13984452</v>
       </c>
       <c r="P25" s="130"/>
       <c r="Q25" s="130"/>
@@ -22979,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H27" s="137" t="s">
         <v>241</v>
@@ -23012,95 +22993,103 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="156" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G30" s="157" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="158" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G31" s="159" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="G32" s="160" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="160" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="158" t="s">
-        <v>97</v>
-      </c>
       <c r="G33" s="160" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="158" t="s">
-        <v>510</v>
+        <v>97</v>
       </c>
       <c r="G34" s="160" t="s">
-        <v>511</v>
-      </c>
-      <c r="J34" s="161"/>
+        <v>512</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="158" t="s">
+        <v>513</v>
+      </c>
+      <c r="G35" s="160" t="s">
+        <v>514</v>
+      </c>
+      <c r="J35" s="161"/>
+    </row>
+    <row r="36" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="160" t="s">
-        <v>512</v>
-      </c>
-      <c r="J35" s="161"/>
-    </row>
-    <row r="36" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="158" t="s">
-        <v>200</v>
-      </c>
       <c r="G36" s="160" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J36" s="161"/>
     </row>
     <row r="37" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="160" t="s">
+        <v>516</v>
+      </c>
+      <c r="J37" s="161"/>
+    </row>
+    <row r="38" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="160" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="146"/>
-      <c r="F38" s="158" t="s">
-        <v>515</v>
-      </c>
       <c r="G38" s="160" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="146"/>
       <c r="F39" s="158" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="162" t="s">
-        <v>500</v>
-      </c>
-      <c r="G40" s="163" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="146"/>
+      <c r="F40" s="158" t="s">
+        <v>520</v>
+      </c>
+      <c r="G40" s="160" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="162" t="s">
+        <v>501</v>
+      </c>
+      <c r="G41" s="163" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -23118,7 +23107,7 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
   </mergeCells>
-  <conditionalFormatting sqref="G38:G1048576 G28 G24 G1:G8 G15 G33:G36">
+  <conditionalFormatting sqref="G39:G1048576 G28 G24 G1:G8 G15 G34:G37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23274,7 +23263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G40 G33:G36">
+  <conditionalFormatting sqref="G39:G41 G34:G37">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23286,7 +23275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G40">
+  <conditionalFormatting sqref="G39:G41">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23298,7 +23287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G36 G30">
+  <conditionalFormatting sqref="G34:G37 G30">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23310,7 +23299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23322,7 +23311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23334,7 +23323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23346,7 +23335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23358,7 +23347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23370,7 +23359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23382,7 +23371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23394,7 +23383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -23467,7 +23456,7 @@
         <v>275</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J1" s="46" t="s">
         <v>94</v>
@@ -23930,7 +23919,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>94</v>
@@ -24117,7 +24106,7 @@
         <v>296</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" s="149" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24227,7 +24216,7 @@
         <v>315</v>
       </c>
       <c r="E10" s="147" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24242,7 +24231,7 @@
         <v>319</v>
       </c>
       <c r="E11" s="147" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24257,7 +24246,7 @@
         <v>323</v>
       </c>
       <c r="E12" s="147" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24272,7 +24261,7 @@
         <v>327</v>
       </c>
       <c r="E13" s="147" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24287,7 +24276,7 @@
         <v>331</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24349,7 +24338,7 @@
         <v>347</v>
       </c>
       <c r="E18" s="147" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24364,7 +24353,7 @@
         <v>213</v>
       </c>
       <c r="E19" s="147" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24486,7 +24475,7 @@
         <v>294</v>
       </c>
       <c r="E27" s="152" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F27" s="0"/>
     </row>
@@ -24634,10 +24623,10 @@
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151"/>
       <c r="B40" s="149" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C40" s="148" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D40" s="151"/>
       <c r="E40" s="152"/>
@@ -25077,10 +25066,10 @@
         <v>468</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="E2" s="148" t="s">
-        <v>534</v>
+        <v>470</v>
       </c>
       <c r="F2" s="147" t="s">
         <v>284</v>
@@ -25095,10 +25084,10 @@
         <v>213</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
       <c r="E3" s="148" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="F3" s="147" t="s">
         <v>287</v>
@@ -25113,10 +25102,10 @@
         <v>468</v>
       </c>
       <c r="D4" s="148" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="E4" s="148" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="F4" s="147" t="s">
         <v>287</v>
@@ -25133,10 +25122,10 @@
         <v>213</v>
       </c>
       <c r="D5" s="148" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="E5" s="148" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="F5" s="147" t="s">
         <v>287</v>
@@ -25151,10 +25140,10 @@
         <v>468</v>
       </c>
       <c r="D6" s="148" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="F6" s="147" t="s">
         <v>284</v>
@@ -25169,10 +25158,10 @@
         <v>468</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="E7" s="148" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="F7" s="147" t="s">
         <v>284</v>
@@ -25189,10 +25178,10 @@
         <v>213</v>
       </c>
       <c r="D8" s="148" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="E8" s="148" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="F8" s="147" t="s">
         <v>284</v>
@@ -25207,10 +25196,10 @@
         <v>213</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="F9" s="147" t="s">
         <v>284</v>
@@ -25225,25 +25214,25 @@
         <v>213</v>
       </c>
       <c r="D10" s="148" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="E10" s="148" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61"/>
       <c r="B11" s="147" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" s="147" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25294,37 +25283,37 @@
         <v>463</v>
       </c>
       <c r="D1" s="169" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="149" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="170" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C2" s="151" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="171" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="149" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="170" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B3" s="150" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C3" s="151" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="171" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
@@ -25637,31 +25626,31 @@
         <v>463</v>
       </c>
       <c r="D1" s="181" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AMJ1" s="179"/>
     </row>
     <row r="2" s="150" customFormat="true" ht="13.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="182" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C2" s="152" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="171" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AMJ2" s="179"/>
     </row>
     <row r="3" s="150" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="182" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B3" s="183" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C3" s="152" t="n">
         <v>1</v>
@@ -25671,10 +25660,10 @@
     </row>
     <row r="4" s="150" customFormat="true" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B4" s="150" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C4" s="152" t="n">
         <v>2</v>
@@ -25684,10 +25673,10 @@
     </row>
     <row r="5" s="150" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C5" s="152" t="n">
         <v>2</v>
@@ -25697,10 +25686,10 @@
     </row>
     <row r="6" s="150" customFormat="true" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C6" s="152" t="n">
         <v>3</v>
@@ -25710,10 +25699,10 @@
     </row>
     <row r="7" s="150" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="182" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C7" s="152" t="n">
         <v>3</v>
@@ -26012,8 +26001,10 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26032,51 +26023,51 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="165" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C1" s="165" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="165" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="165" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G1" s="165" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="165" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I1" s="165" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B2" s="152" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E2" s="150" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F2" s="150" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G2" s="148" t="s">
         <v>278</v>
@@ -26092,16 +26083,16 @@
       <c r="A3" s="152"/>
       <c r="B3" s="152"/>
       <c r="C3" s="150" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E3" s="150" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F3" s="150" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G3" s="148" t="s">
         <v>278</v>
@@ -26117,16 +26108,16 @@
       <c r="A4" s="152"/>
       <c r="B4" s="152"/>
       <c r="C4" s="150" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D4" s="148" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E4" s="150" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F4" s="150" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G4" s="148" t="s">
         <v>278</v>
@@ -26140,53 +26131,53 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="152" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D5" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E5" s="150" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F5" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G5" s="148" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H5" s="148" t="s">
         <v>286</v>
       </c>
       <c r="I5" s="150" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="152"/>
       <c r="B6" s="152"/>
       <c r="C6" s="150" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D6" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E6" s="150" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F6" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G6" s="148" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H6" s="150" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>286</v>
@@ -26196,47 +26187,47 @@
       <c r="A7" s="152"/>
       <c r="B7" s="152"/>
       <c r="C7" s="150" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E7" s="150" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F7" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G7" s="148" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I7" s="150" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="152"/>
       <c r="B8" s="152"/>
       <c r="C8" s="150" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D8" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E8" s="150" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F8" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G8" s="148" t="s">
+        <v>585</v>
+      </c>
+      <c r="H8" s="150" t="s">
         <v>591</v>
-      </c>
-      <c r="H8" s="150" t="s">
-        <v>597</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>213</v>
@@ -26246,47 +26237,47 @@
       <c r="A9" s="152"/>
       <c r="B9" s="152"/>
       <c r="C9" s="150" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E9" s="150" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F9" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G9" s="148" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I9" s="150" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="152"/>
       <c r="B10" s="152"/>
       <c r="C10" s="150" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D10" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E10" s="150" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F10" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G10" s="148" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H10" s="150" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>213</v>
@@ -26295,50 +26286,50 @@
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="152"/>
       <c r="B11" s="152" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E11" s="150" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F11" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G11" s="148" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I11" s="150" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="152"/>
       <c r="B12" s="152"/>
       <c r="C12" s="150" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E12" s="150" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F12" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G12" s="148" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H12" s="150" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>213</v>
@@ -26348,47 +26339,47 @@
       <c r="A13" s="152"/>
       <c r="B13" s="152"/>
       <c r="C13" s="150" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D13" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E13" s="150" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F13" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G13" s="148" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I13" s="150" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="152"/>
       <c r="B14" s="152"/>
       <c r="C14" s="150" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D14" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E14" s="150" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F14" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G14" s="148" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H14" s="150" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>213</v>
@@ -26398,47 +26389,47 @@
       <c r="A15" s="152"/>
       <c r="B15" s="152"/>
       <c r="C15" s="150" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E15" s="150" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F15" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I15" s="150" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="152"/>
       <c r="B16" s="152"/>
       <c r="C16" s="150" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E16" s="150" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F16" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G16" s="148" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H16" s="150" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>213</v>
@@ -26447,50 +26438,50 @@
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="152"/>
       <c r="B17" s="152" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C17" s="150" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D17" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E17" s="150" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F17" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G17" s="148" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I17" s="150" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="152"/>
       <c r="B18" s="152"/>
       <c r="C18" s="150" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E18" s="150" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F18" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G18" s="148" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H18" s="150" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>213</v>
@@ -26500,47 +26491,47 @@
       <c r="A19" s="152"/>
       <c r="B19" s="152"/>
       <c r="C19" s="150" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D19" s="148" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F19" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G19" s="148" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="148" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="152"/>
       <c r="B20" s="152"/>
       <c r="C20" s="148" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D20" s="148" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E20" s="148" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F20" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G20" s="148" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H20" s="150" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>213</v>
@@ -26550,47 +26541,47 @@
       <c r="A21" s="152"/>
       <c r="B21" s="152"/>
       <c r="C21" s="148" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F21" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G21" s="148" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I21" s="148" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="152"/>
       <c r="B22" s="152"/>
       <c r="C22" s="148" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D22" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F22" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G22" s="148" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H22" s="148" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>213</v>
@@ -26599,50 +26590,50 @@
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="152"/>
       <c r="B23" s="152" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C23" s="148" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D23" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E23" s="150" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F23" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G23" s="148" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I23" s="148" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="152"/>
       <c r="B24" s="152"/>
       <c r="C24" s="148" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D24" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E24" s="150" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F24" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G24" s="148" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H24" s="148" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>213</v>
@@ -26652,47 +26643,47 @@
       <c r="A25" s="152"/>
       <c r="B25" s="152"/>
       <c r="C25" s="148" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D25" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F25" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I25" s="148" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="152"/>
       <c r="B26" s="152"/>
       <c r="C26" s="148" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D26" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F26" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G26" s="148" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H26" s="148" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>213</v>
@@ -26702,47 +26693,47 @@
       <c r="A27" s="152"/>
       <c r="B27" s="152"/>
       <c r="C27" s="148" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D27" s="148" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E27" s="148" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F27" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I27" s="148" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="152"/>
       <c r="B28" s="152"/>
       <c r="C28" s="148" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D28" s="148" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E28" s="148" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F28" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H28" s="148" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>213</v>
@@ -26751,22 +26742,22 @@
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="152"/>
       <c r="B29" s="152" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C29" s="148" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D29" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E29" s="150" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F29" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G29" s="150" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>213</v>
@@ -26779,19 +26770,19 @@
       <c r="A30" s="152"/>
       <c r="B30" s="152"/>
       <c r="C30" s="148" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D30" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E30" s="150" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F30" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G30" s="150" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>213</v>
@@ -26804,19 +26795,19 @@
       <c r="A31" s="152"/>
       <c r="B31" s="152"/>
       <c r="C31" s="148" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D31" s="148" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E31" s="148" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F31" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>213</v>
@@ -26828,22 +26819,22 @@
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="152"/>
       <c r="B32" s="152" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C32" s="148" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D32" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E32" s="150" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F32" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G32" s="150" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>213</v>
@@ -26856,19 +26847,19 @@
       <c r="A33" s="152"/>
       <c r="B33" s="152"/>
       <c r="C33" s="148" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D33" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E33" s="150" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F33" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G33" s="150" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>213</v>
@@ -26881,19 +26872,19 @@
       <c r="A34" s="152"/>
       <c r="B34" s="152"/>
       <c r="C34" s="148" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D34" s="148" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F34" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G34" s="150" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>213</v>
@@ -26905,22 +26896,22 @@
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="152"/>
       <c r="B35" s="152" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C35" s="148" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D35" s="148" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E35" s="150" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F35" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G35" s="150" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>213</v>
@@ -26933,19 +26924,19 @@
       <c r="A36" s="152"/>
       <c r="B36" s="152"/>
       <c r="C36" s="148" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D36" s="148" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E36" s="148" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F36" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G36" s="150" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>213</v>
@@ -26958,19 +26949,19 @@
       <c r="A37" s="152"/>
       <c r="B37" s="152"/>
       <c r="C37" s="148" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D37" s="148" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E37" s="148" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F37" s="150" t="s">
         <v>278</v>
       </c>
       <c r="G37" s="150" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>213</v>
@@ -27009,8 +27000,8 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27030,54 +27021,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="165" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C1" s="165" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="165" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="165" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G1" s="165" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H1" s="165" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I1" s="165" t="s">
         <v>254</v>
       </c>
       <c r="J1" s="165" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K1" s="165" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="152" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B2" s="152" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E2" s="150" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F2" s="150" t="s">
         <v>354</v>
@@ -27086,7 +27077,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="150" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I2" s="148" t="n">
         <v>0</v>
@@ -27095,7 +27086,7 @@
         <v>213</v>
       </c>
       <c r="K2" s="148" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27104,19 +27095,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="150" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D3" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E3" s="150" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F3" s="150" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G3" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H3" s="150" t="s">
         <v>286</v>
@@ -27128,7 +27119,7 @@
         <v>286</v>
       </c>
       <c r="K3" s="148" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27137,13 +27128,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D4" s="148" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E4" s="150" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F4" s="150" t="s">
         <v>213</v>
@@ -27152,7 +27143,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="150" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I4" s="148" t="n">
         <v>0</v>
@@ -27161,7 +27152,7 @@
         <v>286</v>
       </c>
       <c r="K4" s="148" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27170,19 +27161,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D5" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E5" s="150" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F5" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G5" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H5" s="150" t="s">
         <v>213</v>
@@ -27203,13 +27194,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D6" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E6" s="150" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F6" s="150" t="s">
         <v>213</v>
@@ -27236,19 +27227,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E7" s="150" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F7" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G7" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H7" s="150" t="s">
         <v>213</v>
@@ -27269,22 +27260,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="150" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D8" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E8" s="150" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F8" s="150" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G8" s="150" t="n">
         <v>30</v>
       </c>
       <c r="H8" s="150" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="I8" s="148" t="n">
         <v>1</v>
@@ -27293,7 +27284,7 @@
         <v>213</v>
       </c>
       <c r="K8" s="150" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27302,28 +27293,28 @@
         <v>3</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D9" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="E9" s="150" t="s">
+        <v>708</v>
+      </c>
+      <c r="F9" s="150" t="s">
         <v>687</v>
-      </c>
-      <c r="E9" s="150" t="s">
-        <v>714</v>
-      </c>
-      <c r="F9" s="150" t="s">
-        <v>693</v>
       </c>
       <c r="G9" s="150" t="n">
         <v>30</v>
       </c>
       <c r="H9" s="150" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I9" s="150" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="150" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="K9" s="150" t="s">
         <v>213</v>
@@ -27335,19 +27326,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="150" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D10" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E10" s="150" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F10" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H10" s="150" t="s">
         <v>213</v>
@@ -27368,22 +27359,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E11" s="150" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F11" s="150" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G11" s="150" t="n">
         <v>60</v>
       </c>
       <c r="H11" s="150" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I11" s="148" t="n">
         <v>0</v>
@@ -27392,7 +27383,7 @@
         <v>213</v>
       </c>
       <c r="K11" s="150" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27401,19 +27392,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="150" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E12" s="150" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F12" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G12" s="150" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H12" s="150" t="s">
         <v>213</v>
@@ -27430,25 +27421,25 @@
     </row>
     <row r="13" customFormat="false" ht="57.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="152" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B13" s="152" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>484</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F13" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G13" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H13" s="150" t="s">
         <v>213</v>
@@ -27469,19 +27460,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="150" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D14" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E14" s="150" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F14" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H14" s="150" t="s">
         <v>213</v>
@@ -27502,31 +27493,31 @@
         <v>1</v>
       </c>
       <c r="C15" s="150" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E15" s="150" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G15" s="150" t="n">
         <v>40</v>
       </c>
       <c r="H15" s="150" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="I15" s="148" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="188" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27535,13 +27526,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="150" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E16" s="150" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F16" s="150" t="s">
         <v>213</v>
@@ -27568,19 +27559,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="150" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D17" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E17" s="150" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F17" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H17" s="150" t="s">
         <v>213</v>
@@ -27601,19 +27592,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E18" s="150" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F18" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H18" s="150" t="s">
         <v>213</v>
@@ -27634,19 +27625,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D19" s="148" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F19" s="150" t="s">
         <v>213</v>
       </c>
       <c r="G19" s="150" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H19" s="150" t="s">
         <v>213</v>
@@ -27667,13 +27658,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="150" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D20" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E20" s="150" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F20" s="150" t="s">
         <v>213</v>
@@ -27691,7 +27682,7 @@
         <v>213</v>
       </c>
       <c r="K20" s="150" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27700,13 +27691,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F21" s="148" t="s">
         <v>354</v>
@@ -27715,7 +27706,7 @@
         <v>90</v>
       </c>
       <c r="H21" s="150" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I21" s="148" t="n">
         <v>0</v>
@@ -27724,7 +27715,7 @@
         <v>213</v>
       </c>
       <c r="K21" s="150" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27733,13 +27724,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="148" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D22" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F22" s="148" t="s">
         <v>213</v>
@@ -27762,25 +27753,25 @@
     </row>
     <row r="23" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="152" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B23" s="148" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="148" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D23" s="148" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F23" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G23" s="148" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H23" s="148" t="s">
         <v>213</v>
@@ -27801,19 +27792,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="148" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D24" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E24" s="150" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F24" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G24" s="148" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H24" s="148" t="s">
         <v>213</v>
@@ -27834,19 +27825,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="148" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D25" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E25" s="150" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F25" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G25" s="148" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H25" s="148" t="s">
         <v>213</v>
@@ -27867,13 +27858,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D26" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E26" s="148" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F26" s="148" t="s">
         <v>213</v>
@@ -27900,25 +27891,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D27" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E27" s="150" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F27" s="148" t="s">
         <v>354</v>
       </c>
       <c r="G27" s="148" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H27" s="150" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I27" s="148" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J27" s="148" t="s">
         <v>286</v>
@@ -27933,19 +27924,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="148" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D28" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E28" s="148" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F28" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H28" s="148" t="s">
         <v>213</v>
@@ -27966,19 +27957,19 @@
         <v>3</v>
       </c>
       <c r="C29" s="148" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D29" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F29" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="148" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H29" s="148" t="s">
         <v>213</v>
@@ -27999,19 +27990,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="148" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D30" s="148" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E30" s="150" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F30" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G30" s="148" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H30" s="148" t="s">
         <v>213</v>
@@ -28032,19 +28023,19 @@
         <v>5</v>
       </c>
       <c r="C31" s="148" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D31" s="148" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E31" s="150" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F31" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H31" s="148" t="s">
         <v>213</v>
@@ -28065,19 +28056,19 @@
         <v>5</v>
       </c>
       <c r="C32" s="148" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D32" s="148" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E32" s="148" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F32" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G32" s="148" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H32" s="148" t="s">
         <v>213</v>
@@ -28094,25 +28085,25 @@
     </row>
     <row r="33" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B33" s="148" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>484</v>
       </c>
       <c r="E33" s="189" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F33" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H33" s="148" t="s">
         <v>213</v>
@@ -28133,19 +28124,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="148" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D34" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E34" s="150" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F34" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G34" s="150" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H34" s="148" t="s">
         <v>213</v>
@@ -28166,19 +28157,19 @@
         <v>1</v>
       </c>
       <c r="C35" s="148" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D35" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F35" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G35" s="148" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H35" s="148" t="s">
         <v>213</v>
@@ -28199,22 +28190,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="148" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D36" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E36" s="150" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F36" s="150" t="s">
         <v>354</v>
       </c>
       <c r="G36" s="150" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H36" s="150" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I36" s="150" t="n">
         <v>1</v>
@@ -28232,19 +28223,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="148" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D37" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E37" s="148" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F37" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G37" s="148" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H37" s="148" t="s">
         <v>213</v>
@@ -28265,22 +28256,22 @@
         <v>3</v>
       </c>
       <c r="C38" s="148" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D38" s="148" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E38" s="190" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F38" s="148" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G38" s="148" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H38" s="150" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="I38" s="190" t="s">
         <v>213</v>
@@ -28298,19 +28289,19 @@
         <v>3</v>
       </c>
       <c r="C39" s="148" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D39" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E39" s="148" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F39" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G39" s="148" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H39" s="148" t="s">
         <v>213</v>
@@ -28331,19 +28322,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="148" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D40" s="148" t="s">
         <v>484</v>
       </c>
       <c r="E40" s="150" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F40" s="148" t="s">
         <v>213</v>
       </c>
       <c r="G40" s="148" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H40" s="148" t="s">
         <v>213</v>
@@ -28364,52 +28355,52 @@
         <v>5</v>
       </c>
       <c r="C41" s="148" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D41" s="148" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F41" s="148" t="s">
         <v>354</v>
       </c>
       <c r="G41" s="148" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H41" s="148" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I41" s="148" t="s">
         <v>213</v>
       </c>
       <c r="J41" s="148" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="K41" s="148" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="158.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="150"/>
       <c r="B42" s="148" t="n">
         <v>5</v>
       </c>
       <c r="C42" s="148" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D42" s="148" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E42" s="148" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F42" s="148" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H42" s="148" t="n">
         <v>10</v>
@@ -28428,7 +28419,7 @@
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F43" s="150"/>
       <c r="G43" s="150"/>
@@ -31314,7 +31305,7 @@
   <dimension ref="A1:AO178"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31327,117 +31318,117 @@
         <v>113</v>
       </c>
       <c r="B1" s="191" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1" s="191" t="s">
+        <v>803</v>
+      </c>
+      <c r="D1" s="191" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="191" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1" s="191" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="191" t="s">
         <v>808</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="I1" s="191" t="s">
         <v>809</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="J1" s="191" t="s">
         <v>810</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="K1" s="191" t="s">
         <v>811</v>
       </c>
-      <c r="F1" s="191" t="s">
+      <c r="L1" s="191" t="s">
         <v>812</v>
       </c>
-      <c r="G1" s="191" t="s">
+      <c r="M1" s="191" t="s">
         <v>813</v>
       </c>
-      <c r="H1" s="191" t="s">
+      <c r="N1" s="191" t="s">
         <v>814</v>
       </c>
-      <c r="I1" s="191" t="s">
+      <c r="O1" s="191" t="s">
         <v>815</v>
       </c>
-      <c r="J1" s="191" t="s">
+      <c r="P1" s="191" t="s">
         <v>816</v>
       </c>
-      <c r="K1" s="191" t="s">
+      <c r="Q1" s="191" t="s">
         <v>817</v>
       </c>
-      <c r="L1" s="191" t="s">
+      <c r="R1" s="191" t="s">
         <v>818</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="S1" s="191" t="s">
         <v>819</v>
       </c>
-      <c r="N1" s="191" t="s">
+      <c r="T1" s="191" t="s">
         <v>820</v>
       </c>
-      <c r="O1" s="191" t="s">
+      <c r="U1" s="191" t="s">
         <v>821</v>
       </c>
-      <c r="P1" s="191" t="s">
+      <c r="V1" s="191" t="s">
         <v>822</v>
       </c>
-      <c r="Q1" s="191" t="s">
+      <c r="W1" s="191" t="s">
         <v>823</v>
       </c>
-      <c r="R1" s="191" t="s">
+      <c r="X1" s="191" t="s">
         <v>824</v>
       </c>
-      <c r="S1" s="191" t="s">
+      <c r="Y1" s="191" t="s">
         <v>825</v>
       </c>
-      <c r="T1" s="191" t="s">
+      <c r="Z1" s="191" t="s">
         <v>826</v>
       </c>
-      <c r="U1" s="191" t="s">
+      <c r="AA1" s="191" t="s">
         <v>827</v>
       </c>
-      <c r="V1" s="191" t="s">
+      <c r="AB1" s="191" t="s">
         <v>828</v>
       </c>
-      <c r="W1" s="191" t="s">
+      <c r="AC1" s="191" t="s">
         <v>829</v>
       </c>
-      <c r="X1" s="191" t="s">
+      <c r="AD1" s="191" t="s">
         <v>830</v>
       </c>
-      <c r="Y1" s="191" t="s">
+      <c r="AE1" s="191" t="s">
         <v>831</v>
       </c>
-      <c r="Z1" s="191" t="s">
+      <c r="AF1" s="191" t="s">
         <v>832</v>
       </c>
-      <c r="AA1" s="191" t="s">
+      <c r="AG1" s="191" t="s">
         <v>833</v>
       </c>
-      <c r="AB1" s="191" t="s">
+      <c r="AH1" s="191" t="s">
         <v>834</v>
       </c>
-      <c r="AC1" s="191" t="s">
+      <c r="AI1" s="191" t="s">
         <v>835</v>
       </c>
-      <c r="AD1" s="191" t="s">
+      <c r="AJ1" s="191" t="s">
         <v>836</v>
       </c>
-      <c r="AE1" s="191" t="s">
+      <c r="AK1" s="191" t="s">
         <v>837</v>
-      </c>
-      <c r="AF1" s="191" t="s">
-        <v>838</v>
-      </c>
-      <c r="AG1" s="191" t="s">
-        <v>839</v>
-      </c>
-      <c r="AH1" s="191" t="s">
-        <v>840</v>
-      </c>
-      <c r="AI1" s="191" t="s">
-        <v>841</v>
-      </c>
-      <c r="AJ1" s="191" t="s">
-        <v>842</v>
-      </c>
-      <c r="AK1" s="191" t="s">
-        <v>843</v>
       </c>
       <c r="AM1" s="192"/>
       <c r="AN1" s="192"/>
       <c r="AO1" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31555,7 +31546,7 @@
       <c r="AM2" s="192"/>
       <c r="AN2" s="192"/>
       <c r="AO2" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31673,7 +31664,7 @@
       <c r="AM3" s="192"/>
       <c r="AN3" s="192"/>
       <c r="AO3" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31790,7 +31781,7 @@
       </c>
       <c r="AM4" s="192"/>
       <c r="AO4" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31907,7 +31898,7 @@
       </c>
       <c r="AM5" s="192"/>
       <c r="AO5" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32024,7 +32015,7 @@
       </c>
       <c r="AM6" s="192"/>
       <c r="AO6" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32141,7 +32132,7 @@
       </c>
       <c r="AM7" s="192"/>
       <c r="AO7" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32258,7 +32249,7 @@
       </c>
       <c r="AM8" s="192"/>
       <c r="AO8" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32375,7 +32366,7 @@
       </c>
       <c r="AM9" s="192"/>
       <c r="AO9" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32492,7 +32483,7 @@
       </c>
       <c r="AM10" s="192"/>
       <c r="AO10" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32609,7 +32600,7 @@
       </c>
       <c r="AM11" s="192"/>
       <c r="AO11" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32726,7 +32717,7 @@
       </c>
       <c r="AM12" s="192"/>
       <c r="AO12" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32843,7 +32834,7 @@
       </c>
       <c r="AM13" s="192"/>
       <c r="AO13" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32960,7 +32951,7 @@
       </c>
       <c r="AM14" s="192"/>
       <c r="AO14" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33077,7 +33068,7 @@
       </c>
       <c r="AM15" s="192"/>
       <c r="AO15" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33194,7 +33185,7 @@
       </c>
       <c r="AM16" s="192"/>
       <c r="AO16" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33311,7 +33302,7 @@
       </c>
       <c r="AM17" s="192"/>
       <c r="AO17" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33428,7 +33419,7 @@
       </c>
       <c r="AM18" s="192"/>
       <c r="AO18" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33545,7 +33536,7 @@
       </c>
       <c r="AM19" s="192"/>
       <c r="AO19" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33662,7 +33653,7 @@
       </c>
       <c r="AM20" s="192"/>
       <c r="AO20" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33779,7 +33770,7 @@
       </c>
       <c r="AM21" s="192"/>
       <c r="AO21" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33896,7 +33887,7 @@
       </c>
       <c r="AM22" s="192"/>
       <c r="AO22" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34013,7 +34004,7 @@
       </c>
       <c r="AM23" s="192"/>
       <c r="AO23" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34246,7 +34237,7 @@
       <c r="AM25" s="192"/>
       <c r="AN25" s="192"/>
       <c r="AO25" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34364,7 +34355,7 @@
       <c r="AM26" s="192"/>
       <c r="AN26" s="192"/>
       <c r="AO26" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34481,7 +34472,7 @@
       </c>
       <c r="AM27" s="192"/>
       <c r="AO27" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34598,7 +34589,7 @@
       </c>
       <c r="AM28" s="192"/>
       <c r="AO28" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34715,7 +34706,7 @@
       </c>
       <c r="AM29" s="192"/>
       <c r="AO29" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34832,7 +34823,7 @@
       </c>
       <c r="AM30" s="192"/>
       <c r="AO30" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34949,7 +34940,7 @@
       </c>
       <c r="AM31" s="192"/>
       <c r="AO31" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35066,7 +35057,7 @@
       </c>
       <c r="AM32" s="192"/>
       <c r="AO32" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35183,7 +35174,7 @@
       </c>
       <c r="AM33" s="192"/>
       <c r="AO33" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35300,7 +35291,7 @@
       </c>
       <c r="AM34" s="192"/>
       <c r="AO34" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35417,7 +35408,7 @@
       </c>
       <c r="AM35" s="192"/>
       <c r="AO35" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35534,7 +35525,7 @@
       </c>
       <c r="AM36" s="192"/>
       <c r="AO36" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35651,7 +35642,7 @@
       </c>
       <c r="AM37" s="192"/>
       <c r="AO37" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35663,11 +35654,11 @@
       <c r="AG38" s="192"/>
       <c r="AH38" s="192"/>
       <c r="AI38" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM38" s="192"/>
       <c r="AO38" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35679,11 +35670,11 @@
       <c r="AG39" s="192"/>
       <c r="AH39" s="192"/>
       <c r="AI39" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM39" s="192"/>
       <c r="AO39" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35695,11 +35686,11 @@
       <c r="AG40" s="192"/>
       <c r="AH40" s="192"/>
       <c r="AI40" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM40" s="192"/>
       <c r="AO40" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35711,11 +35702,11 @@
       <c r="AG41" s="192"/>
       <c r="AH41" s="192"/>
       <c r="AI41" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM41" s="192"/>
       <c r="AO41" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35727,11 +35718,11 @@
       <c r="AG42" s="192"/>
       <c r="AH42" s="192"/>
       <c r="AI42" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM42" s="192"/>
       <c r="AO42" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35742,11 +35733,11 @@
       <c r="AG43" s="192"/>
       <c r="AH43" s="192"/>
       <c r="AI43" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM43" s="192"/>
       <c r="AO43" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35758,11 +35749,11 @@
       <c r="AG44" s="192"/>
       <c r="AH44" s="192"/>
       <c r="AI44" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM44" s="192"/>
       <c r="AO44" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35774,11 +35765,11 @@
       <c r="AG45" s="192"/>
       <c r="AH45" s="192"/>
       <c r="AI45" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM45" s="192"/>
       <c r="AO45" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35790,11 +35781,11 @@
       <c r="AG46" s="192"/>
       <c r="AH46" s="192"/>
       <c r="AI46" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM46" s="192"/>
       <c r="AO46" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35807,7 +35798,7 @@
       <c r="AH47" s="193"/>
       <c r="AM47" s="192"/>
       <c r="AO47" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35819,11 +35810,11 @@
       <c r="AG48" s="192"/>
       <c r="AH48" s="192"/>
       <c r="AI48" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM48" s="192"/>
       <c r="AO48" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35835,11 +35826,11 @@
       <c r="AG49" s="192"/>
       <c r="AH49" s="192"/>
       <c r="AI49" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM49" s="192"/>
       <c r="AO49" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35851,11 +35842,11 @@
       <c r="AG50" s="192"/>
       <c r="AH50" s="192"/>
       <c r="AI50" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM50" s="192"/>
       <c r="AO50" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35867,7 +35858,7 @@
       <c r="AG51" s="192"/>
       <c r="AH51" s="192"/>
       <c r="AI51" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM51" s="193"/>
       <c r="AN51" s="193"/>
@@ -35881,12 +35872,12 @@
       <c r="AG52" s="192"/>
       <c r="AH52" s="192"/>
       <c r="AI52" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM52" s="192"/>
       <c r="AN52" s="192"/>
       <c r="AO52" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35898,12 +35889,12 @@
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
       <c r="AI53" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM53" s="192"/>
       <c r="AN53" s="192"/>
       <c r="AO53" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35915,11 +35906,11 @@
       <c r="AG54" s="192"/>
       <c r="AH54" s="192"/>
       <c r="AI54" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM54" s="192"/>
       <c r="AO54" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35931,11 +35922,11 @@
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
       <c r="AI55" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM55" s="192"/>
       <c r="AO55" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35947,11 +35938,11 @@
       <c r="AG56" s="192"/>
       <c r="AH56" s="192"/>
       <c r="AI56" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM56" s="192"/>
       <c r="AO56" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35963,11 +35954,11 @@
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
       <c r="AI57" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM57" s="192"/>
       <c r="AO57" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35979,11 +35970,11 @@
       <c r="AG58" s="192"/>
       <c r="AH58" s="192"/>
       <c r="AI58" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM58" s="192"/>
       <c r="AO58" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35995,11 +35986,11 @@
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
       <c r="AI59" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM59" s="192"/>
       <c r="AO59" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36011,11 +36002,11 @@
       <c r="AG60" s="192"/>
       <c r="AH60" s="192"/>
       <c r="AI60" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM60" s="192"/>
       <c r="AO60" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36027,11 +36018,11 @@
       <c r="AG61" s="192"/>
       <c r="AH61" s="192"/>
       <c r="AI61" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM61" s="192"/>
       <c r="AO61" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36043,11 +36034,11 @@
       <c r="AG62" s="192"/>
       <c r="AH62" s="192"/>
       <c r="AI62" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM62" s="192"/>
       <c r="AO62" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36059,11 +36050,11 @@
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
       <c r="AI63" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM63" s="192"/>
       <c r="AO63" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36075,11 +36066,11 @@
       <c r="AG64" s="192"/>
       <c r="AH64" s="192"/>
       <c r="AI64" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM64" s="192"/>
       <c r="AO64" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36091,11 +36082,11 @@
       <c r="AG65" s="192"/>
       <c r="AH65" s="192"/>
       <c r="AI65" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM65" s="192"/>
       <c r="AO65" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36107,11 +36098,11 @@
       <c r="AG66" s="192"/>
       <c r="AH66" s="192"/>
       <c r="AI66" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM66" s="192"/>
       <c r="AO66" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36123,11 +36114,11 @@
       <c r="AG67" s="192"/>
       <c r="AH67" s="192"/>
       <c r="AI67" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM67" s="192"/>
       <c r="AO67" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36138,11 +36129,11 @@
       <c r="AG68" s="192"/>
       <c r="AH68" s="192"/>
       <c r="AI68" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM68" s="192"/>
       <c r="AO68" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36154,11 +36145,11 @@
       <c r="AG69" s="192"/>
       <c r="AH69" s="192"/>
       <c r="AI69" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM69" s="192"/>
       <c r="AO69" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36170,11 +36161,11 @@
       <c r="AG70" s="192"/>
       <c r="AH70" s="192"/>
       <c r="AI70" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM70" s="192"/>
       <c r="AO70" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36185,11 +36176,11 @@
       <c r="AG71" s="192"/>
       <c r="AH71" s="192"/>
       <c r="AI71" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM71" s="192"/>
       <c r="AO71" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36200,11 +36191,11 @@
       <c r="AG72" s="192"/>
       <c r="AH72" s="192"/>
       <c r="AI72" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM72" s="192"/>
       <c r="AO72" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36215,11 +36206,11 @@
       <c r="AG73" s="192"/>
       <c r="AH73" s="192"/>
       <c r="AI73" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM73" s="192"/>
       <c r="AO73" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36231,7 +36222,7 @@
       <c r="AH74" s="193"/>
       <c r="AM74" s="192"/>
       <c r="AO74" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36242,11 +36233,11 @@
       <c r="AG75" s="192"/>
       <c r="AH75" s="192"/>
       <c r="AI75" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM75" s="192"/>
       <c r="AO75" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36257,11 +36248,11 @@
       <c r="AG76" s="192"/>
       <c r="AH76" s="192"/>
       <c r="AI76" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM76" s="192"/>
       <c r="AO76" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36272,11 +36263,11 @@
       <c r="AG77" s="192"/>
       <c r="AH77" s="192"/>
       <c r="AI77" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM77" s="192"/>
       <c r="AO77" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36287,11 +36278,11 @@
       <c r="AG78" s="192"/>
       <c r="AH78" s="192"/>
       <c r="AI78" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM78" s="192"/>
       <c r="AO78" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36302,11 +36293,11 @@
       <c r="AG79" s="192"/>
       <c r="AH79" s="192"/>
       <c r="AI79" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM79" s="192"/>
       <c r="AO79" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36317,7 +36308,7 @@
       <c r="AG80" s="192"/>
       <c r="AH80" s="192"/>
       <c r="AI80" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM80" s="193"/>
       <c r="AN80" s="193"/>
@@ -36330,12 +36321,12 @@
       <c r="AG81" s="192"/>
       <c r="AH81" s="192"/>
       <c r="AI81" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM81" s="192"/>
       <c r="AN81" s="192"/>
       <c r="AO81" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36346,12 +36337,12 @@
       <c r="AG82" s="192"/>
       <c r="AH82" s="192"/>
       <c r="AI82" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM82" s="192"/>
       <c r="AN82" s="192"/>
       <c r="AO82" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36362,11 +36353,11 @@
       <c r="AG83" s="192"/>
       <c r="AH83" s="192"/>
       <c r="AI83" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM83" s="192"/>
       <c r="AO83" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36377,11 +36368,11 @@
       <c r="AG84" s="192"/>
       <c r="AH84" s="192"/>
       <c r="AI84" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM84" s="192"/>
       <c r="AO84" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36392,11 +36383,11 @@
       <c r="AG85" s="192"/>
       <c r="AH85" s="192"/>
       <c r="AI85" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM85" s="192"/>
       <c r="AO85" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36407,11 +36398,11 @@
       <c r="AG86" s="192"/>
       <c r="AH86" s="192"/>
       <c r="AI86" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM86" s="192"/>
       <c r="AO86" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36422,11 +36413,11 @@
       <c r="AG87" s="192"/>
       <c r="AH87" s="192"/>
       <c r="AI87" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM87" s="192"/>
       <c r="AO87" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36437,11 +36428,11 @@
       <c r="AG88" s="192"/>
       <c r="AH88" s="192"/>
       <c r="AI88" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM88" s="192"/>
       <c r="AO88" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36452,11 +36443,11 @@
       <c r="AG89" s="192"/>
       <c r="AH89" s="192"/>
       <c r="AI89" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM89" s="192"/>
       <c r="AO89" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36467,11 +36458,11 @@
       <c r="AG90" s="192"/>
       <c r="AH90" s="192"/>
       <c r="AI90" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM90" s="192"/>
       <c r="AO90" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36482,11 +36473,11 @@
       <c r="AG91" s="192"/>
       <c r="AH91" s="192"/>
       <c r="AI91" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM91" s="192"/>
       <c r="AO91" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36497,11 +36488,11 @@
       <c r="AG92" s="192"/>
       <c r="AH92" s="192"/>
       <c r="AI92" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM92" s="192"/>
       <c r="AO92" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36512,11 +36503,11 @@
       <c r="AG93" s="192"/>
       <c r="AH93" s="192"/>
       <c r="AI93" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM93" s="192"/>
       <c r="AO93" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36527,11 +36518,11 @@
       <c r="AG94" s="192"/>
       <c r="AH94" s="192"/>
       <c r="AI94" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM94" s="192"/>
       <c r="AO94" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36542,11 +36533,11 @@
       <c r="AG95" s="192"/>
       <c r="AH95" s="192"/>
       <c r="AI95" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM95" s="192"/>
       <c r="AO95" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36558,11 +36549,11 @@
       <c r="AG96" s="192"/>
       <c r="AH96" s="192"/>
       <c r="AI96" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM96" s="192"/>
       <c r="AO96" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36574,11 +36565,11 @@
       <c r="AG97" s="192"/>
       <c r="AH97" s="192"/>
       <c r="AI97" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM97" s="192"/>
       <c r="AO97" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36589,11 +36580,11 @@
       <c r="AG98" s="192"/>
       <c r="AH98" s="192"/>
       <c r="AI98" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM98" s="192"/>
       <c r="AO98" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36604,11 +36595,11 @@
       <c r="AG99" s="192"/>
       <c r="AH99" s="192"/>
       <c r="AI99" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM99" s="192"/>
       <c r="AO99" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36619,11 +36610,11 @@
       <c r="AG100" s="192"/>
       <c r="AH100" s="192"/>
       <c r="AI100" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM100" s="192"/>
       <c r="AO100" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36634,11 +36625,11 @@
       <c r="AG101" s="192"/>
       <c r="AH101" s="192"/>
       <c r="AI101" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM101" s="192"/>
       <c r="AO101" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36649,11 +36640,11 @@
       <c r="AG102" s="192"/>
       <c r="AH102" s="192"/>
       <c r="AI102" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM102" s="192"/>
       <c r="AO102" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36665,7 +36656,7 @@
       <c r="AH103" s="193"/>
       <c r="AM103" s="192"/>
       <c r="AO103" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36676,11 +36667,11 @@
       <c r="AG104" s="192"/>
       <c r="AH104" s="192"/>
       <c r="AI104" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM104" s="192"/>
       <c r="AO104" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36691,11 +36682,11 @@
       <c r="AG105" s="192"/>
       <c r="AH105" s="192"/>
       <c r="AI105" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM105" s="192"/>
       <c r="AO105" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36706,11 +36697,11 @@
       <c r="AG106" s="192"/>
       <c r="AH106" s="192"/>
       <c r="AI106" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM106" s="192"/>
       <c r="AO106" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36721,11 +36712,11 @@
       <c r="AG107" s="192"/>
       <c r="AH107" s="192"/>
       <c r="AI107" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM107" s="192"/>
       <c r="AO107" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36736,11 +36727,11 @@
       <c r="AG108" s="192"/>
       <c r="AH108" s="192"/>
       <c r="AI108" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM108" s="192"/>
       <c r="AO108" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36751,11 +36742,11 @@
       <c r="AG109" s="192"/>
       <c r="AH109" s="192"/>
       <c r="AI109" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM109" s="192"/>
       <c r="AO109" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36766,11 +36757,11 @@
       <c r="AG110" s="192"/>
       <c r="AH110" s="192"/>
       <c r="AI110" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM110" s="192"/>
       <c r="AO110" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,7 +36772,7 @@
       <c r="AG111" s="192"/>
       <c r="AH111" s="192"/>
       <c r="AI111" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM111" s="193"/>
       <c r="AN111" s="193"/>
@@ -36794,12 +36785,12 @@
       <c r="AG112" s="192"/>
       <c r="AH112" s="192"/>
       <c r="AI112" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM112" s="192"/>
       <c r="AN112" s="192"/>
       <c r="AO112" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36810,12 +36801,12 @@
       <c r="AG113" s="192"/>
       <c r="AH113" s="192"/>
       <c r="AI113" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM113" s="192"/>
       <c r="AN113" s="192"/>
       <c r="AO113" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36826,11 +36817,11 @@
       <c r="AG114" s="192"/>
       <c r="AH114" s="192"/>
       <c r="AI114" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM114" s="192"/>
       <c r="AO114" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36841,11 +36832,11 @@
       <c r="AG115" s="192"/>
       <c r="AH115" s="192"/>
       <c r="AI115" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM115" s="192"/>
       <c r="AO115" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36856,11 +36847,11 @@
       <c r="AG116" s="192"/>
       <c r="AH116" s="192"/>
       <c r="AI116" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM116" s="192"/>
       <c r="AO116" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36871,11 +36862,11 @@
       <c r="AG117" s="192"/>
       <c r="AH117" s="192"/>
       <c r="AI117" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM117" s="192"/>
       <c r="AO117" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36886,11 +36877,11 @@
       <c r="AG118" s="192"/>
       <c r="AH118" s="192"/>
       <c r="AI118" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM118" s="192"/>
       <c r="AO118" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36901,11 +36892,11 @@
       <c r="AG119" s="192"/>
       <c r="AH119" s="192"/>
       <c r="AI119" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM119" s="192"/>
       <c r="AO119" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36916,11 +36907,11 @@
       <c r="AG120" s="192"/>
       <c r="AH120" s="192"/>
       <c r="AI120" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM120" s="192"/>
       <c r="AO120" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36931,11 +36922,11 @@
       <c r="AG121" s="192"/>
       <c r="AH121" s="192"/>
       <c r="AI121" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM121" s="192"/>
       <c r="AO121" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36946,11 +36937,11 @@
       <c r="AG122" s="192"/>
       <c r="AH122" s="192"/>
       <c r="AI122" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM122" s="192"/>
       <c r="AO122" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36961,11 +36952,11 @@
       <c r="AG123" s="192"/>
       <c r="AH123" s="192"/>
       <c r="AI123" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM123" s="192"/>
       <c r="AO123" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36976,11 +36967,11 @@
       <c r="AG124" s="192"/>
       <c r="AH124" s="192"/>
       <c r="AI124" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM124" s="192"/>
       <c r="AO124" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36992,11 +36983,11 @@
       <c r="AG125" s="192"/>
       <c r="AH125" s="192"/>
       <c r="AI125" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM125" s="192"/>
       <c r="AO125" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37008,11 +36999,11 @@
       <c r="AG126" s="192"/>
       <c r="AH126" s="192"/>
       <c r="AI126" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM126" s="192"/>
       <c r="AO126" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37023,11 +37014,11 @@
       <c r="AG127" s="192"/>
       <c r="AH127" s="192"/>
       <c r="AI127" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM127" s="192"/>
       <c r="AO127" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37038,11 +37029,11 @@
       <c r="AG128" s="192"/>
       <c r="AH128" s="192"/>
       <c r="AI128" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM128" s="192"/>
       <c r="AO128" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37053,11 +37044,11 @@
       <c r="AG129" s="192"/>
       <c r="AH129" s="192"/>
       <c r="AI129" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM129" s="192"/>
       <c r="AO129" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37068,11 +37059,11 @@
       <c r="AG130" s="192"/>
       <c r="AH130" s="192"/>
       <c r="AI130" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM130" s="192"/>
       <c r="AO130" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37083,11 +37074,11 @@
       <c r="AG131" s="192"/>
       <c r="AH131" s="192"/>
       <c r="AI131" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM131" s="192"/>
       <c r="AO131" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37098,11 +37089,11 @@
       <c r="AG132" s="192"/>
       <c r="AH132" s="192"/>
       <c r="AI132" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM132" s="192"/>
       <c r="AO132" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37113,11 +37104,11 @@
       <c r="AG133" s="192"/>
       <c r="AH133" s="192"/>
       <c r="AI133" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM133" s="192"/>
       <c r="AO133" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37129,7 +37120,7 @@
       <c r="AH134" s="193"/>
       <c r="AM134" s="192"/>
       <c r="AO134" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37140,11 +37131,11 @@
       <c r="AG135" s="192"/>
       <c r="AH135" s="192"/>
       <c r="AI135" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM135" s="192"/>
       <c r="AO135" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37155,11 +37146,11 @@
       <c r="AG136" s="192"/>
       <c r="AH136" s="192"/>
       <c r="AI136" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM136" s="192"/>
       <c r="AO136" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37170,11 +37161,11 @@
       <c r="AG137" s="192"/>
       <c r="AH137" s="192"/>
       <c r="AI137" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM137" s="192"/>
       <c r="AO137" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37185,11 +37176,11 @@
       <c r="AG138" s="192"/>
       <c r="AH138" s="192"/>
       <c r="AI138" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM138" s="192"/>
       <c r="AO138" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37200,11 +37191,11 @@
       <c r="AG139" s="192"/>
       <c r="AH139" s="192"/>
       <c r="AI139" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM139" s="192"/>
       <c r="AO139" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37215,11 +37206,11 @@
       <c r="AG140" s="192"/>
       <c r="AH140" s="192"/>
       <c r="AI140" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM140" s="192"/>
       <c r="AO140" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37230,11 +37221,11 @@
       <c r="AG141" s="192"/>
       <c r="AH141" s="192"/>
       <c r="AI141" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM141" s="192"/>
       <c r="AO141" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37245,11 +37236,11 @@
       <c r="AG142" s="192"/>
       <c r="AH142" s="192"/>
       <c r="AI142" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM142" s="192"/>
       <c r="AO142" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37258,11 +37249,11 @@
       <c r="AG143" s="192"/>
       <c r="AH143" s="192"/>
       <c r="AI143" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM143" s="192"/>
       <c r="AO143" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37271,7 +37262,7 @@
       <c r="AG144" s="192"/>
       <c r="AH144" s="192"/>
       <c r="AI144" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM144" s="193"/>
       <c r="AN144" s="193"/>
@@ -37282,12 +37273,12 @@
       <c r="AG145" s="192"/>
       <c r="AH145" s="192"/>
       <c r="AI145" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM145" s="192"/>
       <c r="AN145" s="192"/>
       <c r="AO145" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37296,12 +37287,12 @@
       <c r="AG146" s="192"/>
       <c r="AH146" s="192"/>
       <c r="AI146" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM146" s="192"/>
       <c r="AN146" s="192"/>
       <c r="AO146" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37310,11 +37301,11 @@
       <c r="AG147" s="192"/>
       <c r="AH147" s="192"/>
       <c r="AI147" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM147" s="192"/>
       <c r="AO147" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37323,11 +37314,11 @@
       <c r="AG148" s="192"/>
       <c r="AH148" s="192"/>
       <c r="AI148" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM148" s="192"/>
       <c r="AO148" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37336,11 +37327,11 @@
       <c r="AG149" s="192"/>
       <c r="AH149" s="192"/>
       <c r="AI149" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM149" s="192"/>
       <c r="AO149" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37349,11 +37340,11 @@
       <c r="AG150" s="192"/>
       <c r="AH150" s="192"/>
       <c r="AI150" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM150" s="192"/>
       <c r="AO150" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37362,11 +37353,11 @@
       <c r="AG151" s="192"/>
       <c r="AH151" s="192"/>
       <c r="AI151" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM151" s="192"/>
       <c r="AO151" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37375,11 +37366,11 @@
       <c r="AG152" s="192"/>
       <c r="AH152" s="192"/>
       <c r="AI152" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM152" s="192"/>
       <c r="AO152" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37388,11 +37379,11 @@
       <c r="AG153" s="192"/>
       <c r="AH153" s="192"/>
       <c r="AI153" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM153" s="192"/>
       <c r="AO153" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37401,215 +37392,215 @@
       <c r="AG154" s="192"/>
       <c r="AH154" s="192"/>
       <c r="AI154" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM154" s="192"/>
       <c r="AO154" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG155" s="192"/>
       <c r="AH155" s="192"/>
       <c r="AI155" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM155" s="192"/>
       <c r="AO155" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG156" s="192"/>
       <c r="AH156" s="192"/>
       <c r="AI156" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM156" s="192"/>
       <c r="AO156" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG157" s="192"/>
       <c r="AH157" s="192"/>
       <c r="AI157" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM157" s="192"/>
       <c r="AO157" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG158" s="192"/>
       <c r="AH158" s="192"/>
       <c r="AI158" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM158" s="192"/>
       <c r="AO158" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG159" s="192"/>
       <c r="AH159" s="192"/>
       <c r="AI159" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM159" s="192"/>
       <c r="AO159" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG160" s="192"/>
       <c r="AH160" s="192"/>
       <c r="AI160" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM160" s="192"/>
       <c r="AO160" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG161" s="192"/>
       <c r="AH161" s="192"/>
       <c r="AI161" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM161" s="192"/>
       <c r="AO161" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG162" s="192"/>
       <c r="AH162" s="192"/>
       <c r="AI162" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM162" s="192"/>
       <c r="AO162" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG163" s="192"/>
       <c r="AH163" s="192"/>
       <c r="AI163" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM163" s="192"/>
       <c r="AO163" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG164" s="192"/>
       <c r="AH164" s="192"/>
       <c r="AI164" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM164" s="192"/>
       <c r="AO164" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG165" s="192"/>
       <c r="AH165" s="192"/>
       <c r="AI165" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM165" s="192"/>
       <c r="AO165" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG166" s="192"/>
       <c r="AH166" s="192"/>
       <c r="AI166" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AM166" s="192"/>
       <c r="AO166" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM167" s="192"/>
       <c r="AO167" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM168" s="192"/>
       <c r="AO168" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM169" s="192"/>
       <c r="AO169" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM170" s="192"/>
       <c r="AO170" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM171" s="192"/>
       <c r="AO171" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM172" s="192"/>
       <c r="AO172" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM173" s="192"/>
       <c r="AO173" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM174" s="192"/>
       <c r="AO174" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM175" s="192"/>
       <c r="AO175" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM176" s="192"/>
       <c r="AO176" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM177" s="192"/>
       <c r="AO177" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM178" s="192"/>
       <c r="AO178" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -37631,7 +37622,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37665,7 +37656,7 @@
       <c r="J1" s="192"/>
       <c r="K1" s="192"/>
       <c r="L1" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37693,7 +37684,7 @@
       <c r="J2" s="192"/>
       <c r="K2" s="192"/>
       <c r="L2" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37721,7 +37712,7 @@
       <c r="J3" s="192"/>
       <c r="K3" s="192"/>
       <c r="L3" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37749,7 +37740,7 @@
       <c r="J4" s="192"/>
       <c r="K4" s="192"/>
       <c r="L4" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37802,7 +37793,7 @@
       <c r="J6" s="192"/>
       <c r="K6" s="192"/>
       <c r="L6" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37830,7 +37821,7 @@
       <c r="J7" s="192"/>
       <c r="K7" s="192"/>
       <c r="L7" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37858,7 +37849,7 @@
       <c r="J8" s="192"/>
       <c r="K8" s="192"/>
       <c r="L8" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37886,7 +37877,7 @@
       <c r="J9" s="192"/>
       <c r="K9" s="192"/>
       <c r="L9" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37914,7 +37905,7 @@
       <c r="J10" s="192"/>
       <c r="K10" s="192"/>
       <c r="L10" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37942,7 +37933,7 @@
       <c r="J11" s="192"/>
       <c r="K11" s="192"/>
       <c r="L11" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37995,56 +37986,56 @@
       <c r="J13" s="192"/>
       <c r="K13" s="192"/>
       <c r="L13" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="192"/>
       <c r="K14" s="192"/>
       <c r="L14" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="192"/>
       <c r="K15" s="192"/>
       <c r="L15" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="192"/>
       <c r="K16" s="192"/>
       <c r="L16" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="192"/>
       <c r="K17" s="192"/>
       <c r="L17" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="192"/>
       <c r="K18" s="192"/>
       <c r="L18" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="192"/>
       <c r="K19" s="192"/>
       <c r="L19" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="192"/>
       <c r="K20" s="192"/>
       <c r="L20" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38055,70 +38046,70 @@
       <c r="J22" s="192"/>
       <c r="K22" s="192"/>
       <c r="L22" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="192"/>
       <c r="K23" s="192"/>
       <c r="L23" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="192"/>
       <c r="K24" s="192"/>
       <c r="L24" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="192"/>
       <c r="K25" s="192"/>
       <c r="L25" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="192"/>
       <c r="K26" s="192"/>
       <c r="L26" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="192"/>
       <c r="K27" s="192"/>
       <c r="L27" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="192"/>
       <c r="K28" s="192"/>
       <c r="L28" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="192"/>
       <c r="K29" s="192"/>
       <c r="L29" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="192"/>
       <c r="K30" s="192"/>
       <c r="L30" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="192"/>
       <c r="K31" s="192"/>
       <c r="L31" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38129,77 +38120,77 @@
       <c r="J33" s="192"/>
       <c r="K33" s="192"/>
       <c r="L33" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="192"/>
       <c r="K34" s="192"/>
       <c r="L34" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="192"/>
       <c r="K35" s="192"/>
       <c r="L35" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="192"/>
       <c r="K36" s="192"/>
       <c r="L36" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="192"/>
       <c r="K37" s="192"/>
       <c r="L37" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="192"/>
       <c r="K38" s="192"/>
       <c r="L38" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="192"/>
       <c r="K39" s="192"/>
       <c r="L39" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="192"/>
       <c r="K40" s="192"/>
       <c r="L40" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="192"/>
       <c r="K41" s="192"/>
       <c r="L41" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="192"/>
       <c r="K42" s="192"/>
       <c r="L42" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="192"/>
       <c r="K43" s="192"/>
       <c r="L43" s="192" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
